--- a/JupyterNotebooks/AvgHW/GossA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -644,34 +656,34 @@
         <v>1.569254074824068</v>
       </c>
       <c r="D3">
+        <v>1.569254074824068</v>
+      </c>
+      <c r="E3">
+        <v>1.190594874526949</v>
+      </c>
+      <c r="F3">
+        <v>1.097763535159608</v>
+      </c>
+      <c r="G3">
+        <v>1.156904908299804</v>
+      </c>
+      <c r="H3">
+        <v>1.148090686453917</v>
+      </c>
+      <c r="I3">
         <v>1.430420888209043</v>
       </c>
-      <c r="E3">
+      <c r="J3">
+        <v>0.9396144713188646</v>
+      </c>
+      <c r="K3">
         <v>1.345159600979164</v>
       </c>
-      <c r="F3">
-        <v>1.569254074824068</v>
-      </c>
-      <c r="G3">
-        <v>1.190594874526949</v>
-      </c>
-      <c r="H3">
-        <v>1.097763535159608</v>
-      </c>
-      <c r="I3">
+      <c r="L3">
+        <v>1.430420888209043</v>
+      </c>
+      <c r="M3">
         <v>1.569254074823952</v>
-      </c>
-      <c r="J3">
-        <v>1.430420888209043</v>
-      </c>
-      <c r="K3">
-        <v>0.9396144713188646</v>
-      </c>
-      <c r="L3">
-        <v>1.156904908299804</v>
-      </c>
-      <c r="M3">
-        <v>1.148090686453917</v>
       </c>
       <c r="N3">
         <v>1.569254074824068</v>
@@ -715,34 +727,34 @@
         <v>2.502563244388664</v>
       </c>
       <c r="D4">
+        <v>2.502563244388664</v>
+      </c>
+      <c r="E4">
+        <v>1.422482169259989</v>
+      </c>
+      <c r="F4">
+        <v>1.397293827631666</v>
+      </c>
+      <c r="G4">
+        <v>1.312414567097076</v>
+      </c>
+      <c r="H4">
+        <v>1.457926327561351</v>
+      </c>
+      <c r="I4">
         <v>1.737050942784302</v>
       </c>
-      <c r="E4">
+      <c r="J4">
+        <v>0.8516177735610253</v>
+      </c>
+      <c r="K4">
         <v>1.334292287912513</v>
       </c>
-      <c r="F4">
-        <v>2.502563244388664</v>
-      </c>
-      <c r="G4">
-        <v>1.422482169259989</v>
-      </c>
-      <c r="H4">
-        <v>1.397293827631666</v>
-      </c>
-      <c r="I4">
+      <c r="L4">
+        <v>1.737050942784302</v>
+      </c>
+      <c r="M4">
         <v>2.502563244388496</v>
-      </c>
-      <c r="J4">
-        <v>1.737050942784302</v>
-      </c>
-      <c r="K4">
-        <v>0.8516177735610253</v>
-      </c>
-      <c r="L4">
-        <v>1.312414567097076</v>
-      </c>
-      <c r="M4">
-        <v>1.457926327561351</v>
       </c>
       <c r="N4">
         <v>2.502563244388664</v>
@@ -786,34 +798,34 @@
         <v>0.9767920905391435</v>
       </c>
       <c r="D5">
+        <v>0.9767920905391435</v>
+      </c>
+      <c r="E5">
+        <v>0.6422145294582499</v>
+      </c>
+      <c r="F5">
+        <v>1.604557583294666</v>
+      </c>
+      <c r="G5">
+        <v>1.535580148296976</v>
+      </c>
+      <c r="H5">
+        <v>1.650599701846003</v>
+      </c>
+      <c r="I5">
         <v>3.825208956509219</v>
       </c>
-      <c r="E5">
+      <c r="J5">
+        <v>0.406170528368534</v>
+      </c>
+      <c r="K5">
         <v>2.980036563290933</v>
       </c>
-      <c r="F5">
+      <c r="L5">
+        <v>3.825208956509219</v>
+      </c>
+      <c r="M5">
         <v>0.9767920905391435</v>
-      </c>
-      <c r="G5">
-        <v>0.6422145294582499</v>
-      </c>
-      <c r="H5">
-        <v>1.604557583294666</v>
-      </c>
-      <c r="I5">
-        <v>0.9767920905391435</v>
-      </c>
-      <c r="J5">
-        <v>3.825208956509219</v>
-      </c>
-      <c r="K5">
-        <v>0.406170528368534</v>
-      </c>
-      <c r="L5">
-        <v>1.535580148296976</v>
-      </c>
-      <c r="M5">
-        <v>1.650599701846003</v>
       </c>
       <c r="N5">
         <v>0.9767920905391435</v>
@@ -857,34 +869,34 @@
         <v>0.916230768269628</v>
       </c>
       <c r="D6">
+        <v>0.916230768269628</v>
+      </c>
+      <c r="E6">
+        <v>1.955936000441994</v>
+      </c>
+      <c r="F6">
+        <v>2.915564759556362</v>
+      </c>
+      <c r="G6">
+        <v>0.2062785864384515</v>
+      </c>
+      <c r="H6">
+        <v>3.829194954547355</v>
+      </c>
+      <c r="I6">
         <v>10.54317485541254</v>
       </c>
-      <c r="E6">
+      <c r="J6">
+        <v>0.02890935085211756</v>
+      </c>
+      <c r="K6">
         <v>6.245326203686531</v>
       </c>
-      <c r="F6">
+      <c r="L6">
+        <v>10.54317485541254</v>
+      </c>
+      <c r="M6">
         <v>0.916230768269628</v>
-      </c>
-      <c r="G6">
-        <v>1.955936000441994</v>
-      </c>
-      <c r="H6">
-        <v>2.915564759556362</v>
-      </c>
-      <c r="I6">
-        <v>0.916230768269628</v>
-      </c>
-      <c r="J6">
-        <v>10.54317485541254</v>
-      </c>
-      <c r="K6">
-        <v>0.02890935085211756</v>
-      </c>
-      <c r="L6">
-        <v>0.2062785864384515</v>
-      </c>
-      <c r="M6">
-        <v>3.829194954547355</v>
       </c>
       <c r="N6">
         <v>0.916230768269628</v>
@@ -928,58 +940,58 @@
         <v>1.075870391784044</v>
       </c>
       <c r="D7">
-        <v>1.121927668444941</v>
+        <v>1.075870391784044</v>
       </c>
       <c r="E7">
-        <v>1.138255489078458</v>
+        <v>1.049768610134817</v>
       </c>
       <c r="F7">
-        <v>1.075870391784044</v>
+        <v>1.013556778178853</v>
       </c>
       <c r="G7">
-        <v>1.049768610134818</v>
+        <v>1.048918389728349</v>
       </c>
       <c r="H7">
-        <v>1.013556778178852</v>
+        <v>1.017886430588551</v>
       </c>
       <c r="I7">
-        <v>1.075870391783918</v>
+        <v>1.121927668444944</v>
       </c>
       <c r="J7">
-        <v>1.121927668444941</v>
+        <v>1.007891921242882</v>
       </c>
       <c r="K7">
-        <v>1.007891921242883</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="L7">
-        <v>1.048918389728348</v>
+        <v>1.121927668444944</v>
       </c>
       <c r="M7">
-        <v>1.017886430588551</v>
+        <v>1.075870391783917</v>
       </c>
       <c r="N7">
         <v>1.075870391784044</v>
       </c>
       <c r="O7">
-        <v>1.138255489078458</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="P7">
-        <v>1.1300915787617</v>
+        <v>1.130091578761701</v>
       </c>
       <c r="Q7">
         <v>1.094012049606638</v>
       </c>
       <c r="R7">
-        <v>1.112017849769148</v>
+        <v>1.112017849769149</v>
       </c>
       <c r="S7">
-        <v>1.103317255886072</v>
+        <v>1.103317255886073</v>
       </c>
       <c r="T7">
-        <v>1.112017849769148</v>
+        <v>1.112017849769149</v>
       </c>
       <c r="U7">
-        <v>1.096455539860565</v>
+        <v>1.096455539860566</v>
       </c>
       <c r="V7">
         <v>1.092338510245261</v>
@@ -996,67 +1008,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.092875682579118</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="D8">
+        <v>1.092875682579122</v>
+      </c>
+      <c r="E8">
+        <v>1.051948274823596</v>
+      </c>
+      <c r="F8">
+        <v>1.005365440561854</v>
+      </c>
+      <c r="G8">
+        <v>1.037489788170774</v>
+      </c>
+      <c r="H8">
+        <v>1.035807208106861</v>
+      </c>
+      <c r="I8">
         <v>1.20659613688094</v>
       </c>
-      <c r="E8">
-        <v>1.230451384569142</v>
-      </c>
-      <c r="F8">
-        <v>1.092875682579118</v>
-      </c>
-      <c r="G8">
-        <v>1.051948274823593</v>
-      </c>
-      <c r="H8">
-        <v>1.005365440561852</v>
-      </c>
-      <c r="I8">
-        <v>1.092875682578995</v>
-      </c>
       <c r="J8">
+        <v>1.026278289915308</v>
+      </c>
+      <c r="K8">
+        <v>1.230451384569163</v>
+      </c>
+      <c r="L8">
         <v>1.20659613688094</v>
       </c>
-      <c r="K8">
-        <v>1.026278289915308</v>
-      </c>
-      <c r="L8">
-        <v>1.037489788170774</v>
-      </c>
       <c r="M8">
-        <v>1.035807208106861</v>
+        <v>1.092875682578999</v>
       </c>
       <c r="N8">
-        <v>1.092875682579118</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="O8">
-        <v>1.230451384569142</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="P8">
-        <v>1.218523760725041</v>
+        <v>1.218523760725051</v>
       </c>
       <c r="Q8">
-        <v>1.141199829696367</v>
+        <v>1.141199829696379</v>
       </c>
       <c r="R8">
-        <v>1.176641068009734</v>
+        <v>1.176641068009742</v>
       </c>
       <c r="S8">
-        <v>1.162998598757892</v>
+        <v>1.162998598757899</v>
       </c>
       <c r="T8">
-        <v>1.176641068009733</v>
+        <v>1.176641068009742</v>
       </c>
       <c r="U8">
-        <v>1.145467869713198</v>
+        <v>1.145467869713205</v>
       </c>
       <c r="V8">
-        <v>1.134949432286382</v>
+        <v>1.134949432286388</v>
       </c>
       <c r="W8">
-        <v>1.085851525700948</v>
+        <v>1.085851525700952</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1070,34 +1082,34 @@
         <v>0.9480340125754586</v>
       </c>
       <c r="D9">
+        <v>0.9480340125754586</v>
+      </c>
+      <c r="E9">
+        <v>1.021807021178645</v>
+      </c>
+      <c r="F9">
+        <v>1.025587645227663</v>
+      </c>
+      <c r="G9">
+        <v>0.9587407428452084</v>
+      </c>
+      <c r="H9">
+        <v>1.191966941666522</v>
+      </c>
+      <c r="I9">
         <v>1.623599917825078</v>
       </c>
-      <c r="E9">
+      <c r="J9">
+        <v>0.9251168899793074</v>
+      </c>
+      <c r="K9">
         <v>1.184102069801898</v>
       </c>
-      <c r="F9">
-        <v>0.9480340125754586</v>
-      </c>
-      <c r="G9">
-        <v>1.021807021178645</v>
-      </c>
-      <c r="H9">
-        <v>1.025587645227663</v>
-      </c>
-      <c r="I9">
+      <c r="L9">
+        <v>1.623599917825078</v>
+      </c>
+      <c r="M9">
         <v>0.9480340125753356</v>
-      </c>
-      <c r="J9">
-        <v>1.623599917825078</v>
-      </c>
-      <c r="K9">
-        <v>0.9251168899793074</v>
-      </c>
-      <c r="L9">
-        <v>0.9587407428452084</v>
-      </c>
-      <c r="M9">
-        <v>1.191966941666522</v>
       </c>
       <c r="N9">
         <v>0.9480340125754586</v>
@@ -1141,34 +1153,34 @@
         <v>0.6487610034163217</v>
       </c>
       <c r="D10">
+        <v>0.6487610034163217</v>
+      </c>
+      <c r="E10">
+        <v>0.9588686294931539</v>
+      </c>
+      <c r="F10">
+        <v>0.9785029172411192</v>
+      </c>
+      <c r="G10">
+        <v>0.7854421696340089</v>
+      </c>
+      <c r="H10">
+        <v>0.8305119519751839</v>
+      </c>
+      <c r="I10">
         <v>1.734882559392015</v>
       </c>
-      <c r="E10">
+      <c r="J10">
+        <v>1.041972989419059</v>
+      </c>
+      <c r="K10">
         <v>1.806087314186836</v>
       </c>
-      <c r="F10">
-        <v>0.6487610034163217</v>
-      </c>
-      <c r="G10">
-        <v>0.9588686294931539</v>
-      </c>
-      <c r="H10">
-        <v>0.9785029172411192</v>
-      </c>
-      <c r="I10">
+      <c r="L10">
+        <v>1.734882559392015</v>
+      </c>
+      <c r="M10">
         <v>0.6487610034162042</v>
-      </c>
-      <c r="J10">
-        <v>1.734882559392015</v>
-      </c>
-      <c r="K10">
-        <v>1.041972989419059</v>
-      </c>
-      <c r="L10">
-        <v>0.7854421696340089</v>
-      </c>
-      <c r="M10">
-        <v>0.8305119519751839</v>
       </c>
       <c r="N10">
         <v>0.6487610034163217</v>
@@ -1212,34 +1224,34 @@
         <v>1.045622785961996</v>
       </c>
       <c r="D11">
+        <v>1.045622785961996</v>
+      </c>
+      <c r="E11">
+        <v>0.741201318544677</v>
+      </c>
+      <c r="F11">
+        <v>0.7727572100937149</v>
+      </c>
+      <c r="G11">
+        <v>1.080867209023134</v>
+      </c>
+      <c r="H11">
+        <v>1.438329398343198</v>
+      </c>
+      <c r="I11">
         <v>3.202567282303995</v>
       </c>
-      <c r="E11">
+      <c r="J11">
+        <v>0.9121158939794179</v>
+      </c>
+      <c r="K11">
         <v>2.661343158584538</v>
       </c>
-      <c r="F11">
-        <v>1.045622785961996</v>
-      </c>
-      <c r="G11">
-        <v>0.741201318544677</v>
-      </c>
-      <c r="H11">
-        <v>0.7727572100937128</v>
-      </c>
-      <c r="I11">
+      <c r="L11">
+        <v>3.202567282303995</v>
+      </c>
+      <c r="M11">
         <v>1.045622785961668</v>
-      </c>
-      <c r="J11">
-        <v>3.202567282303995</v>
-      </c>
-      <c r="K11">
-        <v>0.9121158939794206</v>
-      </c>
-      <c r="L11">
-        <v>1.080867209023135</v>
-      </c>
-      <c r="M11">
-        <v>1.438329398343198</v>
       </c>
       <c r="N11">
         <v>1.045622785961996</v>
@@ -1251,7 +1263,7 @@
         <v>2.931955220444267</v>
       </c>
       <c r="Q11">
-        <v>1.701272238564608</v>
+        <v>1.701272238564607</v>
       </c>
       <c r="R11">
         <v>2.30317774228351</v>
@@ -1283,64 +1295,64 @@
         <v>-0.002882229086911449</v>
       </c>
       <c r="D12">
-        <v>0.004554680423049942</v>
+        <v>-0.002882229086911449</v>
       </c>
       <c r="E12">
-        <v>-0.0003421703317369174</v>
+        <v>0.3174879408921404</v>
       </c>
       <c r="F12">
+        <v>0.07390081599865056</v>
+      </c>
+      <c r="G12">
+        <v>0.5690785811988043</v>
+      </c>
+      <c r="H12">
+        <v>2.0612227090139</v>
+      </c>
+      <c r="I12">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="J12">
+        <v>0.5969373541486533</v>
+      </c>
+      <c r="K12">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="L12">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="M12">
         <v>-0.002882229086911449</v>
-      </c>
-      <c r="G12">
-        <v>0.3174879408921403</v>
-      </c>
-      <c r="H12">
-        <v>0.07390081599865031</v>
-      </c>
-      <c r="I12">
-        <v>-0.002882229086911449</v>
-      </c>
-      <c r="J12">
-        <v>0.004554680423049942</v>
-      </c>
-      <c r="K12">
-        <v>0.5969373541486542</v>
-      </c>
-      <c r="L12">
-        <v>0.5690785811988034</v>
-      </c>
-      <c r="M12">
-        <v>2.0612227090139</v>
       </c>
       <c r="N12">
         <v>-0.002882229086911449</v>
       </c>
       <c r="O12">
-        <v>-0.0003421703317369174</v>
+        <v>-0.0003421703317369149</v>
       </c>
       <c r="P12">
-        <v>0.002106255045656512</v>
+        <v>0.002106255045656514</v>
       </c>
       <c r="Q12">
         <v>0.1585728852802017</v>
       </c>
       <c r="R12">
-        <v>0.0004434270014671915</v>
+        <v>0.0004434270014671931</v>
       </c>
       <c r="S12">
         <v>0.1072334836611511</v>
       </c>
       <c r="T12">
-        <v>0.0004434270014671916</v>
+        <v>0.0004434270014671931</v>
       </c>
       <c r="U12">
-        <v>0.07970455547413546</v>
+        <v>0.07970455547413549</v>
       </c>
       <c r="V12">
-        <v>0.06318719856192609</v>
+        <v>0.0631871985619261</v>
       </c>
       <c r="W12">
-        <v>0.4524947102820688</v>
+        <v>0.4524947102820687</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,55 +1363,55 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.784812425470853</v>
+        <v>5.784812425470848</v>
       </c>
       <c r="D13">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="E13">
+        <v>0.008181816750942709</v>
+      </c>
+      <c r="F13">
+        <v>1.63379991653893</v>
+      </c>
+      <c r="G13">
+        <v>-0.0002601929223607322</v>
+      </c>
+      <c r="H13">
+        <v>0.3118080961541104</v>
+      </c>
+      <c r="I13">
         <v>1.697035567127595</v>
       </c>
-      <c r="E13">
-        <v>3.949016081697426</v>
-      </c>
-      <c r="F13">
-        <v>5.784812425470853</v>
-      </c>
-      <c r="G13">
-        <v>0.008181816750942698</v>
-      </c>
-      <c r="H13">
-        <v>1.633799916538933</v>
-      </c>
-      <c r="I13">
-        <v>5.784812425470853</v>
-      </c>
       <c r="J13">
+        <v>1.796730815926714</v>
+      </c>
+      <c r="K13">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="L13">
         <v>1.697035567127595</v>
       </c>
-      <c r="K13">
-        <v>1.796730815926712</v>
-      </c>
-      <c r="L13">
-        <v>-0.0002601929223607341</v>
-      </c>
       <c r="M13">
-        <v>0.3118080961541104</v>
+        <v>5.784812425470848</v>
       </c>
       <c r="N13">
-        <v>5.784812425470853</v>
+        <v>5.784812425470848</v>
       </c>
       <c r="O13">
-        <v>3.949016081697426</v>
+        <v>3.94901608169743</v>
       </c>
       <c r="P13">
-        <v>2.823025824412511</v>
+        <v>2.823025824412512</v>
       </c>
       <c r="Q13">
-        <v>1.978598949224185</v>
+        <v>1.978598949224186</v>
       </c>
       <c r="R13">
         <v>3.810288024765291</v>
       </c>
       <c r="S13">
-        <v>1.884744488525321</v>
+        <v>1.884744488525323</v>
       </c>
       <c r="T13">
         <v>3.810288024765291</v>
@@ -1408,7 +1420,7 @@
         <v>2.859761472761704</v>
       </c>
       <c r="V13">
-        <v>3.444771663303534</v>
+        <v>3.444771663303533</v>
       </c>
       <c r="W13">
         <v>1.897640565843026</v>
@@ -1422,64 +1434,64 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0006168176677112143</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="D14">
-        <v>11.32531120823989</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="E14">
-        <v>-0.0003899418825473288</v>
+        <v>0.06866149054760594</v>
       </c>
       <c r="F14">
-        <v>0.0006168176677112143</v>
+        <v>-0.0009557861317237541</v>
       </c>
       <c r="G14">
-        <v>0.06866149054760606</v>
+        <v>-0.0005623933642230922</v>
       </c>
       <c r="H14">
-        <v>-0.0009557861317237549</v>
+        <v>7.741689186148496</v>
       </c>
       <c r="I14">
-        <v>0.0006168176677112143</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="J14">
-        <v>11.32531120823989</v>
+        <v>1.439133910944589</v>
       </c>
       <c r="K14">
-        <v>1.439133910944592</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="L14">
-        <v>-0.0005623933642230907</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="M14">
-        <v>7.741689186148491</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="N14">
-        <v>0.0006168176677112143</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="O14">
-        <v>-0.0003899418825473288</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="P14">
-        <v>5.662460633178672</v>
+        <v>5.662460633178675</v>
       </c>
       <c r="Q14">
-        <v>0.03413577433252937</v>
+        <v>0.0341357743325293</v>
       </c>
       <c r="R14">
-        <v>3.775179361341685</v>
+        <v>3.775179361341687</v>
       </c>
       <c r="S14">
-        <v>3.797860918968317</v>
+        <v>3.797860918968319</v>
       </c>
       <c r="T14">
-        <v>3.775179361341685</v>
+        <v>3.775179361341687</v>
       </c>
       <c r="U14">
-        <v>2.848549893643165</v>
+        <v>2.848549893643167</v>
       </c>
       <c r="V14">
-        <v>2.278963278448074</v>
+        <v>2.278963278448075</v>
       </c>
       <c r="W14">
         <v>2.571688061521225</v>
@@ -1493,40 +1505,40 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0009909289670925149</v>
+        <v>-0.0009909289670925157</v>
       </c>
       <c r="D15">
-        <v>-0.002695329012334536</v>
+        <v>-0.0009909289670925157</v>
       </c>
       <c r="E15">
+        <v>0.2739816353510962</v>
+      </c>
+      <c r="F15">
+        <v>-0.000530223239150013</v>
+      </c>
+      <c r="G15">
+        <v>1.60972298834738</v>
+      </c>
+      <c r="H15">
+        <v>1.898776812336923</v>
+      </c>
+      <c r="I15">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="J15">
+        <v>2.428908978279019</v>
+      </c>
+      <c r="K15">
         <v>0.03481782273777063</v>
       </c>
-      <c r="F15">
-        <v>-0.0009909289670925149</v>
-      </c>
-      <c r="G15">
-        <v>0.2739816353510962</v>
-      </c>
-      <c r="H15">
-        <v>-0.0005302232391500136</v>
-      </c>
-      <c r="I15">
-        <v>-0.0009909289675504515</v>
-      </c>
-      <c r="J15">
-        <v>-0.002695329012334536</v>
-      </c>
-      <c r="K15">
-        <v>2.42890897827902</v>
-      </c>
       <c r="L15">
-        <v>1.60972298834738</v>
+        <v>-0.002695329012334537</v>
       </c>
       <c r="M15">
-        <v>1.898776812336923</v>
+        <v>-0.0009909289675504524</v>
       </c>
       <c r="N15">
-        <v>-0.0009909289670925149</v>
+        <v>-0.0009909289670925157</v>
       </c>
       <c r="O15">
         <v>0.03481782273777063</v>
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.039934218879059</v>
+        <v>8.742234599680671</v>
       </c>
       <c r="D16">
-        <v>1.024851449846393</v>
+        <v>8.742234599680671</v>
       </c>
       <c r="E16">
-        <v>1.129647210132084</v>
+        <v>3.060631789149619</v>
       </c>
       <c r="F16">
-        <v>1.039934218879059</v>
+        <v>2.876568507421676</v>
       </c>
       <c r="G16">
-        <v>1.101588897806048</v>
+        <v>3.066306711732128</v>
       </c>
       <c r="H16">
-        <v>1.002832159501204</v>
+        <v>2.991354907927217</v>
       </c>
       <c r="I16">
-        <v>1.039934218878933</v>
+        <v>5.927407999352345</v>
       </c>
       <c r="J16">
-        <v>1.024851449846393</v>
+        <v>0.2356070948056548</v>
       </c>
       <c r="K16">
-        <v>1.017869204692471</v>
+        <v>3.980544117171519</v>
       </c>
       <c r="L16">
-        <v>1.08923183423657</v>
+        <v>5.927407999352345</v>
       </c>
       <c r="M16">
-        <v>1.015448092719864</v>
+        <v>8.742234599680657</v>
       </c>
       <c r="N16">
-        <v>1.039934218879059</v>
+        <v>8.742234599680671</v>
       </c>
       <c r="O16">
-        <v>1.129647210132084</v>
+        <v>3.980544117171519</v>
       </c>
       <c r="P16">
-        <v>1.077249329989239</v>
+        <v>4.953976058261932</v>
       </c>
       <c r="Q16">
-        <v>1.115618053969066</v>
+        <v>3.520587953160569</v>
       </c>
       <c r="R16">
-        <v>1.064810959619179</v>
+        <v>6.216728905401513</v>
       </c>
       <c r="S16">
-        <v>1.085362519261508</v>
+        <v>4.322861301891161</v>
       </c>
       <c r="T16">
-        <v>1.064810959619179</v>
+        <v>6.216728905401513</v>
       </c>
       <c r="U16">
-        <v>1.074005444165896</v>
+        <v>5.427704626338539</v>
       </c>
       <c r="V16">
-        <v>1.067191199108529</v>
+        <v>6.090610621006965</v>
       </c>
       <c r="W16">
-        <v>1.052675383476712</v>
+        <v>3.860081965905104</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.253375835565659</v>
+        <v>6.151589688688708</v>
       </c>
       <c r="D17">
-        <v>1.254579280824669</v>
+        <v>6.151589688688708</v>
       </c>
       <c r="E17">
-        <v>0.9862463819789551</v>
+        <v>2.342561436774054</v>
       </c>
       <c r="F17">
-        <v>1.253375835565659</v>
+        <v>2.277653020157634</v>
       </c>
       <c r="G17">
-        <v>0.9516262303654685</v>
+        <v>2.355727160999691</v>
       </c>
       <c r="H17">
-        <v>1.078712803721037</v>
+        <v>2.283596109264346</v>
       </c>
       <c r="I17">
-        <v>1.253375835565542</v>
+        <v>4.326412262176837</v>
       </c>
       <c r="J17">
-        <v>1.254579280824669</v>
+        <v>0.4721726257389738</v>
       </c>
       <c r="K17">
-        <v>1.00854562283096</v>
+        <v>4.241320840595076</v>
       </c>
       <c r="L17">
-        <v>0.9741665222393687</v>
+        <v>4.326412262176837</v>
       </c>
       <c r="M17">
-        <v>1.093293488806311</v>
+        <v>6.151589688688662</v>
       </c>
       <c r="N17">
-        <v>1.253375835565659</v>
+        <v>6.151589688688708</v>
       </c>
       <c r="O17">
-        <v>0.9862463819789551</v>
+        <v>4.241320840595076</v>
       </c>
       <c r="P17">
-        <v>1.120412831401812</v>
+        <v>4.283866551385957</v>
       </c>
       <c r="Q17">
-        <v>0.9689363061722118</v>
+        <v>3.291941138684565</v>
       </c>
       <c r="R17">
-        <v>1.164733832789761</v>
+        <v>4.906440930486874</v>
       </c>
       <c r="S17">
-        <v>1.064150631056364</v>
+        <v>3.636764846515323</v>
       </c>
       <c r="T17">
-        <v>1.164733832789761</v>
+        <v>4.906440930486874</v>
       </c>
       <c r="U17">
-        <v>1.111456932183688</v>
+        <v>4.265471057058669</v>
       </c>
       <c r="V17">
-        <v>1.139840712860082</v>
+        <v>4.642694783384677</v>
       </c>
       <c r="W17">
-        <v>1.075068270791554</v>
+        <v>3.056379143049415</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.453465029176684</v>
+        <v>0.7495411352952546</v>
       </c>
       <c r="D18">
-        <v>2.158029257426949</v>
+        <v>0.7495411352952546</v>
       </c>
       <c r="E18">
-        <v>1.117771084540931</v>
+        <v>1.017287257004298</v>
       </c>
       <c r="F18">
-        <v>0.453465029176684</v>
+        <v>0.8311088089192242</v>
       </c>
       <c r="G18">
-        <v>1.092591663205448</v>
+        <v>0.7235617124877119</v>
       </c>
       <c r="H18">
-        <v>0.7240117855062754</v>
+        <v>0.8530206813304934</v>
       </c>
       <c r="I18">
-        <v>0.4534650291764953</v>
+        <v>1.700032487750397</v>
       </c>
       <c r="J18">
-        <v>2.158029257426949</v>
+        <v>1.052148793420024</v>
       </c>
       <c r="K18">
-        <v>0.8636008274638766</v>
+        <v>4.399178354956702</v>
       </c>
       <c r="L18">
-        <v>0.8750763187241264</v>
+        <v>1.700032487750397</v>
       </c>
       <c r="M18">
-        <v>1.357542234589808</v>
+        <v>0.7495411352951935</v>
       </c>
       <c r="N18">
-        <v>0.453465029176684</v>
+        <v>0.7495411352952546</v>
       </c>
       <c r="O18">
-        <v>1.117771084540931</v>
+        <v>4.399178354956702</v>
       </c>
       <c r="P18">
-        <v>1.63790017098394</v>
+        <v>3.04960542135355</v>
       </c>
       <c r="Q18">
-        <v>1.10518137387319</v>
+        <v>2.7082328059805</v>
       </c>
       <c r="R18">
-        <v>1.243088457048188</v>
+        <v>2.282917326000785</v>
       </c>
       <c r="S18">
-        <v>1.456130668391109</v>
+        <v>2.372166033237133</v>
       </c>
       <c r="T18">
-        <v>1.243088457048188</v>
+        <v>2.282917326000785</v>
       </c>
       <c r="U18">
-        <v>1.205464258587503</v>
+        <v>1.966509808751663</v>
       </c>
       <c r="V18">
-        <v>1.055064412705339</v>
+        <v>1.723116074060381</v>
       </c>
       <c r="W18">
-        <v>1.080261025079262</v>
+        <v>1.415734903895513</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.403938210528316</v>
+      </c>
+      <c r="D19">
+        <v>1.403938210528316</v>
+      </c>
+      <c r="E19">
+        <v>0.5004795394702432</v>
+      </c>
+      <c r="F19">
+        <v>0.885156539932016</v>
+      </c>
+      <c r="G19">
+        <v>0.9710118979087965</v>
+      </c>
+      <c r="H19">
+        <v>1.023929959126401</v>
+      </c>
+      <c r="I19">
+        <v>1.868939195950409</v>
+      </c>
+      <c r="J19">
+        <v>0.6555044926310413</v>
+      </c>
+      <c r="K19">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="L19">
+        <v>1.868939195950409</v>
+      </c>
+      <c r="M19">
+        <v>1.40393821052818</v>
+      </c>
+      <c r="N19">
+        <v>1.403938210528316</v>
+      </c>
+      <c r="O19">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="P19">
+        <v>4.003063366254892</v>
+      </c>
+      <c r="Q19">
+        <v>3.31883353801481</v>
+      </c>
+      <c r="R19">
+        <v>3.136688314346034</v>
+      </c>
+      <c r="S19">
+        <v>2.835535423993342</v>
+      </c>
+      <c r="T19">
+        <v>3.136688314346034</v>
+      </c>
+      <c r="U19">
+        <v>2.477636120627086</v>
+      </c>
+      <c r="V19">
+        <v>2.262896538607332</v>
+      </c>
+      <c r="W19">
+        <v>1.680768421513325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.039934218879061</v>
+      </c>
+      <c r="D20">
+        <v>1.039934218879061</v>
+      </c>
+      <c r="E20">
+        <v>1.101588897806049</v>
+      </c>
+      <c r="F20">
+        <v>1.002832159501204</v>
+      </c>
+      <c r="G20">
+        <v>1.089231834236571</v>
+      </c>
+      <c r="H20">
+        <v>1.015448092719865</v>
+      </c>
+      <c r="I20">
+        <v>1.024851449846393</v>
+      </c>
+      <c r="J20">
+        <v>1.017869204692472</v>
+      </c>
+      <c r="K20">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="L20">
+        <v>1.024851449846393</v>
+      </c>
+      <c r="M20">
+        <v>1.039934218878936</v>
+      </c>
+      <c r="N20">
+        <v>1.039934218879061</v>
+      </c>
+      <c r="O20">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="P20">
+        <v>1.07724932998924</v>
+      </c>
+      <c r="Q20">
+        <v>1.115618053969068</v>
+      </c>
+      <c r="R20">
+        <v>1.06481095961918</v>
+      </c>
+      <c r="S20">
+        <v>1.08536251926151</v>
+      </c>
+      <c r="T20">
+        <v>1.06481095961918</v>
+      </c>
+      <c r="U20">
+        <v>1.074005444165897</v>
+      </c>
+      <c r="V20">
+        <v>1.06719119910853</v>
+      </c>
+      <c r="W20">
+        <v>1.052675383476713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.253375835565662</v>
+      </c>
+      <c r="D21">
+        <v>1.253375835565662</v>
+      </c>
+      <c r="E21">
+        <v>0.9516262303654709</v>
+      </c>
+      <c r="F21">
+        <v>1.078712803721037</v>
+      </c>
+      <c r="G21">
+        <v>0.9741665222393703</v>
+      </c>
+      <c r="H21">
+        <v>1.093293488806311</v>
+      </c>
+      <c r="I21">
+        <v>1.25457928082467</v>
+      </c>
+      <c r="J21">
+        <v>1.00854562283096</v>
+      </c>
+      <c r="K21">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="L21">
+        <v>1.25457928082467</v>
+      </c>
+      <c r="M21">
+        <v>1.253375835565545</v>
+      </c>
+      <c r="N21">
+        <v>1.253375835565662</v>
+      </c>
+      <c r="O21">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="P21">
+        <v>1.120412831401814</v>
+      </c>
+      <c r="Q21">
+        <v>0.9689363061722146</v>
+      </c>
+      <c r="R21">
+        <v>1.164733832789764</v>
+      </c>
+      <c r="S21">
+        <v>1.064150631056366</v>
+      </c>
+      <c r="T21">
+        <v>1.164733832789764</v>
+      </c>
+      <c r="U21">
+        <v>1.11145693218369</v>
+      </c>
+      <c r="V21">
+        <v>1.139840712860085</v>
+      </c>
+      <c r="W21">
+        <v>1.075068270791555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.4534650291766862</v>
+      </c>
+      <c r="D22">
+        <v>0.4534650291766862</v>
+      </c>
+      <c r="E22">
+        <v>1.092591663205454</v>
+      </c>
+      <c r="F22">
+        <v>0.7240117855062778</v>
+      </c>
+      <c r="G22">
+        <v>0.8750763187241302</v>
+      </c>
+      <c r="H22">
+        <v>1.357542234589808</v>
+      </c>
+      <c r="I22">
+        <v>2.158029257426955</v>
+      </c>
+      <c r="J22">
+        <v>0.8636008274638743</v>
+      </c>
+      <c r="K22">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="L22">
+        <v>2.158029257426955</v>
+      </c>
+      <c r="M22">
+        <v>0.4534650291764976</v>
+      </c>
+      <c r="N22">
+        <v>0.4534650291766862</v>
+      </c>
+      <c r="O22">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="P22">
+        <v>1.637900170983946</v>
+      </c>
+      <c r="Q22">
+        <v>1.105181373873195</v>
+      </c>
+      <c r="R22">
+        <v>1.243088457048193</v>
+      </c>
+      <c r="S22">
+        <v>1.456130668391115</v>
+      </c>
+      <c r="T22">
+        <v>1.243088457048193</v>
+      </c>
+      <c r="U22">
+        <v>1.205464258587508</v>
+      </c>
+      <c r="V22">
+        <v>1.055064412705344</v>
+      </c>
+      <c r="W22">
+        <v>1.080261025079265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.3881501515463838</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.3881501515463838</v>
+      </c>
+      <c r="E23">
+        <v>1.599030353867244</v>
+      </c>
+      <c r="F23">
+        <v>1.706021332785599</v>
+      </c>
+      <c r="G23">
+        <v>0.524042502800106</v>
+      </c>
+      <c r="H23">
+        <v>1.182052883820074</v>
+      </c>
+      <c r="I23">
         <v>0.163138098782353</v>
       </c>
-      <c r="E19">
+      <c r="J23">
+        <v>0.7551448073723469</v>
+      </c>
+      <c r="K23">
         <v>1.591390138497335</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>0.163138098782353</v>
+      </c>
+      <c r="M23">
+        <v>0.3881501515462923</v>
+      </c>
+      <c r="N23">
         <v>0.3881501515463838</v>
       </c>
-      <c r="G19">
-        <v>1.599030353867244</v>
-      </c>
-      <c r="H19">
-        <v>1.706021332785599</v>
-      </c>
-      <c r="I19">
-        <v>0.3881501515462923</v>
-      </c>
-      <c r="J19">
-        <v>0.163138098782353</v>
-      </c>
-      <c r="K19">
-        <v>0.7551448073723469</v>
-      </c>
-      <c r="L19">
-        <v>0.5240425028001061</v>
-      </c>
-      <c r="M19">
-        <v>1.182052883820074</v>
-      </c>
-      <c r="N19">
-        <v>0.3881501515463838</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.591390138497335</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.8772641186398441</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.595210246182289</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.7142261296086906</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.117852863715644</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.7142261296086906</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9354271856733289</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.8259717788479399</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9886212836839302</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.569254074824068</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="D3">
-        <v>1.569254074824068</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="E3">
-        <v>1.190594874526949</v>
+        <v>0.9868352454561917</v>
       </c>
       <c r="F3">
-        <v>1.097763535159608</v>
+        <v>1.139980691553699</v>
       </c>
       <c r="G3">
-        <v>1.156904908299804</v>
+        <v>1.01307189253619</v>
       </c>
       <c r="H3">
-        <v>1.148090686453917</v>
+        <v>0.9485429945670607</v>
       </c>
       <c r="I3">
-        <v>1.430420888209043</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="J3">
-        <v>0.9396144713188646</v>
+        <v>0.8890695506926936</v>
       </c>
       <c r="K3">
-        <v>1.345159600979164</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="L3">
-        <v>1.430420888209043</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="M3">
-        <v>1.569254074823952</v>
+        <v>1.315797018859766</v>
       </c>
       <c r="N3">
-        <v>1.569254074824068</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="O3">
-        <v>1.345159600979164</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="P3">
-        <v>1.387790244594103</v>
+        <v>4.37703846855493</v>
       </c>
       <c r="Q3">
-        <v>1.267877237753057</v>
+        <v>4.27251912628737</v>
       </c>
       <c r="R3">
-        <v>1.448278188004092</v>
+        <v>3.356624651989903</v>
       </c>
       <c r="S3">
-        <v>1.322058454571719</v>
+        <v>3.246970727522017</v>
       </c>
       <c r="T3">
-        <v>1.448278188004092</v>
+        <v>3.356624651989903</v>
       </c>
       <c r="U3">
-        <v>1.383857359634806</v>
+        <v>2.764177300356475</v>
       </c>
       <c r="V3">
-        <v>1.420936702672658</v>
+        <v>2.47450124405715</v>
       </c>
       <c r="W3">
-        <v>1.234725379971427</v>
+        <v>1.880921791346943</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.502563244388664</v>
+        <v>1.1332177982499</v>
       </c>
       <c r="D4">
-        <v>2.502563244388664</v>
+        <v>1.1332177982499</v>
       </c>
       <c r="E4">
-        <v>1.422482169259989</v>
+        <v>0.9450837720786345</v>
       </c>
       <c r="F4">
-        <v>1.397293827631666</v>
+        <v>1.109212160228052</v>
       </c>
       <c r="G4">
-        <v>1.312414567097076</v>
+        <v>0.9723718249721355</v>
       </c>
       <c r="H4">
-        <v>1.457926327561351</v>
+        <v>0.9070132248509668</v>
       </c>
       <c r="I4">
-        <v>1.737050942784302</v>
+        <v>1.017169425626937</v>
       </c>
       <c r="J4">
-        <v>0.8516177735610253</v>
+        <v>0.9199896027654287</v>
       </c>
       <c r="K4">
-        <v>1.334292287912513</v>
+        <v>6.016934784118615</v>
       </c>
       <c r="L4">
-        <v>1.737050942784302</v>
+        <v>1.017169425626937</v>
       </c>
       <c r="M4">
-        <v>2.502563244388496</v>
+        <v>1.133217798249813</v>
       </c>
       <c r="N4">
-        <v>2.502563244388664</v>
+        <v>1.1332177982499</v>
       </c>
       <c r="O4">
-        <v>1.334292287912513</v>
+        <v>6.016934784118615</v>
       </c>
       <c r="P4">
-        <v>1.535671615348408</v>
+        <v>3.517052104872776</v>
       </c>
       <c r="Q4">
-        <v>1.378387228586251</v>
+        <v>3.481009278098625</v>
       </c>
       <c r="R4">
-        <v>1.857968825028493</v>
+        <v>2.722440669331817</v>
       </c>
       <c r="S4">
-        <v>1.497941799985601</v>
+        <v>2.659729327274729</v>
       </c>
       <c r="T4">
-        <v>1.857968825028493</v>
+        <v>2.722440669331817</v>
       </c>
       <c r="U4">
-        <v>1.749097161086367</v>
+        <v>2.278101445018522</v>
       </c>
       <c r="V4">
-        <v>1.899790377746826</v>
+        <v>2.049124715664797</v>
       </c>
       <c r="W4">
-        <v>1.501955142524573</v>
+        <v>1.627624074111333</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9767920905391435</v>
+        <v>0.4497768213066308</v>
       </c>
       <c r="D5">
-        <v>0.9767920905391435</v>
+        <v>0.4497768213066308</v>
       </c>
       <c r="E5">
-        <v>0.6422145294582499</v>
+        <v>0.7294961336885132</v>
       </c>
       <c r="F5">
-        <v>1.604557583294666</v>
+        <v>0.9886520848266735</v>
       </c>
       <c r="G5">
-        <v>1.535580148296976</v>
+        <v>0.8420892082864261</v>
       </c>
       <c r="H5">
-        <v>1.650599701846003</v>
+        <v>0.3861546212215098</v>
       </c>
       <c r="I5">
-        <v>3.825208956509219</v>
+        <v>2.124501402749595</v>
       </c>
       <c r="J5">
-        <v>0.406170528368534</v>
+        <v>1.377242625246846</v>
       </c>
       <c r="K5">
-        <v>2.980036563290933</v>
+        <v>13.39511680595366</v>
       </c>
       <c r="L5">
-        <v>3.825208956509219</v>
+        <v>2.124501402749595</v>
       </c>
       <c r="M5">
-        <v>0.9767920905391435</v>
+        <v>0.4497768213065231</v>
       </c>
       <c r="N5">
-        <v>0.9767920905391435</v>
+        <v>0.4497768213066308</v>
       </c>
       <c r="O5">
-        <v>2.980036563290933</v>
+        <v>13.39511680595366</v>
       </c>
       <c r="P5">
-        <v>3.402622759900076</v>
+        <v>7.75980910435163</v>
       </c>
       <c r="Q5">
-        <v>1.811125546374591</v>
+        <v>7.062306469821089</v>
       </c>
       <c r="R5">
-        <v>2.594012536779765</v>
+        <v>5.323131676669964</v>
       </c>
       <c r="S5">
-        <v>2.482486683086134</v>
+        <v>5.416371447463924</v>
       </c>
       <c r="T5">
-        <v>2.594012536779765</v>
+        <v>5.323131676669964</v>
       </c>
       <c r="U5">
-        <v>2.106063034949386</v>
+        <v>4.174722790924601</v>
       </c>
       <c r="V5">
-        <v>1.880208846067338</v>
+        <v>3.429733597001007</v>
       </c>
       <c r="W5">
-        <v>1.702645012700466</v>
+        <v>2.536628712909983</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.916230768269628</v>
+        <v>0.3430268014454547</v>
       </c>
       <c r="D6">
-        <v>0.916230768269628</v>
+        <v>0.3430268014454547</v>
       </c>
       <c r="E6">
-        <v>1.955936000441994</v>
+        <v>0.7709343037003413</v>
       </c>
       <c r="F6">
-        <v>2.915564759556362</v>
+        <v>2.182076549794662</v>
       </c>
       <c r="G6">
-        <v>0.2062785864384515</v>
+        <v>0.9476959098221133</v>
       </c>
       <c r="H6">
-        <v>3.829194954547355</v>
+        <v>2.687212066774204</v>
       </c>
       <c r="I6">
-        <v>10.54317485541254</v>
+        <v>6.880483042335115</v>
       </c>
       <c r="J6">
-        <v>0.02890935085211756</v>
+        <v>0.4762850982742045</v>
       </c>
       <c r="K6">
-        <v>6.245326203686531</v>
+        <v>19.54388932252721</v>
       </c>
       <c r="L6">
-        <v>10.54317485541254</v>
+        <v>6.880483042335115</v>
       </c>
       <c r="M6">
-        <v>0.916230768269628</v>
+        <v>0.3430268014454547</v>
       </c>
       <c r="N6">
-        <v>0.916230768269628</v>
+        <v>0.3430268014454547</v>
       </c>
       <c r="O6">
-        <v>6.245326203686531</v>
+        <v>19.54388932252721</v>
       </c>
       <c r="P6">
-        <v>8.394250529549534</v>
+        <v>13.21218618243116</v>
       </c>
       <c r="Q6">
-        <v>4.100631102064263</v>
+        <v>10.15741181311377</v>
       </c>
       <c r="R6">
-        <v>5.901577275789566</v>
+        <v>8.922466388769259</v>
       </c>
       <c r="S6">
-        <v>6.248145686513688</v>
+        <v>9.06510222285422</v>
       </c>
       <c r="T6">
-        <v>5.901577275789566</v>
+        <v>8.922466388769259</v>
       </c>
       <c r="U6">
-        <v>4.915166956952673</v>
+        <v>6.884583367502029</v>
       </c>
       <c r="V6">
-        <v>4.115379719216063</v>
+        <v>5.576272054290714</v>
       </c>
       <c r="W6">
-        <v>3.330076934900622</v>
+        <v>4.228950386834162</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.075870391784044</v>
+        <v>11.92620647302221</v>
       </c>
       <c r="D7">
-        <v>1.075870391784044</v>
+        <v>11.92620647302221</v>
       </c>
       <c r="E7">
-        <v>1.049768610134817</v>
+        <v>3.980207028143319</v>
       </c>
       <c r="F7">
-        <v>1.013556778178853</v>
+        <v>3.641560006458895</v>
       </c>
       <c r="G7">
-        <v>1.048918389728349</v>
+        <v>3.978087136711241</v>
       </c>
       <c r="H7">
-        <v>1.017886430588551</v>
+        <v>3.897201130792408</v>
       </c>
       <c r="I7">
-        <v>1.121927668444944</v>
+        <v>8.577422054032702</v>
       </c>
       <c r="J7">
-        <v>1.007891921242882</v>
+        <v>-0.001082080906274033</v>
       </c>
       <c r="K7">
-        <v>1.138255489078459</v>
+        <v>0.4562969846275526</v>
       </c>
       <c r="L7">
-        <v>1.121927668444944</v>
+        <v>8.577422054032702</v>
       </c>
       <c r="M7">
-        <v>1.075870391783917</v>
+        <v>11.92620647302221</v>
       </c>
       <c r="N7">
-        <v>1.075870391784044</v>
+        <v>11.92620647302221</v>
       </c>
       <c r="O7">
-        <v>1.138255489078459</v>
+        <v>0.4562969846275526</v>
       </c>
       <c r="P7">
-        <v>1.130091578761701</v>
+        <v>4.516859519330128</v>
       </c>
       <c r="Q7">
-        <v>1.094012049606638</v>
+        <v>2.218252006385436</v>
       </c>
       <c r="R7">
-        <v>1.112017849769149</v>
+        <v>6.986641837227488</v>
       </c>
       <c r="S7">
-        <v>1.103317255886073</v>
+        <v>4.337975355601191</v>
       </c>
       <c r="T7">
-        <v>1.112017849769149</v>
+        <v>6.986641837227487</v>
       </c>
       <c r="U7">
-        <v>1.096455539860566</v>
+        <v>6.235033134956445</v>
       </c>
       <c r="V7">
-        <v>1.092338510245261</v>
+        <v>7.373267802569598</v>
       </c>
       <c r="W7">
-        <v>1.059259459897612</v>
+        <v>4.556987341610256</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.092875682579122</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="D8">
-        <v>1.092875682579122</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="E8">
-        <v>1.051948274823596</v>
+        <v>3.960888691994206</v>
       </c>
       <c r="F8">
-        <v>1.005365440561854</v>
+        <v>3.604885020557555</v>
       </c>
       <c r="G8">
-        <v>1.037489788170774</v>
+        <v>3.957814197546023</v>
       </c>
       <c r="H8">
-        <v>1.035807208106861</v>
+        <v>3.878833375896534</v>
       </c>
       <c r="I8">
-        <v>1.20659613688094</v>
+        <v>8.979342344833363</v>
       </c>
       <c r="J8">
-        <v>1.026278289915308</v>
+        <v>-0.001134647219809994</v>
       </c>
       <c r="K8">
-        <v>1.230451384569163</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="L8">
-        <v>1.20659613688094</v>
+        <v>8.979342344833363</v>
       </c>
       <c r="M8">
-        <v>1.092875682578999</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="N8">
-        <v>1.092875682579122</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="O8">
-        <v>1.230451384569163</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="P8">
-        <v>1.218523760725051</v>
+        <v>4.836329608771219</v>
       </c>
       <c r="Q8">
-        <v>1.141199829696379</v>
+        <v>2.327102782351641</v>
       </c>
       <c r="R8">
-        <v>1.176641068009742</v>
+        <v>7.176109860769285</v>
       </c>
       <c r="S8">
-        <v>1.162998598757899</v>
+        <v>4.544515969845548</v>
       </c>
       <c r="T8">
-        <v>1.176641068009742</v>
+        <v>7.176109860769285</v>
       </c>
       <c r="U8">
-        <v>1.145467869713205</v>
+        <v>6.372304568575515</v>
       </c>
       <c r="V8">
-        <v>1.134949432286388</v>
+        <v>7.468977727813495</v>
       </c>
       <c r="W8">
-        <v>1.085851525700952</v>
+        <v>4.616202027635295</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9480340125754586</v>
+        <v>11.80169573133098</v>
       </c>
       <c r="D9">
-        <v>0.9480340125754586</v>
+        <v>11.80169573133098</v>
       </c>
       <c r="E9">
-        <v>1.021807021178645</v>
+        <v>3.951340839237432</v>
       </c>
       <c r="F9">
-        <v>1.025587645227663</v>
+        <v>3.5605026524508</v>
       </c>
       <c r="G9">
-        <v>0.9587407428452084</v>
+        <v>3.946367840675755</v>
       </c>
       <c r="H9">
-        <v>1.191966941666522</v>
+        <v>3.871318323105686</v>
       </c>
       <c r="I9">
-        <v>1.623599917825078</v>
+        <v>9.012833606601387</v>
       </c>
       <c r="J9">
-        <v>0.9251168899793074</v>
+        <v>-0.001162436593421897</v>
       </c>
       <c r="K9">
-        <v>1.184102069801898</v>
+        <v>1.140562909400463</v>
       </c>
       <c r="L9">
-        <v>1.623599917825078</v>
+        <v>9.012833606601387</v>
       </c>
       <c r="M9">
-        <v>0.9480340125753356</v>
+        <v>11.80169573133098</v>
       </c>
       <c r="N9">
-        <v>0.9480340125754586</v>
+        <v>11.80169573133098</v>
       </c>
       <c r="O9">
-        <v>1.184102069801898</v>
+        <v>1.140562909400463</v>
       </c>
       <c r="P9">
-        <v>1.403850993813488</v>
+        <v>5.076698258000924</v>
       </c>
       <c r="Q9">
-        <v>1.102954545490272</v>
+        <v>2.545951874318947</v>
       </c>
       <c r="R9">
-        <v>1.251912000067478</v>
+        <v>7.318364082444276</v>
       </c>
       <c r="S9">
-        <v>1.276503002935207</v>
+        <v>4.701579118413093</v>
       </c>
       <c r="T9">
-        <v>1.251912000067478</v>
+        <v>7.318364082444276</v>
       </c>
       <c r="U9">
-        <v>1.19438575534527</v>
+        <v>6.476608271642565</v>
       </c>
       <c r="V9">
-        <v>1.145115406791308</v>
+        <v>7.541625763580248</v>
       </c>
       <c r="W9">
-        <v>1.109869405137473</v>
+        <v>4.660432433276135</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6487610034163217</v>
+        <v>11.62289367372468</v>
       </c>
       <c r="D10">
-        <v>0.6487610034163217</v>
+        <v>11.62289367372468</v>
       </c>
       <c r="E10">
-        <v>0.9588686294931539</v>
+        <v>3.902930988649193</v>
       </c>
       <c r="F10">
-        <v>0.9785029172411192</v>
+        <v>3.429021738258192</v>
       </c>
       <c r="G10">
-        <v>0.7854421696340089</v>
+        <v>3.894063401555906</v>
       </c>
       <c r="H10">
-        <v>0.8305119519751839</v>
+        <v>3.825709581242505</v>
       </c>
       <c r="I10">
-        <v>1.734882559392015</v>
+        <v>11.08866927880058</v>
       </c>
       <c r="J10">
-        <v>1.041972989419059</v>
+        <v>-0.001270376478415978</v>
       </c>
       <c r="K10">
-        <v>1.806087314186836</v>
+        <v>2.016605698272615</v>
       </c>
       <c r="L10">
-        <v>1.734882559392015</v>
+        <v>11.08866927880058</v>
       </c>
       <c r="M10">
-        <v>0.6487610034162042</v>
+        <v>11.62289367372468</v>
       </c>
       <c r="N10">
-        <v>0.6487610034163217</v>
+        <v>11.62289367372468</v>
       </c>
       <c r="O10">
-        <v>1.806087314186836</v>
+        <v>2.016605698272615</v>
       </c>
       <c r="P10">
-        <v>1.770484936789426</v>
+        <v>6.552637488536599</v>
       </c>
       <c r="Q10">
-        <v>1.382477971839995</v>
+        <v>2.959768343460904</v>
       </c>
       <c r="R10">
-        <v>1.396576958998391</v>
+        <v>8.242722883599292</v>
       </c>
       <c r="S10">
-        <v>1.499946167690669</v>
+        <v>5.66940198857413</v>
       </c>
       <c r="T10">
-        <v>1.396576958998391</v>
+        <v>8.242722883599292</v>
       </c>
       <c r="U10">
-        <v>1.287149876622081</v>
+        <v>7.157774909861767</v>
       </c>
       <c r="V10">
-        <v>1.15947210198093</v>
+        <v>8.05079866263435</v>
       </c>
       <c r="W10">
-        <v>1.098128691844712</v>
+        <v>4.972327998003157</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.045622785961996</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="D11">
-        <v>1.045622785961996</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="E11">
-        <v>0.741201318544677</v>
+        <v>1.147649304949285</v>
       </c>
       <c r="F11">
-        <v>0.7727572100937149</v>
+        <v>1.165794870404734</v>
       </c>
       <c r="G11">
-        <v>1.080867209023134</v>
+        <v>1.154589893974013</v>
       </c>
       <c r="H11">
-        <v>1.438329398343198</v>
+        <v>1.147918889679755</v>
       </c>
       <c r="I11">
-        <v>3.202567282303995</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="J11">
-        <v>0.9121158939794179</v>
+        <v>0.9796258803347943</v>
       </c>
       <c r="K11">
-        <v>2.661343158584538</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="L11">
-        <v>3.202567282303995</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="M11">
-        <v>1.045622785961668</v>
+        <v>1.736394243543242</v>
       </c>
       <c r="N11">
-        <v>1.045622785961996</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="O11">
-        <v>2.661343158584538</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="P11">
-        <v>2.931955220444267</v>
+        <v>1.29090980470136</v>
       </c>
       <c r="Q11">
-        <v>1.701272238564607</v>
+        <v>1.205647354107789</v>
       </c>
       <c r="R11">
-        <v>2.30317774228351</v>
+        <v>1.439404617648693</v>
       </c>
       <c r="S11">
-        <v>2.20170391981107</v>
+        <v>1.243156304784002</v>
       </c>
       <c r="T11">
-        <v>2.30317774228351</v>
+        <v>1.439404617648693</v>
       </c>
       <c r="U11">
-        <v>1.912683636348802</v>
+        <v>1.366465789473841</v>
       </c>
       <c r="V11">
-        <v>1.73927146627144</v>
+        <v>1.440451480287745</v>
       </c>
       <c r="W11">
-        <v>1.481850532104334</v>
+        <v>1.239224086536083</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.002882229086911449</v>
+        <v>1.389121699234248</v>
       </c>
       <c r="D12">
-        <v>-0.002882229086911449</v>
+        <v>1.389121699234248</v>
       </c>
       <c r="E12">
-        <v>0.3174879408921404</v>
+        <v>1.129579920619821</v>
       </c>
       <c r="F12">
-        <v>0.07390081599865056</v>
+        <v>1.066915024738826</v>
       </c>
       <c r="G12">
-        <v>0.5690785811988043</v>
+        <v>1.130209651906521</v>
       </c>
       <c r="H12">
-        <v>2.0612227090139</v>
+        <v>1.104186065856686</v>
       </c>
       <c r="I12">
-        <v>0.004554680423049943</v>
+        <v>1.198661036827961</v>
       </c>
       <c r="J12">
-        <v>0.5969373541486533</v>
+        <v>0.9854572545852344</v>
       </c>
       <c r="K12">
-        <v>-0.0003421703317369149</v>
+        <v>1.152760696011932</v>
       </c>
       <c r="L12">
-        <v>0.004554680423049943</v>
+        <v>1.198661036827961</v>
       </c>
       <c r="M12">
-        <v>-0.002882229086911449</v>
+        <v>1.389121699234126</v>
       </c>
       <c r="N12">
-        <v>-0.002882229086911449</v>
+        <v>1.389121699234248</v>
       </c>
       <c r="O12">
-        <v>-0.0003421703317369149</v>
+        <v>1.152760696011932</v>
       </c>
       <c r="P12">
-        <v>0.002106255045656514</v>
+        <v>1.175710866419946</v>
       </c>
       <c r="Q12">
-        <v>0.1585728852802017</v>
+        <v>1.141170308315876</v>
       </c>
       <c r="R12">
-        <v>0.0004434270014671931</v>
+        <v>1.24684781069138</v>
       </c>
       <c r="S12">
-        <v>0.1072334836611511</v>
+        <v>1.160333884486571</v>
       </c>
       <c r="T12">
-        <v>0.0004434270014671931</v>
+        <v>1.24684781069138</v>
       </c>
       <c r="U12">
-        <v>0.07970455547413549</v>
+        <v>1.21753083817349</v>
       </c>
       <c r="V12">
-        <v>0.0631871985619261</v>
+        <v>1.251849010385642</v>
       </c>
       <c r="W12">
-        <v>0.4524947102820687</v>
+        <v>1.144611418722653</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.784812425470848</v>
+        <v>0.577157880031178</v>
       </c>
       <c r="D13">
-        <v>5.784812425470848</v>
+        <v>0.577157880031178</v>
       </c>
       <c r="E13">
-        <v>0.008181816750942709</v>
+        <v>0.6448082519402648</v>
       </c>
       <c r="F13">
-        <v>1.63379991653893</v>
+        <v>1.937795842844503</v>
       </c>
       <c r="G13">
-        <v>-0.0002601929223607322</v>
+        <v>1.052839322427121</v>
       </c>
       <c r="H13">
-        <v>0.3118080961541104</v>
+        <v>0.5812210422807017</v>
       </c>
       <c r="I13">
-        <v>1.697035567127595</v>
+        <v>2.328145933250242</v>
       </c>
       <c r="J13">
-        <v>1.796730815926714</v>
+        <v>1.573904151451468</v>
       </c>
       <c r="K13">
-        <v>3.94901608169743</v>
+        <v>2.862091525598958</v>
       </c>
       <c r="L13">
-        <v>1.697035567127595</v>
+        <v>2.328145933250242</v>
       </c>
       <c r="M13">
-        <v>5.784812425470848</v>
+        <v>0.5771578800310824</v>
       </c>
       <c r="N13">
-        <v>5.784812425470848</v>
+        <v>0.577157880031178</v>
       </c>
       <c r="O13">
-        <v>3.94901608169743</v>
+        <v>2.862091525598958</v>
       </c>
       <c r="P13">
-        <v>2.823025824412512</v>
+        <v>2.5951187294246</v>
       </c>
       <c r="Q13">
-        <v>1.978598949224186</v>
+        <v>1.753449888769611</v>
       </c>
       <c r="R13">
-        <v>3.810288024765291</v>
+        <v>1.922465112960126</v>
       </c>
       <c r="S13">
-        <v>1.884744488525323</v>
+        <v>1.945015236929821</v>
       </c>
       <c r="T13">
-        <v>3.810288024765291</v>
+        <v>1.922465112960126</v>
       </c>
       <c r="U13">
-        <v>2.859761472761704</v>
+        <v>1.60305089770516</v>
       </c>
       <c r="V13">
-        <v>3.444771663303533</v>
+        <v>1.397872294170364</v>
       </c>
       <c r="W13">
-        <v>1.897640565843026</v>
+        <v>1.444745493728055</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0006168176677112139</v>
+        <v>0.4928207696152412</v>
       </c>
       <c r="D14">
-        <v>0.0006168176677112139</v>
+        <v>0.4928207696152412</v>
       </c>
       <c r="E14">
-        <v>0.06866149054760594</v>
+        <v>1.138920306933298</v>
       </c>
       <c r="F14">
-        <v>-0.0009557861317237541</v>
+        <v>2.727482069210966</v>
       </c>
       <c r="G14">
-        <v>-0.0005623933642230922</v>
+        <v>1.734713196541363</v>
       </c>
       <c r="H14">
-        <v>7.741689186148496</v>
+        <v>3.039801607799863</v>
       </c>
       <c r="I14">
-        <v>11.3253112082399</v>
+        <v>5.754044831141601</v>
       </c>
       <c r="J14">
-        <v>1.439133910944589</v>
+        <v>0.2891025284348198</v>
       </c>
       <c r="K14">
-        <v>-0.0003899418825473299</v>
+        <v>5.698313934795975</v>
       </c>
       <c r="L14">
-        <v>11.3253112082399</v>
+        <v>5.754044831141601</v>
       </c>
       <c r="M14">
-        <v>0.0006168176677112139</v>
+        <v>0.4928207696152412</v>
       </c>
       <c r="N14">
-        <v>0.0006168176677112139</v>
+        <v>0.4928207696152412</v>
       </c>
       <c r="O14">
-        <v>-0.0003899418825473299</v>
+        <v>5.698313934795975</v>
       </c>
       <c r="P14">
-        <v>5.662460633178675</v>
+        <v>5.726179382968788</v>
       </c>
       <c r="Q14">
-        <v>0.0341357743325293</v>
+        <v>3.418617120864637</v>
       </c>
       <c r="R14">
-        <v>3.775179361341687</v>
+        <v>3.981726511850939</v>
       </c>
       <c r="S14">
-        <v>3.797860918968319</v>
+        <v>4.197093024290292</v>
       </c>
       <c r="T14">
-        <v>3.775179361341687</v>
+        <v>3.981726511850939</v>
       </c>
       <c r="U14">
-        <v>2.848549893643167</v>
+        <v>3.271024960621529</v>
       </c>
       <c r="V14">
-        <v>2.278963278448075</v>
+        <v>2.715384122420271</v>
       </c>
       <c r="W14">
-        <v>2.571688061521225</v>
+        <v>2.609399905559141</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0009909289670925157</v>
+        <v>1.569254074824068</v>
       </c>
       <c r="D15">
-        <v>-0.0009909289670925157</v>
+        <v>1.569254074824068</v>
       </c>
       <c r="E15">
-        <v>0.2739816353510962</v>
+        <v>1.190594874526949</v>
       </c>
       <c r="F15">
-        <v>-0.000530223239150013</v>
+        <v>1.097763535159608</v>
       </c>
       <c r="G15">
-        <v>1.60972298834738</v>
+        <v>1.156904908299804</v>
       </c>
       <c r="H15">
-        <v>1.898776812336923</v>
+        <v>1.148090686453917</v>
       </c>
       <c r="I15">
-        <v>-0.002695329012334537</v>
+        <v>1.430420888209043</v>
       </c>
       <c r="J15">
-        <v>2.428908978279019</v>
+        <v>0.9396144713188646</v>
       </c>
       <c r="K15">
-        <v>0.03481782273777063</v>
+        <v>1.345159600979164</v>
       </c>
       <c r="L15">
-        <v>-0.002695329012334537</v>
+        <v>1.430420888209043</v>
       </c>
       <c r="M15">
-        <v>-0.0009909289675504524</v>
+        <v>1.569254074823952</v>
       </c>
       <c r="N15">
-        <v>-0.0009909289670925157</v>
+        <v>1.569254074824068</v>
       </c>
       <c r="O15">
-        <v>0.03481782273777063</v>
+        <v>1.345159600979164</v>
       </c>
       <c r="P15">
-        <v>0.01606124686271805</v>
+        <v>1.387790244594103</v>
       </c>
       <c r="Q15">
-        <v>0.1543997290444334</v>
+        <v>1.267877237753057</v>
       </c>
       <c r="R15">
-        <v>0.01037718825278119</v>
+        <v>1.448278188004092</v>
       </c>
       <c r="S15">
-        <v>0.1020347096921774</v>
+        <v>1.322058454571719</v>
       </c>
       <c r="T15">
-        <v>0.01037718825278119</v>
+        <v>1.448278188004092</v>
       </c>
       <c r="U15">
-        <v>0.07627830002735994</v>
+        <v>1.383857359634806</v>
       </c>
       <c r="V15">
-        <v>0.06082445422846945</v>
+        <v>1.420936702672658</v>
       </c>
       <c r="W15">
-        <v>0.7802489694792015</v>
+        <v>1.234725379971427</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.742234599680671</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="D16">
-        <v>8.742234599680671</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="E16">
-        <v>3.060631789149619</v>
+        <v>1.422482169259989</v>
       </c>
       <c r="F16">
-        <v>2.876568507421676</v>
+        <v>1.397293827631666</v>
       </c>
       <c r="G16">
-        <v>3.066306711732128</v>
+        <v>1.312414567097076</v>
       </c>
       <c r="H16">
-        <v>2.991354907927217</v>
+        <v>1.457926327561351</v>
       </c>
       <c r="I16">
-        <v>5.927407999352345</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="J16">
-        <v>0.2356070948056548</v>
+        <v>0.8516177735610253</v>
       </c>
       <c r="K16">
-        <v>3.980544117171519</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="L16">
-        <v>5.927407999352345</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="M16">
-        <v>8.742234599680657</v>
+        <v>2.502563244388496</v>
       </c>
       <c r="N16">
-        <v>8.742234599680671</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="O16">
-        <v>3.980544117171519</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="P16">
-        <v>4.953976058261932</v>
+        <v>1.535671615348408</v>
       </c>
       <c r="Q16">
-        <v>3.520587953160569</v>
+        <v>1.378387228586251</v>
       </c>
       <c r="R16">
-        <v>6.216728905401513</v>
+        <v>1.857968825028493</v>
       </c>
       <c r="S16">
-        <v>4.322861301891161</v>
+        <v>1.497941799985601</v>
       </c>
       <c r="T16">
-        <v>6.216728905401513</v>
+        <v>1.857968825028493</v>
       </c>
       <c r="U16">
-        <v>5.427704626338539</v>
+        <v>1.749097161086367</v>
       </c>
       <c r="V16">
-        <v>6.090610621006965</v>
+        <v>1.899790377746826</v>
       </c>
       <c r="W16">
-        <v>3.860081965905104</v>
+        <v>1.501955142524573</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.151589688688708</v>
+        <v>0.9767920905391435</v>
       </c>
       <c r="D17">
-        <v>6.151589688688708</v>
+        <v>0.9767920905391435</v>
       </c>
       <c r="E17">
-        <v>2.342561436774054</v>
+        <v>0.6422145294582499</v>
       </c>
       <c r="F17">
-        <v>2.277653020157634</v>
+        <v>1.604557583294666</v>
       </c>
       <c r="G17">
-        <v>2.355727160999691</v>
+        <v>1.535580148296976</v>
       </c>
       <c r="H17">
-        <v>2.283596109264346</v>
+        <v>1.650599701846003</v>
       </c>
       <c r="I17">
-        <v>4.326412262176837</v>
+        <v>3.825208956509219</v>
       </c>
       <c r="J17">
-        <v>0.4721726257389738</v>
+        <v>0.406170528368534</v>
       </c>
       <c r="K17">
-        <v>4.241320840595076</v>
+        <v>2.980036563290933</v>
       </c>
       <c r="L17">
-        <v>4.326412262176837</v>
+        <v>3.825208956509219</v>
       </c>
       <c r="M17">
-        <v>6.151589688688662</v>
+        <v>0.9767920905391435</v>
       </c>
       <c r="N17">
-        <v>6.151589688688708</v>
+        <v>0.9767920905391435</v>
       </c>
       <c r="O17">
-        <v>4.241320840595076</v>
+        <v>2.980036563290933</v>
       </c>
       <c r="P17">
-        <v>4.283866551385957</v>
+        <v>3.402622759900076</v>
       </c>
       <c r="Q17">
-        <v>3.291941138684565</v>
+        <v>1.811125546374591</v>
       </c>
       <c r="R17">
-        <v>4.906440930486874</v>
+        <v>2.594012536779765</v>
       </c>
       <c r="S17">
-        <v>3.636764846515323</v>
+        <v>2.482486683086134</v>
       </c>
       <c r="T17">
-        <v>4.906440930486874</v>
+        <v>2.594012536779765</v>
       </c>
       <c r="U17">
-        <v>4.265471057058669</v>
+        <v>2.106063034949386</v>
       </c>
       <c r="V17">
-        <v>4.642694783384677</v>
+        <v>1.880208846067338</v>
       </c>
       <c r="W17">
-        <v>3.056379143049415</v>
+        <v>1.702645012700466</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7495411352952546</v>
+        <v>0.916230768269628</v>
       </c>
       <c r="D18">
-        <v>0.7495411352952546</v>
+        <v>0.916230768269628</v>
       </c>
       <c r="E18">
-        <v>1.017287257004298</v>
+        <v>1.955936000441994</v>
       </c>
       <c r="F18">
-        <v>0.8311088089192242</v>
+        <v>2.915564759556362</v>
       </c>
       <c r="G18">
-        <v>0.7235617124877119</v>
+        <v>0.2062785864384515</v>
       </c>
       <c r="H18">
-        <v>0.8530206813304934</v>
+        <v>3.829194954547355</v>
       </c>
       <c r="I18">
-        <v>1.700032487750397</v>
+        <v>10.54317485541254</v>
       </c>
       <c r="J18">
-        <v>1.052148793420024</v>
+        <v>0.02890935085211756</v>
       </c>
       <c r="K18">
-        <v>4.399178354956702</v>
+        <v>6.245326203686531</v>
       </c>
       <c r="L18">
-        <v>1.700032487750397</v>
+        <v>10.54317485541254</v>
       </c>
       <c r="M18">
-        <v>0.7495411352951935</v>
+        <v>0.916230768269628</v>
       </c>
       <c r="N18">
-        <v>0.7495411352952546</v>
+        <v>0.916230768269628</v>
       </c>
       <c r="O18">
-        <v>4.399178354956702</v>
+        <v>6.245326203686531</v>
       </c>
       <c r="P18">
-        <v>3.04960542135355</v>
+        <v>8.394250529549534</v>
       </c>
       <c r="Q18">
-        <v>2.7082328059805</v>
+        <v>4.100631102064263</v>
       </c>
       <c r="R18">
-        <v>2.282917326000785</v>
+        <v>5.901577275789566</v>
       </c>
       <c r="S18">
-        <v>2.372166033237133</v>
+        <v>6.248145686513688</v>
       </c>
       <c r="T18">
-        <v>2.282917326000785</v>
+        <v>5.901577275789566</v>
       </c>
       <c r="U18">
-        <v>1.966509808751663</v>
+        <v>4.915166956952673</v>
       </c>
       <c r="V18">
-        <v>1.723116074060381</v>
+        <v>4.115379719216063</v>
       </c>
       <c r="W18">
-        <v>1.415734903895513</v>
+        <v>3.330076934900622</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.403938210528316</v>
+        <v>1.075870391784044</v>
       </c>
       <c r="D19">
-        <v>1.403938210528316</v>
+        <v>1.075870391784044</v>
       </c>
       <c r="E19">
-        <v>0.5004795394702432</v>
+        <v>1.049768610134817</v>
       </c>
       <c r="F19">
-        <v>0.885156539932016</v>
+        <v>1.013556778178853</v>
       </c>
       <c r="G19">
-        <v>0.9710118979087965</v>
+        <v>1.048918389728349</v>
       </c>
       <c r="H19">
-        <v>1.023929959126401</v>
+        <v>1.017886430588551</v>
       </c>
       <c r="I19">
-        <v>1.868939195950409</v>
+        <v>1.121927668444944</v>
       </c>
       <c r="J19">
-        <v>0.6555044926310413</v>
+        <v>1.007891921242882</v>
       </c>
       <c r="K19">
-        <v>6.137187536559376</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="L19">
-        <v>1.868939195950409</v>
+        <v>1.121927668444944</v>
       </c>
       <c r="M19">
-        <v>1.40393821052818</v>
+        <v>1.075870391783917</v>
       </c>
       <c r="N19">
-        <v>1.403938210528316</v>
+        <v>1.075870391784044</v>
       </c>
       <c r="O19">
-        <v>6.137187536559376</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="P19">
-        <v>4.003063366254892</v>
+        <v>1.130091578761701</v>
       </c>
       <c r="Q19">
-        <v>3.31883353801481</v>
+        <v>1.094012049606638</v>
       </c>
       <c r="R19">
-        <v>3.136688314346034</v>
+        <v>1.112017849769149</v>
       </c>
       <c r="S19">
-        <v>2.835535423993342</v>
+        <v>1.103317255886073</v>
       </c>
       <c r="T19">
-        <v>3.136688314346034</v>
+        <v>1.112017849769149</v>
       </c>
       <c r="U19">
-        <v>2.477636120627086</v>
+        <v>1.096455539860566</v>
       </c>
       <c r="V19">
-        <v>2.262896538607332</v>
+        <v>1.092338510245261</v>
       </c>
       <c r="W19">
-        <v>1.680768421513325</v>
+        <v>1.059259459897612</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.039934218879061</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="D20">
-        <v>1.039934218879061</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="E20">
-        <v>1.101588897806049</v>
+        <v>1.051948274823596</v>
       </c>
       <c r="F20">
-        <v>1.002832159501204</v>
+        <v>1.005365440561854</v>
       </c>
       <c r="G20">
-        <v>1.089231834236571</v>
+        <v>1.037489788170774</v>
       </c>
       <c r="H20">
-        <v>1.015448092719865</v>
+        <v>1.035807208106861</v>
       </c>
       <c r="I20">
-        <v>1.024851449846393</v>
+        <v>1.20659613688094</v>
       </c>
       <c r="J20">
-        <v>1.017869204692472</v>
+        <v>1.026278289915308</v>
       </c>
       <c r="K20">
-        <v>1.129647210132086</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="L20">
-        <v>1.024851449846393</v>
+        <v>1.20659613688094</v>
       </c>
       <c r="M20">
-        <v>1.039934218878936</v>
+        <v>1.092875682578999</v>
       </c>
       <c r="N20">
-        <v>1.039934218879061</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="O20">
-        <v>1.129647210132086</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="P20">
-        <v>1.07724932998924</v>
+        <v>1.218523760725051</v>
       </c>
       <c r="Q20">
-        <v>1.115618053969068</v>
+        <v>1.141199829696379</v>
       </c>
       <c r="R20">
-        <v>1.06481095961918</v>
+        <v>1.176641068009742</v>
       </c>
       <c r="S20">
-        <v>1.08536251926151</v>
+        <v>1.162998598757899</v>
       </c>
       <c r="T20">
-        <v>1.06481095961918</v>
+        <v>1.176641068009742</v>
       </c>
       <c r="U20">
-        <v>1.074005444165897</v>
+        <v>1.145467869713205</v>
       </c>
       <c r="V20">
-        <v>1.06719119910853</v>
+        <v>1.134949432286388</v>
       </c>
       <c r="W20">
-        <v>1.052675383476713</v>
+        <v>1.085851525700952</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.253375835565662</v>
+        <v>0.9480340125754586</v>
       </c>
       <c r="D21">
-        <v>1.253375835565662</v>
+        <v>0.9480340125754586</v>
       </c>
       <c r="E21">
-        <v>0.9516262303654709</v>
+        <v>1.021807021178645</v>
       </c>
       <c r="F21">
-        <v>1.078712803721037</v>
+        <v>1.025587645227663</v>
       </c>
       <c r="G21">
-        <v>0.9741665222393703</v>
+        <v>0.9587407428452084</v>
       </c>
       <c r="H21">
-        <v>1.093293488806311</v>
+        <v>1.191966941666522</v>
       </c>
       <c r="I21">
-        <v>1.25457928082467</v>
+        <v>1.623599917825078</v>
       </c>
       <c r="J21">
-        <v>1.00854562283096</v>
+        <v>0.9251168899793074</v>
       </c>
       <c r="K21">
-        <v>0.9862463819789583</v>
+        <v>1.184102069801898</v>
       </c>
       <c r="L21">
-        <v>1.25457928082467</v>
+        <v>1.623599917825078</v>
       </c>
       <c r="M21">
-        <v>1.253375835565545</v>
+        <v>0.9480340125753356</v>
       </c>
       <c r="N21">
-        <v>1.253375835565662</v>
+        <v>0.9480340125754586</v>
       </c>
       <c r="O21">
-        <v>0.9862463819789583</v>
+        <v>1.184102069801898</v>
       </c>
       <c r="P21">
-        <v>1.120412831401814</v>
+        <v>1.403850993813488</v>
       </c>
       <c r="Q21">
-        <v>0.9689363061722146</v>
+        <v>1.102954545490272</v>
       </c>
       <c r="R21">
-        <v>1.164733832789764</v>
+        <v>1.251912000067478</v>
       </c>
       <c r="S21">
-        <v>1.064150631056366</v>
+        <v>1.276503002935207</v>
       </c>
       <c r="T21">
-        <v>1.164733832789764</v>
+        <v>1.251912000067478</v>
       </c>
       <c r="U21">
-        <v>1.11145693218369</v>
+        <v>1.19438575534527</v>
       </c>
       <c r="V21">
-        <v>1.139840712860085</v>
+        <v>1.145115406791308</v>
       </c>
       <c r="W21">
-        <v>1.075068270791555</v>
+        <v>1.109869405137473</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4534650291766862</v>
+        <v>0.6487610034163217</v>
       </c>
       <c r="D22">
-        <v>0.4534650291766862</v>
+        <v>0.6487610034163217</v>
       </c>
       <c r="E22">
-        <v>1.092591663205454</v>
+        <v>0.9588686294931539</v>
       </c>
       <c r="F22">
-        <v>0.7240117855062778</v>
+        <v>0.9785029172411192</v>
       </c>
       <c r="G22">
-        <v>0.8750763187241302</v>
+        <v>0.7854421696340089</v>
       </c>
       <c r="H22">
-        <v>1.357542234589808</v>
+        <v>0.8305119519751839</v>
       </c>
       <c r="I22">
-        <v>2.158029257426955</v>
+        <v>1.734882559392015</v>
       </c>
       <c r="J22">
-        <v>0.8636008274638743</v>
+        <v>1.041972989419059</v>
       </c>
       <c r="K22">
-        <v>1.117771084540937</v>
+        <v>1.806087314186836</v>
       </c>
       <c r="L22">
-        <v>2.158029257426955</v>
+        <v>1.734882559392015</v>
       </c>
       <c r="M22">
-        <v>0.4534650291764976</v>
+        <v>0.6487610034162042</v>
       </c>
       <c r="N22">
-        <v>0.4534650291766862</v>
+        <v>0.6487610034163217</v>
       </c>
       <c r="O22">
-        <v>1.117771084540937</v>
+        <v>1.806087314186836</v>
       </c>
       <c r="P22">
-        <v>1.637900170983946</v>
+        <v>1.770484936789426</v>
       </c>
       <c r="Q22">
-        <v>1.105181373873195</v>
+        <v>1.382477971839995</v>
       </c>
       <c r="R22">
-        <v>1.243088457048193</v>
+        <v>1.396576958998391</v>
       </c>
       <c r="S22">
-        <v>1.456130668391115</v>
+        <v>1.499946167690669</v>
       </c>
       <c r="T22">
-        <v>1.243088457048193</v>
+        <v>1.396576958998391</v>
       </c>
       <c r="U22">
-        <v>1.205464258587508</v>
+        <v>1.287149876622081</v>
       </c>
       <c r="V22">
-        <v>1.055064412705344</v>
+        <v>1.15947210198093</v>
       </c>
       <c r="W22">
-        <v>1.080261025079265</v>
+        <v>1.098128691844712</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.045622785961996</v>
+      </c>
+      <c r="D23">
+        <v>1.045622785961996</v>
+      </c>
+      <c r="E23">
+        <v>0.741201318544677</v>
+      </c>
+      <c r="F23">
+        <v>0.7727572100937149</v>
+      </c>
+      <c r="G23">
+        <v>1.080867209023134</v>
+      </c>
+      <c r="H23">
+        <v>1.438329398343198</v>
+      </c>
+      <c r="I23">
+        <v>3.202567282303995</v>
+      </c>
+      <c r="J23">
+        <v>0.9121158939794179</v>
+      </c>
+      <c r="K23">
+        <v>2.661343158584538</v>
+      </c>
+      <c r="L23">
+        <v>3.202567282303995</v>
+      </c>
+      <c r="M23">
+        <v>1.045622785961668</v>
+      </c>
+      <c r="N23">
+        <v>1.045622785961996</v>
+      </c>
+      <c r="O23">
+        <v>2.661343158584538</v>
+      </c>
+      <c r="P23">
+        <v>2.931955220444267</v>
+      </c>
+      <c r="Q23">
+        <v>1.701272238564607</v>
+      </c>
+      <c r="R23">
+        <v>2.30317774228351</v>
+      </c>
+      <c r="S23">
+        <v>2.20170391981107</v>
+      </c>
+      <c r="T23">
+        <v>2.30317774228351</v>
+      </c>
+      <c r="U23">
+        <v>1.912683636348802</v>
+      </c>
+      <c r="V23">
+        <v>1.73927146627144</v>
+      </c>
+      <c r="W23">
+        <v>1.481850532104334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="D24">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="E24">
+        <v>0.3174879408921404</v>
+      </c>
+      <c r="F24">
+        <v>0.07390081599865056</v>
+      </c>
+      <c r="G24">
+        <v>0.5690785811988043</v>
+      </c>
+      <c r="H24">
+        <v>2.0612227090139</v>
+      </c>
+      <c r="I24">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="J24">
+        <v>0.5969373541486533</v>
+      </c>
+      <c r="K24">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="L24">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="M24">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="N24">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="O24">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="P24">
+        <v>0.002106255045656514</v>
+      </c>
+      <c r="Q24">
+        <v>0.1585728852802017</v>
+      </c>
+      <c r="R24">
+        <v>0.0004434270014671931</v>
+      </c>
+      <c r="S24">
+        <v>0.1072334836611511</v>
+      </c>
+      <c r="T24">
+        <v>0.0004434270014671931</v>
+      </c>
+      <c r="U24">
+        <v>0.07970455547413549</v>
+      </c>
+      <c r="V24">
+        <v>0.0631871985619261</v>
+      </c>
+      <c r="W24">
+        <v>0.4524947102820687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="D25">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="E25">
+        <v>0.008181816750942709</v>
+      </c>
+      <c r="F25">
+        <v>1.63379991653893</v>
+      </c>
+      <c r="G25">
+        <v>-0.0002601929223607322</v>
+      </c>
+      <c r="H25">
+        <v>0.3118080961541104</v>
+      </c>
+      <c r="I25">
+        <v>1.697035567127595</v>
+      </c>
+      <c r="J25">
+        <v>1.796730815926714</v>
+      </c>
+      <c r="K25">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="L25">
+        <v>1.697035567127595</v>
+      </c>
+      <c r="M25">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="N25">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="O25">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="P25">
+        <v>2.823025824412512</v>
+      </c>
+      <c r="Q25">
+        <v>1.978598949224186</v>
+      </c>
+      <c r="R25">
+        <v>3.810288024765291</v>
+      </c>
+      <c r="S25">
+        <v>1.884744488525323</v>
+      </c>
+      <c r="T25">
+        <v>3.810288024765291</v>
+      </c>
+      <c r="U25">
+        <v>2.859761472761704</v>
+      </c>
+      <c r="V25">
+        <v>3.444771663303533</v>
+      </c>
+      <c r="W25">
+        <v>1.897640565843026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="D26">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="E26">
+        <v>0.06866149054760594</v>
+      </c>
+      <c r="F26">
+        <v>-0.0009557861317237541</v>
+      </c>
+      <c r="G26">
+        <v>-0.0005623933642230922</v>
+      </c>
+      <c r="H26">
+        <v>7.741689186148496</v>
+      </c>
+      <c r="I26">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="J26">
+        <v>1.439133910944589</v>
+      </c>
+      <c r="K26">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="L26">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="M26">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="N26">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="O26">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="P26">
+        <v>5.662460633178675</v>
+      </c>
+      <c r="Q26">
+        <v>0.0341357743325293</v>
+      </c>
+      <c r="R26">
+        <v>3.775179361341687</v>
+      </c>
+      <c r="S26">
+        <v>3.797860918968319</v>
+      </c>
+      <c r="T26">
+        <v>3.775179361341687</v>
+      </c>
+      <c r="U26">
+        <v>2.848549893643167</v>
+      </c>
+      <c r="V26">
+        <v>2.278963278448075</v>
+      </c>
+      <c r="W26">
+        <v>2.571688061521225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.0009909289670925157</v>
+      </c>
+      <c r="D27">
+        <v>-0.0009909289670925157</v>
+      </c>
+      <c r="E27">
+        <v>0.2739816353510962</v>
+      </c>
+      <c r="F27">
+        <v>-0.000530223239150013</v>
+      </c>
+      <c r="G27">
+        <v>1.60972298834738</v>
+      </c>
+      <c r="H27">
+        <v>1.898776812336923</v>
+      </c>
+      <c r="I27">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="J27">
+        <v>2.428908978279019</v>
+      </c>
+      <c r="K27">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="L27">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="M27">
+        <v>-0.0009909289675504524</v>
+      </c>
+      <c r="N27">
+        <v>-0.0009909289670925157</v>
+      </c>
+      <c r="O27">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="P27">
+        <v>0.01606124686271805</v>
+      </c>
+      <c r="Q27">
+        <v>0.1543997290444334</v>
+      </c>
+      <c r="R27">
+        <v>0.01037718825278119</v>
+      </c>
+      <c r="S27">
+        <v>0.1020347096921774</v>
+      </c>
+      <c r="T27">
+        <v>0.01037718825278119</v>
+      </c>
+      <c r="U27">
+        <v>0.07627830002735994</v>
+      </c>
+      <c r="V27">
+        <v>0.06082445422846945</v>
+      </c>
+      <c r="W27">
+        <v>0.7802489694792015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>8.742234599680671</v>
+      </c>
+      <c r="D28">
+        <v>8.742234599680671</v>
+      </c>
+      <c r="E28">
+        <v>3.060631789149619</v>
+      </c>
+      <c r="F28">
+        <v>2.876568507421676</v>
+      </c>
+      <c r="G28">
+        <v>3.066306711732128</v>
+      </c>
+      <c r="H28">
+        <v>2.991354907927217</v>
+      </c>
+      <c r="I28">
+        <v>5.927407999352345</v>
+      </c>
+      <c r="J28">
+        <v>0.2356070948056548</v>
+      </c>
+      <c r="K28">
+        <v>3.980544117171519</v>
+      </c>
+      <c r="L28">
+        <v>5.927407999352345</v>
+      </c>
+      <c r="M28">
+        <v>8.742234599680657</v>
+      </c>
+      <c r="N28">
+        <v>8.742234599680671</v>
+      </c>
+      <c r="O28">
+        <v>3.980544117171519</v>
+      </c>
+      <c r="P28">
+        <v>4.953976058261932</v>
+      </c>
+      <c r="Q28">
+        <v>3.520587953160569</v>
+      </c>
+      <c r="R28">
+        <v>6.216728905401513</v>
+      </c>
+      <c r="S28">
+        <v>4.322861301891161</v>
+      </c>
+      <c r="T28">
+        <v>6.216728905401513</v>
+      </c>
+      <c r="U28">
+        <v>5.427704626338539</v>
+      </c>
+      <c r="V28">
+        <v>6.090610621006965</v>
+      </c>
+      <c r="W28">
+        <v>3.860081965905104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>6.151589688688708</v>
+      </c>
+      <c r="D29">
+        <v>6.151589688688708</v>
+      </c>
+      <c r="E29">
+        <v>2.342561436774054</v>
+      </c>
+      <c r="F29">
+        <v>2.277653020157634</v>
+      </c>
+      <c r="G29">
+        <v>2.355727160999691</v>
+      </c>
+      <c r="H29">
+        <v>2.283596109264346</v>
+      </c>
+      <c r="I29">
+        <v>4.326412262176837</v>
+      </c>
+      <c r="J29">
+        <v>0.4721726257389738</v>
+      </c>
+      <c r="K29">
+        <v>4.241320840595076</v>
+      </c>
+      <c r="L29">
+        <v>4.326412262176837</v>
+      </c>
+      <c r="M29">
+        <v>6.151589688688662</v>
+      </c>
+      <c r="N29">
+        <v>6.151589688688708</v>
+      </c>
+      <c r="O29">
+        <v>4.241320840595076</v>
+      </c>
+      <c r="P29">
+        <v>4.283866551385957</v>
+      </c>
+      <c r="Q29">
+        <v>3.291941138684565</v>
+      </c>
+      <c r="R29">
+        <v>4.906440930486874</v>
+      </c>
+      <c r="S29">
+        <v>3.636764846515323</v>
+      </c>
+      <c r="T29">
+        <v>4.906440930486874</v>
+      </c>
+      <c r="U29">
+        <v>4.265471057058669</v>
+      </c>
+      <c r="V29">
+        <v>4.642694783384677</v>
+      </c>
+      <c r="W29">
+        <v>3.056379143049415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7495411352952546</v>
+      </c>
+      <c r="D30">
+        <v>0.7495411352952546</v>
+      </c>
+      <c r="E30">
+        <v>1.017287257004298</v>
+      </c>
+      <c r="F30">
+        <v>0.8311088089192242</v>
+      </c>
+      <c r="G30">
+        <v>0.7235617124877119</v>
+      </c>
+      <c r="H30">
+        <v>0.8530206813304934</v>
+      </c>
+      <c r="I30">
+        <v>1.700032487750397</v>
+      </c>
+      <c r="J30">
+        <v>1.052148793420024</v>
+      </c>
+      <c r="K30">
+        <v>4.399178354956702</v>
+      </c>
+      <c r="L30">
+        <v>1.700032487750397</v>
+      </c>
+      <c r="M30">
+        <v>0.7495411352951935</v>
+      </c>
+      <c r="N30">
+        <v>0.7495411352952546</v>
+      </c>
+      <c r="O30">
+        <v>4.399178354956702</v>
+      </c>
+      <c r="P30">
+        <v>3.04960542135355</v>
+      </c>
+      <c r="Q30">
+        <v>2.7082328059805</v>
+      </c>
+      <c r="R30">
+        <v>2.282917326000785</v>
+      </c>
+      <c r="S30">
+        <v>2.372166033237133</v>
+      </c>
+      <c r="T30">
+        <v>2.282917326000785</v>
+      </c>
+      <c r="U30">
+        <v>1.966509808751663</v>
+      </c>
+      <c r="V30">
+        <v>1.723116074060381</v>
+      </c>
+      <c r="W30">
+        <v>1.415734903895513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.403938210528316</v>
+      </c>
+      <c r="D31">
+        <v>1.403938210528316</v>
+      </c>
+      <c r="E31">
+        <v>0.5004795394702432</v>
+      </c>
+      <c r="F31">
+        <v>0.885156539932016</v>
+      </c>
+      <c r="G31">
+        <v>0.9710118979087965</v>
+      </c>
+      <c r="H31">
+        <v>1.023929959126401</v>
+      </c>
+      <c r="I31">
+        <v>1.868939195950409</v>
+      </c>
+      <c r="J31">
+        <v>0.6555044926310413</v>
+      </c>
+      <c r="K31">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="L31">
+        <v>1.868939195950409</v>
+      </c>
+      <c r="M31">
+        <v>1.40393821052818</v>
+      </c>
+      <c r="N31">
+        <v>1.403938210528316</v>
+      </c>
+      <c r="O31">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="P31">
+        <v>4.003063366254892</v>
+      </c>
+      <c r="Q31">
+        <v>3.31883353801481</v>
+      </c>
+      <c r="R31">
+        <v>3.136688314346034</v>
+      </c>
+      <c r="S31">
+        <v>2.835535423993342</v>
+      </c>
+      <c r="T31">
+        <v>3.136688314346034</v>
+      </c>
+      <c r="U31">
+        <v>2.477636120627086</v>
+      </c>
+      <c r="V31">
+        <v>2.262896538607332</v>
+      </c>
+      <c r="W31">
+        <v>1.680768421513325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>11.17508419080274</v>
+      </c>
+      <c r="D32">
+        <v>11.17508419080274</v>
+      </c>
+      <c r="E32">
+        <v>3.725723849406852</v>
+      </c>
+      <c r="F32">
+        <v>3.426349561665754</v>
+      </c>
+      <c r="G32">
+        <v>3.723875504056985</v>
+      </c>
+      <c r="H32">
+        <v>3.647010614121097</v>
+      </c>
+      <c r="I32">
+        <v>10.78818887902</v>
+      </c>
+      <c r="J32">
+        <v>-0.001597393584931508</v>
+      </c>
+      <c r="K32">
+        <v>3.734662364762876</v>
+      </c>
+      <c r="L32">
+        <v>10.78818887902</v>
+      </c>
+      <c r="M32">
+        <v>11.17508419080274</v>
+      </c>
+      <c r="N32">
+        <v>11.17508419080274</v>
+      </c>
+      <c r="O32">
+        <v>3.734662364762876</v>
+      </c>
+      <c r="P32">
+        <v>7.261425621891438</v>
+      </c>
+      <c r="Q32">
+        <v>3.730193107084864</v>
+      </c>
+      <c r="R32">
+        <v>8.565978478195206</v>
+      </c>
+      <c r="S32">
+        <v>6.082858364396576</v>
+      </c>
+      <c r="T32">
+        <v>8.565978478195206</v>
+      </c>
+      <c r="U32">
+        <v>7.355914820998117</v>
+      </c>
+      <c r="V32">
+        <v>8.119748694959041</v>
+      </c>
+      <c r="W32">
+        <v>5.027412196281422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.007608171926315788</v>
+      </c>
+      <c r="D33">
+        <v>0.007608171926315788</v>
+      </c>
+      <c r="E33">
+        <v>0.001574745657894737</v>
+      </c>
+      <c r="F33">
+        <v>0.007089420968421055</v>
+      </c>
+      <c r="G33">
+        <v>0.00457095178</v>
+      </c>
+      <c r="H33">
+        <v>-0.002566120632631578</v>
+      </c>
+      <c r="I33">
+        <v>14.35741520336105</v>
+      </c>
+      <c r="J33">
+        <v>6.654865755542105</v>
+      </c>
+      <c r="K33">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="L33">
+        <v>14.35741520336105</v>
+      </c>
+      <c r="M33">
+        <v>0.007608171926315788</v>
+      </c>
+      <c r="N33">
+        <v>0.007608171926315788</v>
+      </c>
+      <c r="O33">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="P33">
+        <v>13.95387009193132</v>
+      </c>
+      <c r="Q33">
+        <v>6.775949863079741</v>
+      </c>
+      <c r="R33">
+        <v>9.305116118596318</v>
+      </c>
+      <c r="S33">
+        <v>9.303104976506845</v>
+      </c>
+      <c r="T33">
+        <v>9.305116118596318</v>
+      </c>
+      <c r="U33">
+        <v>6.979230775361713</v>
+      </c>
+      <c r="V33">
+        <v>5.584906254674634</v>
+      </c>
+      <c r="W33">
+        <v>4.322610388638092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="D34">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="E34">
+        <v>3.578548710449474</v>
+      </c>
+      <c r="F34">
+        <v>3.291584131521053</v>
+      </c>
+      <c r="G34">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="H34">
+        <v>3.502861386301053</v>
+      </c>
+      <c r="I34">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="J34">
+        <v>-0.001767501294736843</v>
+      </c>
+      <c r="K34">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="L34">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="M34">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="N34">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="O34">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="P34">
+        <v>10.16271314356211</v>
+      </c>
+      <c r="Q34">
+        <v>5.176866997567634</v>
+      </c>
+      <c r="R34">
+        <v>10.35327201446947</v>
+      </c>
+      <c r="S34">
+        <v>7.967991665857897</v>
+      </c>
+      <c r="T34">
+        <v>10.35327201446947</v>
+      </c>
+      <c r="U34">
+        <v>8.659591188464475</v>
+      </c>
+      <c r="V34">
+        <v>9.074550902028422</v>
+      </c>
+      <c r="W34">
+        <v>5.625948524547829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.6602454914644297</v>
+      </c>
+      <c r="D35">
+        <v>0.6602454914644297</v>
+      </c>
+      <c r="E35">
+        <v>0.4391695651277662</v>
+      </c>
+      <c r="F35">
+        <v>0.5407920875013938</v>
+      </c>
+      <c r="G35">
+        <v>0.4435040455173282</v>
+      </c>
+      <c r="H35">
+        <v>0.4745863008851787</v>
+      </c>
+      <c r="I35">
+        <v>0.4532072119093449</v>
+      </c>
+      <c r="J35">
+        <v>0.4323049017518667</v>
+      </c>
+      <c r="K35">
+        <v>62.75842379450049</v>
+      </c>
+      <c r="L35">
+        <v>0.4532072119093449</v>
+      </c>
+      <c r="M35">
+        <v>0.6602454914643945</v>
+      </c>
+      <c r="N35">
+        <v>0.6602454914644297</v>
+      </c>
+      <c r="O35">
+        <v>62.75842379450049</v>
+      </c>
+      <c r="P35">
+        <v>31.60581550320492</v>
+      </c>
+      <c r="Q35">
+        <v>31.59879667981413</v>
+      </c>
+      <c r="R35">
+        <v>21.29062549929142</v>
+      </c>
+      <c r="S35">
+        <v>21.21693352384586</v>
+      </c>
+      <c r="T35">
+        <v>21.29062549929142</v>
+      </c>
+      <c r="U35">
+        <v>16.07776151575051</v>
+      </c>
+      <c r="V35">
+        <v>12.99425831089329</v>
+      </c>
+      <c r="W35">
+        <v>8.275279174832225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.039934218879061</v>
+      </c>
+      <c r="D36">
+        <v>1.039934218879061</v>
+      </c>
+      <c r="E36">
+        <v>1.101588897806049</v>
+      </c>
+      <c r="F36">
+        <v>1.002832159501204</v>
+      </c>
+      <c r="G36">
+        <v>1.089231834236571</v>
+      </c>
+      <c r="H36">
+        <v>1.015448092719865</v>
+      </c>
+      <c r="I36">
+        <v>1.024851449846393</v>
+      </c>
+      <c r="J36">
+        <v>1.017869204692472</v>
+      </c>
+      <c r="K36">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="L36">
+        <v>1.024851449846393</v>
+      </c>
+      <c r="M36">
+        <v>1.039934218878936</v>
+      </c>
+      <c r="N36">
+        <v>1.039934218879061</v>
+      </c>
+      <c r="O36">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="P36">
+        <v>1.07724932998924</v>
+      </c>
+      <c r="Q36">
+        <v>1.115618053969068</v>
+      </c>
+      <c r="R36">
+        <v>1.06481095961918</v>
+      </c>
+      <c r="S36">
+        <v>1.08536251926151</v>
+      </c>
+      <c r="T36">
+        <v>1.06481095961918</v>
+      </c>
+      <c r="U36">
+        <v>1.074005444165897</v>
+      </c>
+      <c r="V36">
+        <v>1.06719119910853</v>
+      </c>
+      <c r="W36">
+        <v>1.052675383476713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.253375835565662</v>
+      </c>
+      <c r="D37">
+        <v>1.253375835565662</v>
+      </c>
+      <c r="E37">
+        <v>0.9516262303654709</v>
+      </c>
+      <c r="F37">
+        <v>1.078712803721037</v>
+      </c>
+      <c r="G37">
+        <v>0.9741665222393703</v>
+      </c>
+      <c r="H37">
+        <v>1.093293488806311</v>
+      </c>
+      <c r="I37">
+        <v>1.25457928082467</v>
+      </c>
+      <c r="J37">
+        <v>1.00854562283096</v>
+      </c>
+      <c r="K37">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="L37">
+        <v>1.25457928082467</v>
+      </c>
+      <c r="M37">
+        <v>1.253375835565545</v>
+      </c>
+      <c r="N37">
+        <v>1.253375835565662</v>
+      </c>
+      <c r="O37">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="P37">
+        <v>1.120412831401814</v>
+      </c>
+      <c r="Q37">
+        <v>0.9689363061722146</v>
+      </c>
+      <c r="R37">
+        <v>1.164733832789764</v>
+      </c>
+      <c r="S37">
+        <v>1.064150631056366</v>
+      </c>
+      <c r="T37">
+        <v>1.164733832789764</v>
+      </c>
+      <c r="U37">
+        <v>1.11145693218369</v>
+      </c>
+      <c r="V37">
+        <v>1.139840712860085</v>
+      </c>
+      <c r="W37">
+        <v>1.075068270791555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.4534650291766862</v>
+      </c>
+      <c r="D38">
+        <v>0.4534650291766862</v>
+      </c>
+      <c r="E38">
+        <v>1.092591663205454</v>
+      </c>
+      <c r="F38">
+        <v>0.7240117855062778</v>
+      </c>
+      <c r="G38">
+        <v>0.8750763187241302</v>
+      </c>
+      <c r="H38">
+        <v>1.357542234589808</v>
+      </c>
+      <c r="I38">
+        <v>2.158029257426955</v>
+      </c>
+      <c r="J38">
+        <v>0.8636008274638743</v>
+      </c>
+      <c r="K38">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="L38">
+        <v>2.158029257426955</v>
+      </c>
+      <c r="M38">
+        <v>0.4534650291764976</v>
+      </c>
+      <c r="N38">
+        <v>0.4534650291766862</v>
+      </c>
+      <c r="O38">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="P38">
+        <v>1.637900170983946</v>
+      </c>
+      <c r="Q38">
+        <v>1.105181373873195</v>
+      </c>
+      <c r="R38">
+        <v>1.243088457048193</v>
+      </c>
+      <c r="S38">
+        <v>1.456130668391115</v>
+      </c>
+      <c r="T38">
+        <v>1.243088457048193</v>
+      </c>
+      <c r="U38">
+        <v>1.205464258587508</v>
+      </c>
+      <c r="V38">
+        <v>1.055064412705344</v>
+      </c>
+      <c r="W38">
+        <v>1.080261025079265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.3881501515463838</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.3881501515463838</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.599030353867244</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.706021332785599</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.524042502800106</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.182052883820074</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.163138098782353</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.7551448073723469</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.591390138497335</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.163138098782353</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.3881501515462923</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.3881501515463838</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.591390138497335</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.8772641186398441</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.595210246182289</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.7142261296086906</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.117852863715644</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.7142261296086906</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9354271856733289</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.8259717788479399</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9886212836839302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.009639616000214</v>
+      </c>
+      <c r="D40">
+        <v>1.009639616000214</v>
+      </c>
+      <c r="E40">
+        <v>0.8981179679415715</v>
+      </c>
+      <c r="F40">
+        <v>1.092101066123345</v>
+      </c>
+      <c r="G40">
+        <v>0.9149610484736869</v>
+      </c>
+      <c r="H40">
+        <v>0.8254758749978008</v>
+      </c>
+      <c r="I40">
+        <v>1.012508668901216</v>
+      </c>
+      <c r="J40">
+        <v>1.023016274513998</v>
+      </c>
+      <c r="K40">
+        <v>2.378768599492833</v>
+      </c>
+      <c r="L40">
+        <v>1.012508668901216</v>
+      </c>
+      <c r="M40">
+        <v>1.009639616000105</v>
+      </c>
+      <c r="N40">
+        <v>1.009639616000214</v>
+      </c>
+      <c r="O40">
+        <v>2.378768599492833</v>
+      </c>
+      <c r="P40">
+        <v>1.695638634197024</v>
+      </c>
+      <c r="Q40">
+        <v>1.638443283717202</v>
+      </c>
+      <c r="R40">
+        <v>1.466972294798087</v>
+      </c>
+      <c r="S40">
+        <v>1.429798412111873</v>
+      </c>
+      <c r="T40">
+        <v>1.466972294798087</v>
+      </c>
+      <c r="U40">
+        <v>1.324758713083958</v>
+      </c>
+      <c r="V40">
+        <v>1.261734893667209</v>
+      </c>
+      <c r="W40">
+        <v>1.144323639555583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.71518024956201</v>
+      </c>
+      <c r="D41">
+        <v>1.71518024956201</v>
+      </c>
+      <c r="E41">
+        <v>0.9895531580348333</v>
+      </c>
+      <c r="F41">
+        <v>1.212007339291287</v>
+      </c>
+      <c r="G41">
+        <v>1.201567450959985</v>
+      </c>
+      <c r="H41">
+        <v>0.5841559603547846</v>
+      </c>
+      <c r="I41">
+        <v>0.5354042508374363</v>
+      </c>
+      <c r="J41">
+        <v>0.9684093515203323</v>
+      </c>
+      <c r="K41">
+        <v>1.101536519739096</v>
+      </c>
+      <c r="L41">
+        <v>0.5354042508374363</v>
+      </c>
+      <c r="M41">
+        <v>1.715180249561845</v>
+      </c>
+      <c r="N41">
+        <v>1.71518024956201</v>
+      </c>
+      <c r="O41">
+        <v>1.101536519739096</v>
+      </c>
+      <c r="P41">
+        <v>0.818470385288266</v>
+      </c>
+      <c r="Q41">
+        <v>1.045544838886965</v>
+      </c>
+      <c r="R41">
+        <v>1.117373673379514</v>
+      </c>
+      <c r="S41">
+        <v>0.8754979762037886</v>
+      </c>
+      <c r="T41">
+        <v>1.117373673379514</v>
+      </c>
+      <c r="U41">
+        <v>1.085418544543344</v>
+      </c>
+      <c r="V41">
+        <v>1.211370885547077</v>
+      </c>
+      <c r="W41">
+        <v>1.038476785037471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.790187688218549</v>
+      </c>
+      <c r="D42">
+        <v>1.790187688218549</v>
+      </c>
+      <c r="E42">
+        <v>0.6953902569790812</v>
+      </c>
+      <c r="F42">
+        <v>1.972570699589443</v>
+      </c>
+      <c r="G42">
+        <v>0.9804379942192066</v>
+      </c>
+      <c r="H42">
+        <v>0.6576735352213489</v>
+      </c>
+      <c r="I42">
+        <v>0.6553062115422673</v>
+      </c>
+      <c r="J42">
+        <v>0.6237408468605043</v>
+      </c>
+      <c r="K42">
+        <v>2.164551619299541</v>
+      </c>
+      <c r="L42">
+        <v>0.6553062115422673</v>
+      </c>
+      <c r="M42">
+        <v>1.790187688218462</v>
+      </c>
+      <c r="N42">
+        <v>1.790187688218549</v>
+      </c>
+      <c r="O42">
+        <v>2.164551619299541</v>
+      </c>
+      <c r="P42">
+        <v>1.409928915420904</v>
+      </c>
+      <c r="Q42">
+        <v>1.429970938139311</v>
+      </c>
+      <c r="R42">
+        <v>1.536681839686786</v>
+      </c>
+      <c r="S42">
+        <v>1.171749362606963</v>
+      </c>
+      <c r="T42">
+        <v>1.536681839686786</v>
+      </c>
+      <c r="U42">
+        <v>1.32635894400986</v>
+      </c>
+      <c r="V42">
+        <v>1.419124692851597</v>
+      </c>
+      <c r="W42">
+        <v>1.192482356491243</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.569254074824068</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="D3">
-        <v>1.430420888209043</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="E3">
-        <v>1.345159600979164</v>
+        <v>1.051948274823596</v>
       </c>
       <c r="F3">
-        <v>1.569254074824068</v>
+        <v>1.005365440561854</v>
       </c>
       <c r="G3">
-        <v>1.190594874526949</v>
+        <v>1.037489788170774</v>
       </c>
       <c r="H3">
-        <v>1.097763535159608</v>
+        <v>1.035807208106861</v>
       </c>
       <c r="I3">
-        <v>1.569254074823952</v>
+        <v>1.20659613688094</v>
       </c>
       <c r="J3">
-        <v>1.430420888209043</v>
+        <v>1.026278289915308</v>
       </c>
       <c r="K3">
-        <v>0.9396144713188646</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="L3">
-        <v>1.156904908299804</v>
+        <v>1.20659613688094</v>
       </c>
       <c r="M3">
-        <v>1.148090686453917</v>
+        <v>1.092875682578999</v>
       </c>
       <c r="N3">
-        <v>1.569254074824068</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="O3">
-        <v>1.345159600979164</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="P3">
-        <v>1.387790244594103</v>
+        <v>1.218523760725051</v>
       </c>
       <c r="Q3">
-        <v>1.267877237753057</v>
+        <v>1.141199829696379</v>
       </c>
       <c r="R3">
-        <v>1.448278188004092</v>
+        <v>1.176641068009742</v>
       </c>
       <c r="S3">
-        <v>1.322058454571719</v>
+        <v>1.162998598757899</v>
       </c>
       <c r="T3">
-        <v>1.448278188004092</v>
+        <v>1.176641068009742</v>
       </c>
       <c r="U3">
-        <v>1.383857359634806</v>
+        <v>1.145467869713205</v>
       </c>
       <c r="V3">
-        <v>1.420936702672658</v>
+        <v>1.134949432286388</v>
       </c>
       <c r="W3">
-        <v>1.234725379971427</v>
+        <v>1.085851525700952</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.502563244388664</v>
+        <v>1.009639616000214</v>
       </c>
       <c r="D4">
-        <v>1.737050942784302</v>
+        <v>1.009639616000214</v>
       </c>
       <c r="E4">
-        <v>1.334292287912513</v>
+        <v>0.8981179679415715</v>
       </c>
       <c r="F4">
-        <v>2.502563244388664</v>
+        <v>1.092101066123345</v>
       </c>
       <c r="G4">
-        <v>1.422482169259989</v>
+        <v>0.9149610484736869</v>
       </c>
       <c r="H4">
-        <v>1.397293827631666</v>
+        <v>0.8254758749978008</v>
       </c>
       <c r="I4">
-        <v>2.502563244388496</v>
+        <v>1.012508668901216</v>
       </c>
       <c r="J4">
-        <v>1.737050942784302</v>
+        <v>1.023016274513998</v>
       </c>
       <c r="K4">
-        <v>0.8516177735610253</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="L4">
-        <v>1.312414567097076</v>
+        <v>1.012508668901216</v>
       </c>
       <c r="M4">
-        <v>1.457926327561351</v>
+        <v>1.009639616000105</v>
       </c>
       <c r="N4">
-        <v>2.502563244388664</v>
+        <v>1.009639616000214</v>
       </c>
       <c r="O4">
-        <v>1.334292287912513</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="P4">
-        <v>1.535671615348408</v>
+        <v>1.695638634197024</v>
       </c>
       <c r="Q4">
-        <v>1.378387228586251</v>
+        <v>1.638443283717202</v>
       </c>
       <c r="R4">
-        <v>1.857968825028493</v>
+        <v>1.466972294798087</v>
       </c>
       <c r="S4">
-        <v>1.497941799985601</v>
+        <v>1.429798412111873</v>
       </c>
       <c r="T4">
-        <v>1.857968825028493</v>
+        <v>1.466972294798087</v>
       </c>
       <c r="U4">
-        <v>1.749097161086367</v>
+        <v>1.324758713083958</v>
       </c>
       <c r="V4">
-        <v>1.899790377746826</v>
+        <v>1.261734893667209</v>
       </c>
       <c r="W4">
-        <v>1.501955142524573</v>
+        <v>1.144323639555583</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9767920905391435</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="D5">
-        <v>3.825208956509219</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="E5">
-        <v>2.980036563290933</v>
+        <v>0.9868352454561917</v>
       </c>
       <c r="F5">
-        <v>0.9767920905391435</v>
+        <v>1.139980691553699</v>
       </c>
       <c r="G5">
-        <v>0.6422145294582499</v>
+        <v>1.01307189253619</v>
       </c>
       <c r="H5">
-        <v>1.604557583294666</v>
+        <v>0.9485429945670607</v>
       </c>
       <c r="I5">
-        <v>0.9767920905391435</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="J5">
-        <v>3.825208956509219</v>
+        <v>0.8890695506926936</v>
       </c>
       <c r="K5">
-        <v>0.406170528368534</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="L5">
-        <v>1.535580148296976</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="M5">
-        <v>1.650599701846003</v>
+        <v>1.315797018859766</v>
       </c>
       <c r="N5">
-        <v>0.9767920905391435</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="O5">
-        <v>2.980036563290933</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="P5">
-        <v>3.402622759900076</v>
+        <v>4.37703846855493</v>
       </c>
       <c r="Q5">
-        <v>1.811125546374591</v>
+        <v>4.27251912628737</v>
       </c>
       <c r="R5">
-        <v>2.594012536779765</v>
+        <v>3.356624651989903</v>
       </c>
       <c r="S5">
-        <v>2.482486683086134</v>
+        <v>3.246970727522017</v>
       </c>
       <c r="T5">
-        <v>2.594012536779765</v>
+        <v>3.356624651989903</v>
       </c>
       <c r="U5">
-        <v>2.106063034949386</v>
+        <v>2.764177300356475</v>
       </c>
       <c r="V5">
-        <v>1.880208846067338</v>
+        <v>2.47450124405715</v>
       </c>
       <c r="W5">
-        <v>1.702645012700466</v>
+        <v>1.880921791346943</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.916230768269628</v>
+        <v>0.6602454914644297</v>
       </c>
       <c r="D6">
-        <v>10.54317485541254</v>
+        <v>0.6602454914644297</v>
       </c>
       <c r="E6">
-        <v>6.245326203686531</v>
+        <v>0.4391695651277662</v>
       </c>
       <c r="F6">
-        <v>0.916230768269628</v>
+        <v>0.5407920875013938</v>
       </c>
       <c r="G6">
-        <v>1.955936000441994</v>
+        <v>0.4435040455173282</v>
       </c>
       <c r="H6">
-        <v>2.915564759556362</v>
+        <v>0.4745863008851787</v>
       </c>
       <c r="I6">
-        <v>0.916230768269628</v>
+        <v>0.4532072119093449</v>
       </c>
       <c r="J6">
-        <v>10.54317485541254</v>
+        <v>0.4323049017518667</v>
       </c>
       <c r="K6">
-        <v>0.02890935085211756</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="L6">
-        <v>0.2062785864384515</v>
+        <v>0.4532072119093449</v>
       </c>
       <c r="M6">
-        <v>3.829194954547355</v>
+        <v>0.6602454914643945</v>
       </c>
       <c r="N6">
-        <v>0.916230768269628</v>
+        <v>0.6602454914644297</v>
       </c>
       <c r="O6">
-        <v>6.245326203686531</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="P6">
-        <v>8.394250529549534</v>
+        <v>31.60581550320492</v>
       </c>
       <c r="Q6">
-        <v>4.100631102064263</v>
+        <v>31.59879667981413</v>
       </c>
       <c r="R6">
-        <v>5.901577275789566</v>
+        <v>21.29062549929142</v>
       </c>
       <c r="S6">
-        <v>6.248145686513688</v>
+        <v>21.21693352384586</v>
       </c>
       <c r="T6">
-        <v>5.901577275789566</v>
+        <v>21.29062549929142</v>
       </c>
       <c r="U6">
-        <v>4.915166956952673</v>
+        <v>16.07776151575051</v>
       </c>
       <c r="V6">
-        <v>4.115379719216063</v>
+        <v>12.99425831089329</v>
       </c>
       <c r="W6">
-        <v>3.330076934900622</v>
+        <v>8.275279174832225</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.075870391784044</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="D7">
-        <v>1.121927668444941</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="E7">
-        <v>1.138255489078458</v>
+        <v>1.147649304949285</v>
       </c>
       <c r="F7">
-        <v>1.075870391784044</v>
+        <v>1.165794870404734</v>
       </c>
       <c r="G7">
-        <v>1.049768610134818</v>
+        <v>1.154589893974013</v>
       </c>
       <c r="H7">
-        <v>1.013556778178852</v>
+        <v>1.147918889679755</v>
       </c>
       <c r="I7">
-        <v>1.075870391783918</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="J7">
-        <v>1.121927668444941</v>
+        <v>0.9796258803347943</v>
       </c>
       <c r="K7">
-        <v>1.007891921242883</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="L7">
-        <v>1.048918389728348</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="M7">
-        <v>1.017886430588551</v>
+        <v>1.736394243543242</v>
       </c>
       <c r="N7">
-        <v>1.075870391784044</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="O7">
-        <v>1.138255489078458</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="P7">
-        <v>1.1300915787617</v>
+        <v>1.29090980470136</v>
       </c>
       <c r="Q7">
-        <v>1.094012049606638</v>
+        <v>1.205647354107789</v>
       </c>
       <c r="R7">
-        <v>1.112017849769148</v>
+        <v>1.439404617648693</v>
       </c>
       <c r="S7">
-        <v>1.103317255886072</v>
+        <v>1.243156304784002</v>
       </c>
       <c r="T7">
-        <v>1.112017849769148</v>
+        <v>1.439404617648693</v>
       </c>
       <c r="U7">
-        <v>1.096455539860565</v>
+        <v>1.366465789473841</v>
       </c>
       <c r="V7">
-        <v>1.092338510245261</v>
+        <v>1.440451480287745</v>
       </c>
       <c r="W7">
-        <v>1.059259459897612</v>
+        <v>1.239224086536083</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.092875682579118</v>
+        <v>1.253375835565662</v>
       </c>
       <c r="D8">
-        <v>1.20659613688094</v>
+        <v>1.253375835565662</v>
       </c>
       <c r="E8">
-        <v>1.230451384569142</v>
+        <v>0.9516262303654709</v>
       </c>
       <c r="F8">
-        <v>1.092875682579118</v>
+        <v>1.078712803721037</v>
       </c>
       <c r="G8">
-        <v>1.051948274823593</v>
+        <v>0.9741665222393703</v>
       </c>
       <c r="H8">
-        <v>1.005365440561852</v>
+        <v>1.093293488806311</v>
       </c>
       <c r="I8">
-        <v>1.092875682578995</v>
+        <v>1.25457928082467</v>
       </c>
       <c r="J8">
-        <v>1.20659613688094</v>
+        <v>1.00854562283096</v>
       </c>
       <c r="K8">
-        <v>1.026278289915308</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="L8">
-        <v>1.037489788170774</v>
+        <v>1.25457928082467</v>
       </c>
       <c r="M8">
-        <v>1.035807208106861</v>
+        <v>1.253375835565545</v>
       </c>
       <c r="N8">
-        <v>1.092875682579118</v>
+        <v>1.253375835565662</v>
       </c>
       <c r="O8">
-        <v>1.230451384569142</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="P8">
-        <v>1.218523760725041</v>
+        <v>1.120412831401814</v>
       </c>
       <c r="Q8">
-        <v>1.141199829696367</v>
+        <v>0.9689363061722146</v>
       </c>
       <c r="R8">
-        <v>1.176641068009734</v>
+        <v>1.164733832789764</v>
       </c>
       <c r="S8">
-        <v>1.162998598757892</v>
+        <v>1.064150631056366</v>
       </c>
       <c r="T8">
-        <v>1.176641068009733</v>
+        <v>1.164733832789764</v>
       </c>
       <c r="U8">
-        <v>1.145467869713198</v>
+        <v>1.11145693218369</v>
       </c>
       <c r="V8">
-        <v>1.134949432286382</v>
+        <v>1.139840712860085</v>
       </c>
       <c r="W8">
-        <v>1.085851525700948</v>
+        <v>1.075068270791555</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9480340125754586</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="D9">
-        <v>1.623599917825078</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="E9">
-        <v>1.184102069801898</v>
+        <v>1.422482169259989</v>
       </c>
       <c r="F9">
-        <v>0.9480340125754586</v>
+        <v>1.397293827631666</v>
       </c>
       <c r="G9">
-        <v>1.021807021178645</v>
+        <v>1.312414567097076</v>
       </c>
       <c r="H9">
-        <v>1.025587645227663</v>
+        <v>1.457926327561351</v>
       </c>
       <c r="I9">
-        <v>0.9480340125753356</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="J9">
-        <v>1.623599917825078</v>
+        <v>0.8516177735610253</v>
       </c>
       <c r="K9">
-        <v>0.9251168899793074</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="L9">
-        <v>0.9587407428452084</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="M9">
-        <v>1.191966941666522</v>
+        <v>2.502563244388496</v>
       </c>
       <c r="N9">
-        <v>0.9480340125754586</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="O9">
-        <v>1.184102069801898</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="P9">
-        <v>1.403850993813488</v>
+        <v>1.535671615348408</v>
       </c>
       <c r="Q9">
-        <v>1.102954545490272</v>
+        <v>1.378387228586251</v>
       </c>
       <c r="R9">
-        <v>1.251912000067478</v>
+        <v>1.857968825028493</v>
       </c>
       <c r="S9">
-        <v>1.276503002935207</v>
+        <v>1.497941799985601</v>
       </c>
       <c r="T9">
-        <v>1.251912000067478</v>
+        <v>1.857968825028493</v>
       </c>
       <c r="U9">
-        <v>1.19438575534527</v>
+        <v>1.749097161086367</v>
       </c>
       <c r="V9">
-        <v>1.145115406791308</v>
+        <v>1.899790377746826</v>
       </c>
       <c r="W9">
-        <v>1.109869405137473</v>
+        <v>1.501955142524573</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6487610034163217</v>
+        <v>0.4501427105209644</v>
       </c>
       <c r="D10">
-        <v>1.734882559392015</v>
+        <v>0.4501427105209644</v>
       </c>
       <c r="E10">
-        <v>1.806087314186836</v>
+        <v>0.3065032449582566</v>
       </c>
       <c r="F10">
-        <v>0.6487610034163217</v>
+        <v>0.581013453752772</v>
       </c>
       <c r="G10">
-        <v>0.9588686294931539</v>
+        <v>0.4336647048615254</v>
       </c>
       <c r="H10">
-        <v>0.9785029172411192</v>
+        <v>0.4489895904126015</v>
       </c>
       <c r="I10">
-        <v>0.6487610034162042</v>
+        <v>0.4650904938513307</v>
       </c>
       <c r="J10">
-        <v>1.734882559392015</v>
+        <v>0.4642399907752839</v>
       </c>
       <c r="K10">
-        <v>1.041972989419059</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="L10">
-        <v>0.7854421696340089</v>
+        <v>0.4650904938513307</v>
       </c>
       <c r="M10">
-        <v>0.8305119519751839</v>
+        <v>0.4501427105209444</v>
       </c>
       <c r="N10">
-        <v>0.6487610034163217</v>
+        <v>0.4501427105209644</v>
       </c>
       <c r="O10">
-        <v>1.806087314186836</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="P10">
-        <v>1.770484936789426</v>
+        <v>32.02494944280089</v>
       </c>
       <c r="Q10">
-        <v>1.382477971839995</v>
+        <v>31.94565581835435</v>
       </c>
       <c r="R10">
-        <v>1.396576958998391</v>
+        <v>21.50001386537425</v>
       </c>
       <c r="S10">
-        <v>1.499946167690669</v>
+        <v>21.45213404352001</v>
       </c>
       <c r="T10">
-        <v>1.396576958998391</v>
+        <v>21.50001386537425</v>
       </c>
       <c r="U10">
-        <v>1.287149876622081</v>
+        <v>16.20163621027025</v>
       </c>
       <c r="V10">
-        <v>1.15947210198093</v>
+        <v>13.05133751032039</v>
       </c>
       <c r="W10">
-        <v>1.098128691844712</v>
+        <v>8.341806572610398</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.045622785961996</v>
+        <v>1.488447715844619</v>
       </c>
       <c r="D11">
-        <v>3.202567282303995</v>
+        <v>1.488447715844619</v>
       </c>
       <c r="E11">
-        <v>2.661343158584538</v>
+        <v>0.9065920333045342</v>
       </c>
       <c r="F11">
-        <v>1.045622785961996</v>
+        <v>1.451221215223808</v>
       </c>
       <c r="G11">
-        <v>0.741201318544677</v>
+        <v>1.120381197536326</v>
       </c>
       <c r="H11">
-        <v>0.7727572100937128</v>
+        <v>0.4073919239872749</v>
       </c>
       <c r="I11">
-        <v>1.045622785961668</v>
+        <v>0.3407748917778118</v>
       </c>
       <c r="J11">
-        <v>3.202567282303995</v>
+        <v>0.7309951674538929</v>
       </c>
       <c r="K11">
-        <v>0.9121158939794206</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="L11">
-        <v>1.080867209023135</v>
+        <v>0.3407748917778118</v>
       </c>
       <c r="M11">
-        <v>1.438329398343198</v>
+        <v>1.488447715844473</v>
       </c>
       <c r="N11">
-        <v>1.045622785961996</v>
+        <v>1.488447715844619</v>
       </c>
       <c r="O11">
-        <v>2.661343158584538</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="P11">
-        <v>2.931955220444267</v>
+        <v>1.38304328817269</v>
       </c>
       <c r="Q11">
-        <v>1.701272238564608</v>
+        <v>1.665951858936052</v>
       </c>
       <c r="R11">
-        <v>2.30317774228351</v>
+        <v>1.418178097396667</v>
       </c>
       <c r="S11">
-        <v>2.20170391981107</v>
+        <v>1.224226203216638</v>
       </c>
       <c r="T11">
-        <v>2.30317774228351</v>
+        <v>1.418178097396667</v>
       </c>
       <c r="U11">
-        <v>1.912683636348802</v>
+        <v>1.290281581373633</v>
       </c>
       <c r="V11">
-        <v>1.73927146627144</v>
+        <v>1.32991480826783</v>
       </c>
       <c r="W11">
-        <v>1.481850532104334</v>
+        <v>1.108889478711979</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.002882229086911449</v>
+        <v>1.010517179464662</v>
       </c>
       <c r="D12">
-        <v>0.004554680423049942</v>
+        <v>1.010517179464662</v>
       </c>
       <c r="E12">
-        <v>-0.0003421703317369174</v>
+        <v>0.5926432303111876</v>
       </c>
       <c r="F12">
-        <v>-0.002882229086911449</v>
+        <v>1.080847432663996</v>
       </c>
       <c r="G12">
-        <v>0.3174879408921403</v>
+        <v>0.8724314012209687</v>
       </c>
       <c r="H12">
-        <v>0.07390081599865031</v>
+        <v>0.856215010424862</v>
       </c>
       <c r="I12">
-        <v>-0.002882229086911449</v>
+        <v>0.8664458556564376</v>
       </c>
       <c r="J12">
-        <v>0.004554680423049942</v>
+        <v>0.8354591915855841</v>
       </c>
       <c r="K12">
-        <v>0.5969373541486542</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="L12">
-        <v>0.5690785811988034</v>
+        <v>0.8664458556564376</v>
       </c>
       <c r="M12">
-        <v>2.0612227090139</v>
+        <v>1.010517179464625</v>
       </c>
       <c r="N12">
-        <v>-0.002882229086911449</v>
+        <v>1.010517179464662</v>
       </c>
       <c r="O12">
-        <v>-0.0003421703317369174</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="P12">
-        <v>0.002106255045656512</v>
+        <v>5.782604965728546</v>
       </c>
       <c r="Q12">
-        <v>0.1585728852802017</v>
+        <v>5.645703653055921</v>
       </c>
       <c r="R12">
-        <v>0.0004434270014671915</v>
+        <v>4.191909036973918</v>
       </c>
       <c r="S12">
-        <v>0.1072334836611511</v>
+        <v>4.052617720589427</v>
       </c>
       <c r="T12">
-        <v>0.0004434270014671916</v>
+        <v>4.191909036973918</v>
       </c>
       <c r="U12">
-        <v>0.07970455547413546</v>
+        <v>3.292092585308235</v>
       </c>
       <c r="V12">
-        <v>0.06318719856192609</v>
+        <v>2.835777504139521</v>
       </c>
       <c r="W12">
-        <v>0.4524947102820688</v>
+        <v>2.101665422141044</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.784812425470853</v>
+        <v>1.206369770785365</v>
       </c>
       <c r="D13">
-        <v>1.697035567127595</v>
+        <v>1.206369770785365</v>
       </c>
       <c r="E13">
-        <v>3.949016081697426</v>
+        <v>0.6574738080779624</v>
       </c>
       <c r="F13">
-        <v>5.784812425470853</v>
+        <v>1.023681671115104</v>
       </c>
       <c r="G13">
-        <v>0.008181816750942698</v>
+        <v>1.083962116746334</v>
       </c>
       <c r="H13">
-        <v>1.633799916538933</v>
+        <v>1.127405961358029</v>
       </c>
       <c r="I13">
-        <v>5.784812425470853</v>
+        <v>1.572793481629805</v>
       </c>
       <c r="J13">
-        <v>1.697035567127595</v>
+        <v>1.017172685207827</v>
       </c>
       <c r="K13">
-        <v>1.796730815926712</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="L13">
-        <v>-0.0002601929223607341</v>
+        <v>1.572793481629805</v>
       </c>
       <c r="M13">
-        <v>0.3118080961541104</v>
+        <v>1.206369770785295</v>
       </c>
       <c r="N13">
-        <v>5.784812425470853</v>
+        <v>1.206369770785365</v>
       </c>
       <c r="O13">
-        <v>3.949016081697426</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="P13">
-        <v>2.823025824412511</v>
+        <v>1.505926788810827</v>
       </c>
       <c r="Q13">
-        <v>1.978598949224185</v>
+        <v>1.048266952034905</v>
       </c>
       <c r="R13">
-        <v>3.810288024765291</v>
+        <v>1.406074449469006</v>
       </c>
       <c r="S13">
-        <v>1.884744488525321</v>
+        <v>1.223109128566539</v>
       </c>
       <c r="T13">
-        <v>3.810288024765291</v>
+        <v>1.406074449469006</v>
       </c>
       <c r="U13">
-        <v>2.859761472761704</v>
+        <v>1.218924289121245</v>
       </c>
       <c r="V13">
-        <v>3.444771663303534</v>
+        <v>1.216413385454069</v>
       </c>
       <c r="W13">
-        <v>1.897640565843026</v>
+        <v>1.140989948864034</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0006168176677112143</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="D14">
-        <v>11.32531120823989</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="E14">
-        <v>-0.0003899418825473288</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="F14">
-        <v>0.0006168176677112143</v>
+        <v>0.02555648000000004</v>
       </c>
       <c r="G14">
-        <v>0.06866149054760606</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="H14">
-        <v>-0.0009557861317237549</v>
+        <v>-0.0009139994799999984</v>
       </c>
       <c r="I14">
-        <v>0.0006168176677112143</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="J14">
-        <v>11.32531120823989</v>
+        <v>-0.004903900600000006</v>
       </c>
       <c r="K14">
-        <v>1.439133910944592</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="L14">
-        <v>-0.0005623933642230907</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="M14">
-        <v>7.741689186148491</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="N14">
-        <v>0.0006168176677112143</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="O14">
-        <v>-0.0003899418825473288</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="P14">
-        <v>5.662460633178672</v>
+        <v>60.57110950421506</v>
       </c>
       <c r="Q14">
-        <v>0.03413577433252937</v>
+        <v>60.56829094960006</v>
       </c>
       <c r="R14">
-        <v>3.775179361341685</v>
+        <v>40.38416722681004</v>
       </c>
       <c r="S14">
-        <v>3.797860918968317</v>
+        <v>40.37909696921004</v>
       </c>
       <c r="T14">
-        <v>3.775179361341685</v>
+        <v>40.38416722681004</v>
       </c>
       <c r="U14">
-        <v>2.848549893643165</v>
+        <v>30.28689339490753</v>
       </c>
       <c r="V14">
-        <v>2.278963278448074</v>
+        <v>24.23157125032602</v>
       </c>
       <c r="W14">
-        <v>2.571688061521225</v>
+        <v>15.14438390044377</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0009909289670925149</v>
+        <v>0.011910205</v>
       </c>
       <c r="D15">
-        <v>-0.002695329012334536</v>
+        <v>0.011910205</v>
       </c>
       <c r="E15">
-        <v>0.03481782273777063</v>
+        <v>0.0017171891</v>
       </c>
       <c r="F15">
-        <v>-0.0009909289670925149</v>
+        <v>-0.014236966</v>
       </c>
       <c r="G15">
-        <v>0.2739816353510962</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="H15">
-        <v>-0.0005302232391500136</v>
+        <v>-0.012481473</v>
       </c>
       <c r="I15">
-        <v>-0.0009909289675504515</v>
+        <v>242.27911</v>
       </c>
       <c r="J15">
-        <v>-0.002695329012334536</v>
+        <v>-0.0079125655</v>
       </c>
       <c r="K15">
-        <v>2.42890897827902</v>
+        <v>0.00070900843</v>
       </c>
       <c r="L15">
-        <v>1.60972298834738</v>
+        <v>242.27911</v>
       </c>
       <c r="M15">
-        <v>1.898776812336923</v>
+        <v>0.011910205</v>
       </c>
       <c r="N15">
-        <v>-0.0009909289670925149</v>
+        <v>0.011910205</v>
       </c>
       <c r="O15">
-        <v>0.03481782273777063</v>
+        <v>0.00070900843</v>
       </c>
       <c r="P15">
-        <v>0.01606124686271805</v>
+        <v>121.139909504215</v>
       </c>
       <c r="Q15">
-        <v>0.1543997290444334</v>
+        <v>0.001213098765</v>
       </c>
       <c r="R15">
-        <v>0.01037718825278119</v>
+        <v>80.76390973781</v>
       </c>
       <c r="S15">
-        <v>0.1020347096921774</v>
+        <v>80.76051206584333</v>
       </c>
       <c r="T15">
-        <v>0.01037718825278119</v>
+        <v>80.76390973781</v>
       </c>
       <c r="U15">
-        <v>0.07627830002735994</v>
+        <v>60.5733616006325</v>
       </c>
       <c r="V15">
-        <v>0.06082445422846945</v>
+        <v>48.461071321506</v>
       </c>
       <c r="W15">
-        <v>0.7802489694792015</v>
+        <v>30.28222973615375</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.039934218879059</v>
+        <v>0.010282672</v>
       </c>
       <c r="D16">
-        <v>1.024851449846393</v>
+        <v>0.010282672</v>
       </c>
       <c r="E16">
-        <v>1.129647210132084</v>
+        <v>-0.0049281008</v>
       </c>
       <c r="F16">
-        <v>1.039934218879059</v>
+        <v>0.02555648</v>
       </c>
       <c r="G16">
-        <v>1.101588897806048</v>
+        <v>-0.012240956</v>
       </c>
       <c r="H16">
-        <v>1.002832159501204</v>
+        <v>-0.0009139994799999999</v>
       </c>
       <c r="I16">
-        <v>1.039934218878933</v>
+        <v>0.00070900843</v>
       </c>
       <c r="J16">
-        <v>1.024851449846393</v>
+        <v>-0.0049039006</v>
       </c>
       <c r="K16">
-        <v>1.017869204692471</v>
+        <v>121.14151</v>
       </c>
       <c r="L16">
-        <v>1.08923183423657</v>
+        <v>0.00070900843</v>
       </c>
       <c r="M16">
-        <v>1.015448092719864</v>
+        <v>0.010282672</v>
       </c>
       <c r="N16">
-        <v>1.039934218879059</v>
+        <v>0.010282672</v>
       </c>
       <c r="O16">
-        <v>1.129647210132084</v>
+        <v>121.14151</v>
       </c>
       <c r="P16">
-        <v>1.077249329989239</v>
+        <v>60.57110950421499</v>
       </c>
       <c r="Q16">
-        <v>1.115618053969066</v>
+        <v>60.5682909496</v>
       </c>
       <c r="R16">
-        <v>1.064810959619179</v>
+        <v>40.38416722681</v>
       </c>
       <c r="S16">
-        <v>1.085362519261508</v>
+        <v>40.37909696921</v>
       </c>
       <c r="T16">
-        <v>1.064810959619179</v>
+        <v>40.38416722681</v>
       </c>
       <c r="U16">
-        <v>1.074005444165896</v>
+        <v>30.2868933949075</v>
       </c>
       <c r="V16">
-        <v>1.067191199108529</v>
+        <v>24.231571250326</v>
       </c>
       <c r="W16">
-        <v>1.052675383476712</v>
+        <v>15.14438390044375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.253375835565659</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="D17">
-        <v>1.254579280824669</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="E17">
-        <v>0.9862463819789551</v>
+        <v>0.0041278775</v>
       </c>
       <c r="F17">
-        <v>1.253375835565659</v>
+        <v>0.0080223771</v>
       </c>
       <c r="G17">
-        <v>0.9516262303654685</v>
+        <v>-0.011459315</v>
       </c>
       <c r="H17">
-        <v>1.078712803721037</v>
+        <v>-0.016048725</v>
       </c>
       <c r="I17">
-        <v>1.253375835565542</v>
+        <v>-0.030092917</v>
       </c>
       <c r="J17">
-        <v>1.254579280824669</v>
+        <v>-0.028404277</v>
       </c>
       <c r="K17">
-        <v>1.00854562283096</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="L17">
-        <v>0.9741665222393687</v>
+        <v>-0.030092917</v>
       </c>
       <c r="M17">
-        <v>1.093293488806311</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="N17">
-        <v>1.253375835565659</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="O17">
-        <v>0.9862463819789551</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="P17">
-        <v>1.120412831401812</v>
+        <v>-0.01646448865</v>
       </c>
       <c r="Q17">
-        <v>0.9689363061722118</v>
+        <v>0.0006459085999999999</v>
       </c>
       <c r="R17">
-        <v>1.164733832789761</v>
+        <v>-0.0127572295</v>
       </c>
       <c r="S17">
-        <v>1.064150631056364</v>
+        <v>-0.0096003666</v>
       </c>
       <c r="T17">
-        <v>1.164733832789761</v>
+        <v>-0.0127572295</v>
       </c>
       <c r="U17">
-        <v>1.111456932183688</v>
+        <v>-0.008535952749999999</v>
       </c>
       <c r="V17">
-        <v>1.139840712860082</v>
+        <v>-0.007897304439999999</v>
       </c>
       <c r="W17">
-        <v>1.075068270791554</v>
+        <v>-0.0102542188625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.453465029176684</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="D18">
-        <v>2.158029257426949</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="E18">
-        <v>1.117771084540931</v>
+        <v>3.725723849406852</v>
       </c>
       <c r="F18">
-        <v>0.453465029176684</v>
+        <v>3.426349561665754</v>
       </c>
       <c r="G18">
-        <v>1.092591663205448</v>
+        <v>3.723875504056985</v>
       </c>
       <c r="H18">
-        <v>0.7240117855062754</v>
+        <v>3.647010614121097</v>
       </c>
       <c r="I18">
-        <v>0.4534650291764953</v>
+        <v>10.78818887902</v>
       </c>
       <c r="J18">
-        <v>2.158029257426949</v>
+        <v>-0.001597393584931508</v>
       </c>
       <c r="K18">
-        <v>0.8636008274638766</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="L18">
-        <v>0.8750763187241264</v>
+        <v>10.78818887902</v>
       </c>
       <c r="M18">
-        <v>1.357542234589808</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="N18">
-        <v>0.453465029176684</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="O18">
-        <v>1.117771084540931</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="P18">
-        <v>1.63790017098394</v>
+        <v>7.261425621891438</v>
       </c>
       <c r="Q18">
-        <v>1.10518137387319</v>
+        <v>3.730193107084864</v>
       </c>
       <c r="R18">
-        <v>1.243088457048188</v>
+        <v>8.565978478195206</v>
       </c>
       <c r="S18">
-        <v>1.456130668391109</v>
+        <v>6.082858364396576</v>
       </c>
       <c r="T18">
-        <v>1.243088457048188</v>
+        <v>8.565978478195206</v>
       </c>
       <c r="U18">
-        <v>1.205464258587503</v>
+        <v>7.355914820998117</v>
       </c>
       <c r="V18">
-        <v>1.055064412705339</v>
+        <v>8.119748694959041</v>
       </c>
       <c r="W18">
-        <v>1.080261025079262</v>
+        <v>5.027412196281422</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3881501515463838</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="D19">
-        <v>0.163138098782353</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="E19">
-        <v>1.591390138497335</v>
+        <v>0.001574745657894737</v>
       </c>
       <c r="F19">
-        <v>0.3881501515463838</v>
+        <v>0.007089420968421055</v>
       </c>
       <c r="G19">
-        <v>1.599030353867244</v>
+        <v>0.00457095178</v>
       </c>
       <c r="H19">
-        <v>1.706021332785599</v>
+        <v>-0.002566120632631578</v>
       </c>
       <c r="I19">
-        <v>0.3881501515462923</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="J19">
-        <v>0.163138098782353</v>
+        <v>6.654865755542105</v>
       </c>
       <c r="K19">
-        <v>0.7551448073723469</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="L19">
-        <v>0.5240425028001061</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="M19">
-        <v>1.182052883820074</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="N19">
-        <v>0.3881501515463838</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="O19">
-        <v>1.591390138497335</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="P19">
-        <v>0.8772641186398441</v>
+        <v>13.95387009193132</v>
       </c>
       <c r="Q19">
-        <v>1.595210246182289</v>
+        <v>6.775949863079741</v>
       </c>
       <c r="R19">
-        <v>0.7142261296086906</v>
+        <v>9.305116118596318</v>
       </c>
       <c r="S19">
-        <v>1.117852863715644</v>
+        <v>9.303104976506845</v>
       </c>
       <c r="T19">
-        <v>0.7142261296086906</v>
+        <v>9.305116118596318</v>
       </c>
       <c r="U19">
-        <v>0.9354271856733289</v>
+        <v>6.979230775361713</v>
       </c>
       <c r="V19">
-        <v>0.8259717788479399</v>
+        <v>5.584906254674634</v>
       </c>
       <c r="W19">
-        <v>0.9886212836839302</v>
+        <v>4.322610388638092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="D20">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="E20">
+        <v>3.578548710449474</v>
+      </c>
+      <c r="F20">
+        <v>3.291584131521053</v>
+      </c>
+      <c r="G20">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="H20">
+        <v>3.502861386301053</v>
+      </c>
+      <c r="I20">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="J20">
+        <v>-0.001767501294736843</v>
+      </c>
+      <c r="K20">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="L20">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="M20">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="N20">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="O20">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="P20">
+        <v>10.16271314356211</v>
+      </c>
+      <c r="Q20">
+        <v>5.176866997567634</v>
+      </c>
+      <c r="R20">
+        <v>10.35327201446947</v>
+      </c>
+      <c r="S20">
+        <v>7.967991665857897</v>
+      </c>
+      <c r="T20">
+        <v>10.35327201446947</v>
+      </c>
+      <c r="U20">
+        <v>8.659591188464475</v>
+      </c>
+      <c r="V20">
+        <v>9.074550902028422</v>
+      </c>
+      <c r="W20">
+        <v>5.625948524547829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="D21">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="E21">
+        <v>0.06866149054760594</v>
+      </c>
+      <c r="F21">
+        <v>-0.0009557861317237541</v>
+      </c>
+      <c r="G21">
+        <v>-0.0005623933642230922</v>
+      </c>
+      <c r="H21">
+        <v>7.741689186148496</v>
+      </c>
+      <c r="I21">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="J21">
+        <v>1.439133910944589</v>
+      </c>
+      <c r="K21">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="L21">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="M21">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="N21">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="O21">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="P21">
+        <v>5.662460633178675</v>
+      </c>
+      <c r="Q21">
+        <v>0.0341357743325293</v>
+      </c>
+      <c r="R21">
+        <v>3.775179361341687</v>
+      </c>
+      <c r="S21">
+        <v>3.797860918968319</v>
+      </c>
+      <c r="T21">
+        <v>3.775179361341687</v>
+      </c>
+      <c r="U21">
+        <v>2.848549893643167</v>
+      </c>
+      <c r="V21">
+        <v>2.278963278448075</v>
+      </c>
+      <c r="W21">
+        <v>2.571688061521225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>-0.0009909289670925157</v>
+      </c>
+      <c r="D22">
+        <v>-0.0009909289670925157</v>
+      </c>
+      <c r="E22">
+        <v>0.2739816353510962</v>
+      </c>
+      <c r="F22">
+        <v>-0.000530223239150013</v>
+      </c>
+      <c r="G22">
+        <v>1.60972298834738</v>
+      </c>
+      <c r="H22">
+        <v>1.898776812336923</v>
+      </c>
+      <c r="I22">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="J22">
+        <v>2.428908978279019</v>
+      </c>
+      <c r="K22">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="L22">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="M22">
+        <v>-0.0009909289675504524</v>
+      </c>
+      <c r="N22">
+        <v>-0.0009909289670925157</v>
+      </c>
+      <c r="O22">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="P22">
+        <v>0.01606124686271805</v>
+      </c>
+      <c r="Q22">
+        <v>0.1543997290444334</v>
+      </c>
+      <c r="R22">
+        <v>0.01037718825278119</v>
+      </c>
+      <c r="S22">
+        <v>0.1020347096921774</v>
+      </c>
+      <c r="T22">
+        <v>0.01037718825278119</v>
+      </c>
+      <c r="U22">
+        <v>0.07627830002735994</v>
+      </c>
+      <c r="V22">
+        <v>0.06082445422846945</v>
+      </c>
+      <c r="W22">
+        <v>0.7802489694792015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="D23">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="E23">
+        <v>0.3174879408921404</v>
+      </c>
+      <c r="F23">
+        <v>0.07390081599865056</v>
+      </c>
+      <c r="G23">
+        <v>0.5690785811988043</v>
+      </c>
+      <c r="H23">
+        <v>2.0612227090139</v>
+      </c>
+      <c r="I23">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="J23">
+        <v>0.5969373541486533</v>
+      </c>
+      <c r="K23">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="L23">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="M23">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="N23">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="O23">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="P23">
+        <v>0.002106255045656514</v>
+      </c>
+      <c r="Q23">
+        <v>0.1585728852802017</v>
+      </c>
+      <c r="R23">
+        <v>0.0004434270014671931</v>
+      </c>
+      <c r="S23">
+        <v>0.1072334836611511</v>
+      </c>
+      <c r="T23">
+        <v>0.0004434270014671931</v>
+      </c>
+      <c r="U23">
+        <v>0.07970455547413549</v>
+      </c>
+      <c r="V23">
+        <v>0.0631871985619261</v>
+      </c>
+      <c r="W23">
+        <v>0.4524947102820687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="D24">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="E24">
+        <v>0.008181816750942709</v>
+      </c>
+      <c r="F24">
+        <v>1.63379991653893</v>
+      </c>
+      <c r="G24">
+        <v>-0.0002601929223607322</v>
+      </c>
+      <c r="H24">
+        <v>0.3118080961541104</v>
+      </c>
+      <c r="I24">
+        <v>1.697035567127595</v>
+      </c>
+      <c r="J24">
+        <v>1.796730815926714</v>
+      </c>
+      <c r="K24">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="L24">
+        <v>1.697035567127595</v>
+      </c>
+      <c r="M24">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="N24">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="O24">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="P24">
+        <v>2.823025824412512</v>
+      </c>
+      <c r="Q24">
+        <v>1.978598949224186</v>
+      </c>
+      <c r="R24">
+        <v>3.810288024765291</v>
+      </c>
+      <c r="S24">
+        <v>1.884744488525323</v>
+      </c>
+      <c r="T24">
+        <v>3.810288024765291</v>
+      </c>
+      <c r="U24">
+        <v>2.859761472761704</v>
+      </c>
+      <c r="V24">
+        <v>3.444771663303533</v>
+      </c>
+      <c r="W24">
+        <v>1.897640565843026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>-0.00560906227579368</v>
+      </c>
+      <c r="D25">
+        <v>-0.00560906227579368</v>
+      </c>
+      <c r="E25">
+        <v>0.001778640960911361</v>
+      </c>
+      <c r="F25">
+        <v>0.01818158072640773</v>
+      </c>
+      <c r="G25">
+        <v>0.217754540940984</v>
+      </c>
+      <c r="H25">
+        <v>-0.0007833081428472907</v>
+      </c>
+      <c r="I25">
+        <v>-0.001881162476360867</v>
+      </c>
+      <c r="J25">
+        <v>0.0004925427278030672</v>
+      </c>
+      <c r="K25">
+        <v>-0.0006148049061772198</v>
+      </c>
+      <c r="L25">
+        <v>-0.001881162476360867</v>
+      </c>
+      <c r="M25">
+        <v>-0.00560906227579368</v>
+      </c>
+      <c r="N25">
+        <v>-0.00560906227579368</v>
+      </c>
+      <c r="O25">
+        <v>-0.0006148049061772198</v>
+      </c>
+      <c r="P25">
+        <v>-0.001247983691269044</v>
+      </c>
+      <c r="Q25">
+        <v>0.0005819180273670705</v>
+      </c>
+      <c r="R25">
+        <v>-0.002701676552777256</v>
+      </c>
+      <c r="S25">
+        <v>-0.0002391088072089088</v>
+      </c>
+      <c r="T25">
+        <v>-0.002701676552777256</v>
+      </c>
+      <c r="U25">
+        <v>-0.001581597174355102</v>
+      </c>
+      <c r="V25">
+        <v>-0.002387090194642817</v>
+      </c>
+      <c r="W25">
+        <v>0.02866487094436588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.002781329987213234</v>
+      </c>
+      <c r="D26">
+        <v>0.002781329987213234</v>
+      </c>
+      <c r="E26">
+        <v>1.687911121886866</v>
+      </c>
+      <c r="F26">
+        <v>1.938100004883605</v>
+      </c>
+      <c r="G26">
+        <v>0.2195736007113997</v>
+      </c>
+      <c r="H26">
+        <v>-0.003363144876872138</v>
+      </c>
+      <c r="I26">
+        <v>-0.002980182134650026</v>
+      </c>
+      <c r="J26">
+        <v>-0.0002172261099951634</v>
+      </c>
+      <c r="K26">
+        <v>0.05920021582815128</v>
+      </c>
+      <c r="L26">
+        <v>-0.002980182134650026</v>
+      </c>
+      <c r="M26">
+        <v>0.002781329987225016</v>
+      </c>
+      <c r="N26">
+        <v>0.002781329987213234</v>
+      </c>
+      <c r="O26">
+        <v>0.05920021582815128</v>
+      </c>
+      <c r="P26">
+        <v>0.02811001684675063</v>
+      </c>
+      <c r="Q26">
+        <v>0.8735556688575088</v>
+      </c>
+      <c r="R26">
+        <v>0.01966712122690483</v>
+      </c>
+      <c r="S26">
+        <v>0.5813770518601226</v>
+      </c>
+      <c r="T26">
+        <v>0.01966712122690483</v>
+      </c>
+      <c r="U26">
+        <v>0.4367281213918952</v>
+      </c>
+      <c r="V26">
+        <v>0.3499387631109588</v>
+      </c>
+      <c r="W26">
+        <v>0.4876257150219648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="D27">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="E27">
+        <v>0.9942299886668338</v>
+      </c>
+      <c r="F27">
+        <v>9.336739492101396</v>
+      </c>
+      <c r="G27">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="H27">
+        <v>1.135270146396391</v>
+      </c>
+      <c r="I27">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="J27">
+        <v>5.359319407148962</v>
+      </c>
+      <c r="K27">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="L27">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="M27">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="N27">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="O27">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="P27">
+        <v>3.560255214312879</v>
+      </c>
+      <c r="Q27">
+        <v>4.060229454560771</v>
+      </c>
+      <c r="R27">
+        <v>3.454180292884388</v>
+      </c>
+      <c r="S27">
+        <v>2.704913472430864</v>
+      </c>
+      <c r="T27">
+        <v>3.454180292884388</v>
+      </c>
+      <c r="U27">
+        <v>2.83919271683</v>
+      </c>
+      <c r="V27">
+        <v>2.919760263469481</v>
+      </c>
+      <c r="W27">
+        <v>3.513524132187907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="D28">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="E28">
+        <v>6.812431060467663</v>
+      </c>
+      <c r="F28">
+        <v>1.818249791499325</v>
+      </c>
+      <c r="G28">
+        <v>0.3795333233350823</v>
+      </c>
+      <c r="H28">
+        <v>1.08843365971392</v>
+      </c>
+      <c r="I28">
+        <v>0.3656806816609835</v>
+      </c>
+      <c r="J28">
+        <v>0.003140870584186888</v>
+      </c>
+      <c r="K28">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="L28">
+        <v>0.3656806816609835</v>
+      </c>
+      <c r="M28">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="N28">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="O28">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="P28">
+        <v>0.2172787310626943</v>
+      </c>
+      <c r="Q28">
+        <v>3.440653920466034</v>
+      </c>
+      <c r="R28">
+        <v>0.9088360068019044</v>
+      </c>
+      <c r="S28">
+        <v>2.41566284086435</v>
+      </c>
+      <c r="T28">
+        <v>0.9088360068019044</v>
+      </c>
+      <c r="U28">
+        <v>2.384734770218344</v>
+      </c>
+      <c r="V28">
+        <v>2.36617792783074</v>
+      </c>
+      <c r="W28">
+        <v>1.603537090750736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>5.163595772189805</v>
+      </c>
+      <c r="D29">
+        <v>5.163595772189805</v>
+      </c>
+      <c r="E29">
+        <v>5.067865441535209</v>
+      </c>
+      <c r="F29">
+        <v>0.8287578344602489</v>
+      </c>
+      <c r="G29">
+        <v>0.008285393584049359</v>
+      </c>
+      <c r="H29">
+        <v>0.02551358530481629</v>
+      </c>
+      <c r="I29">
+        <v>0.8197752177394318</v>
+      </c>
+      <c r="J29">
+        <v>0.007310794017770437</v>
+      </c>
+      <c r="K29">
+        <v>0.1598470335593815</v>
+      </c>
+      <c r="L29">
+        <v>0.8197752177394318</v>
+      </c>
+      <c r="M29">
+        <v>5.163595772189805</v>
+      </c>
+      <c r="N29">
+        <v>5.163595772189805</v>
+      </c>
+      <c r="O29">
+        <v>0.1598470335593815</v>
+      </c>
+      <c r="P29">
+        <v>0.4898111256494067</v>
+      </c>
+      <c r="Q29">
+        <v>2.613856237547295</v>
+      </c>
+      <c r="R29">
+        <v>2.047739341162873</v>
+      </c>
+      <c r="S29">
+        <v>2.015829230944674</v>
+      </c>
+      <c r="T29">
+        <v>2.047739341162873</v>
+      </c>
+      <c r="U29">
+        <v>2.802770866255957</v>
+      </c>
+      <c r="V29">
+        <v>3.274935847442726</v>
+      </c>
+      <c r="W29">
+        <v>1.510118884048839</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.009639616000214</v>
+        <v>0.9950484231798352</v>
       </c>
       <c r="D4">
-        <v>1.009639616000214</v>
+        <v>0.9950484231798352</v>
       </c>
       <c r="E4">
-        <v>0.8981179679415715</v>
+        <v>0.9177275512883423</v>
       </c>
       <c r="F4">
-        <v>1.092101066123345</v>
+        <v>1.091612077757663</v>
       </c>
       <c r="G4">
-        <v>0.9149610484736869</v>
+        <v>0.9460216726130078</v>
       </c>
       <c r="H4">
-        <v>0.8254758749978008</v>
+        <v>0.7892930973116186</v>
       </c>
       <c r="I4">
-        <v>1.012508668901216</v>
+        <v>0.6979339306661129</v>
       </c>
       <c r="J4">
-        <v>1.023016274513998</v>
+        <v>0.9503055010233554</v>
       </c>
       <c r="K4">
-        <v>2.378768599492833</v>
+        <v>4.723790133246625</v>
       </c>
       <c r="L4">
-        <v>1.012508668901216</v>
+        <v>0.6979339306661129</v>
       </c>
       <c r="M4">
-        <v>1.009639616000105</v>
+        <v>0.9950484231797458</v>
       </c>
       <c r="N4">
-        <v>1.009639616000214</v>
+        <v>0.9950484231798352</v>
       </c>
       <c r="O4">
-        <v>2.378768599492833</v>
+        <v>4.723790133246625</v>
       </c>
       <c r="P4">
-        <v>1.695638634197024</v>
+        <v>2.710862031956369</v>
       </c>
       <c r="Q4">
-        <v>1.638443283717202</v>
+        <v>2.820758842267483</v>
       </c>
       <c r="R4">
-        <v>1.466972294798087</v>
+        <v>2.138924162364191</v>
       </c>
       <c r="S4">
-        <v>1.429798412111873</v>
+        <v>2.11315053840036</v>
       </c>
       <c r="T4">
-        <v>1.466972294798087</v>
+        <v>2.138924162364191</v>
       </c>
       <c r="U4">
-        <v>1.324758713083958</v>
+        <v>1.833625009595229</v>
       </c>
       <c r="V4">
-        <v>1.261734893667209</v>
+        <v>1.66590969231215</v>
       </c>
       <c r="W4">
-        <v>1.144323639555583</v>
+        <v>1.38896654838582</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.315797018859849</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="D5">
-        <v>1.315797018859849</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="E5">
-        <v>0.9868352454561917</v>
+        <v>3.960888691994206</v>
       </c>
       <c r="F5">
-        <v>1.139980691553699</v>
+        <v>3.604885020557555</v>
       </c>
       <c r="G5">
-        <v>1.01307189253619</v>
+        <v>3.957814197546023</v>
       </c>
       <c r="H5">
-        <v>0.9485429945670607</v>
+        <v>3.878833375896534</v>
       </c>
       <c r="I5">
-        <v>1.195873929991311</v>
+        <v>8.979342344833363</v>
       </c>
       <c r="J5">
-        <v>0.8890695506926936</v>
+        <v>-0.001134647219809994</v>
       </c>
       <c r="K5">
-        <v>7.558203007118548</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="L5">
-        <v>1.195873929991311</v>
+        <v>8.979342344833363</v>
       </c>
       <c r="M5">
-        <v>1.315797018859766</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="N5">
-        <v>1.315797018859849</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="O5">
-        <v>7.558203007118548</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="P5">
-        <v>4.37703846855493</v>
+        <v>4.836329608771219</v>
       </c>
       <c r="Q5">
-        <v>4.27251912628737</v>
+        <v>2.327102782351641</v>
       </c>
       <c r="R5">
-        <v>3.356624651989903</v>
+        <v>7.176109860769285</v>
       </c>
       <c r="S5">
-        <v>3.246970727522017</v>
+        <v>4.544515969845548</v>
       </c>
       <c r="T5">
-        <v>3.356624651989903</v>
+        <v>7.176109860769285</v>
       </c>
       <c r="U5">
-        <v>2.764177300356475</v>
+        <v>6.372304568575515</v>
       </c>
       <c r="V5">
-        <v>2.47450124405715</v>
+        <v>7.468977727813495</v>
       </c>
       <c r="W5">
-        <v>1.880921791346943</v>
+        <v>4.616202027635295</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6602454914644297</v>
+        <v>1.009639616000214</v>
       </c>
       <c r="D6">
-        <v>0.6602454914644297</v>
+        <v>1.009639616000214</v>
       </c>
       <c r="E6">
-        <v>0.4391695651277662</v>
+        <v>0.8981179679415715</v>
       </c>
       <c r="F6">
-        <v>0.5407920875013938</v>
+        <v>1.092101066123345</v>
       </c>
       <c r="G6">
-        <v>0.4435040455173282</v>
+        <v>0.9149610484736869</v>
       </c>
       <c r="H6">
-        <v>0.4745863008851787</v>
+        <v>0.8254758749978008</v>
       </c>
       <c r="I6">
-        <v>0.4532072119093449</v>
+        <v>1.012508668901216</v>
       </c>
       <c r="J6">
-        <v>0.4323049017518667</v>
+        <v>1.023016274513998</v>
       </c>
       <c r="K6">
-        <v>62.75842379450049</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="L6">
-        <v>0.4532072119093449</v>
+        <v>1.012508668901216</v>
       </c>
       <c r="M6">
-        <v>0.6602454914643945</v>
+        <v>1.009639616000105</v>
       </c>
       <c r="N6">
-        <v>0.6602454914644297</v>
+        <v>1.009639616000214</v>
       </c>
       <c r="O6">
-        <v>62.75842379450049</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="P6">
-        <v>31.60581550320492</v>
+        <v>1.695638634197024</v>
       </c>
       <c r="Q6">
-        <v>31.59879667981413</v>
+        <v>1.638443283717202</v>
       </c>
       <c r="R6">
-        <v>21.29062549929142</v>
+        <v>1.466972294798087</v>
       </c>
       <c r="S6">
-        <v>21.21693352384586</v>
+        <v>1.429798412111873</v>
       </c>
       <c r="T6">
-        <v>21.29062549929142</v>
+        <v>1.466972294798087</v>
       </c>
       <c r="U6">
-        <v>16.07776151575051</v>
+        <v>1.324758713083958</v>
       </c>
       <c r="V6">
-        <v>12.99425831089329</v>
+        <v>1.261734893667209</v>
       </c>
       <c r="W6">
-        <v>8.275279174832225</v>
+        <v>1.144323639555583</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.736394243543359</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="D7">
-        <v>1.736394243543359</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="E7">
-        <v>1.147649304949285</v>
+        <v>0.9868352454561917</v>
       </c>
       <c r="F7">
-        <v>1.165794870404734</v>
+        <v>1.139980691553699</v>
       </c>
       <c r="G7">
-        <v>1.154589893974013</v>
+        <v>1.01307189253619</v>
       </c>
       <c r="H7">
-        <v>1.147918889679755</v>
+        <v>0.9485429945670607</v>
       </c>
       <c r="I7">
-        <v>1.318174206136428</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="J7">
-        <v>0.9796258803347943</v>
+        <v>0.8890695506926936</v>
       </c>
       <c r="K7">
-        <v>1.263645403266293</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="L7">
-        <v>1.318174206136428</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="M7">
-        <v>1.736394243543242</v>
+        <v>1.315797018859766</v>
       </c>
       <c r="N7">
-        <v>1.736394243543359</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="O7">
-        <v>1.263645403266293</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="P7">
-        <v>1.29090980470136</v>
+        <v>4.37703846855493</v>
       </c>
       <c r="Q7">
-        <v>1.205647354107789</v>
+        <v>4.27251912628737</v>
       </c>
       <c r="R7">
-        <v>1.439404617648693</v>
+        <v>3.356624651989903</v>
       </c>
       <c r="S7">
-        <v>1.243156304784002</v>
+        <v>3.246970727522017</v>
       </c>
       <c r="T7">
-        <v>1.439404617648693</v>
+        <v>3.356624651989903</v>
       </c>
       <c r="U7">
-        <v>1.366465789473841</v>
+        <v>2.764177300356475</v>
       </c>
       <c r="V7">
-        <v>1.440451480287745</v>
+        <v>2.47450124405715</v>
       </c>
       <c r="W7">
-        <v>1.239224086536083</v>
+        <v>1.880921791346943</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.253375835565662</v>
+        <v>0.6602454914644297</v>
       </c>
       <c r="D8">
-        <v>1.253375835565662</v>
+        <v>0.6602454914644297</v>
       </c>
       <c r="E8">
-        <v>0.9516262303654709</v>
+        <v>0.4391695651277662</v>
       </c>
       <c r="F8">
-        <v>1.078712803721037</v>
+        <v>0.5407920875013938</v>
       </c>
       <c r="G8">
-        <v>0.9741665222393703</v>
+        <v>0.4435040455173282</v>
       </c>
       <c r="H8">
-        <v>1.093293488806311</v>
+        <v>0.4745863008851787</v>
       </c>
       <c r="I8">
-        <v>1.25457928082467</v>
+        <v>0.4532072119093449</v>
       </c>
       <c r="J8">
-        <v>1.00854562283096</v>
+        <v>0.4323049017518667</v>
       </c>
       <c r="K8">
-        <v>0.9862463819789583</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="L8">
-        <v>1.25457928082467</v>
+        <v>0.4532072119093449</v>
       </c>
       <c r="M8">
-        <v>1.253375835565545</v>
+        <v>0.6602454914643945</v>
       </c>
       <c r="N8">
-        <v>1.253375835565662</v>
+        <v>0.6602454914644297</v>
       </c>
       <c r="O8">
-        <v>0.9862463819789583</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="P8">
-        <v>1.120412831401814</v>
+        <v>31.60581550320492</v>
       </c>
       <c r="Q8">
-        <v>0.9689363061722146</v>
+        <v>31.59879667981413</v>
       </c>
       <c r="R8">
-        <v>1.164733832789764</v>
+        <v>21.29062549929142</v>
       </c>
       <c r="S8">
-        <v>1.064150631056366</v>
+        <v>21.21693352384586</v>
       </c>
       <c r="T8">
-        <v>1.164733832789764</v>
+        <v>21.29062549929142</v>
       </c>
       <c r="U8">
-        <v>1.11145693218369</v>
+        <v>16.07776151575051</v>
       </c>
       <c r="V8">
-        <v>1.139840712860085</v>
+        <v>12.99425831089329</v>
       </c>
       <c r="W8">
-        <v>1.075068270791555</v>
+        <v>8.275279174832225</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.502563244388664</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="D9">
-        <v>2.502563244388664</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="E9">
-        <v>1.422482169259989</v>
+        <v>1.147649304949285</v>
       </c>
       <c r="F9">
-        <v>1.397293827631666</v>
+        <v>1.165794870404734</v>
       </c>
       <c r="G9">
-        <v>1.312414567097076</v>
+        <v>1.154589893974013</v>
       </c>
       <c r="H9">
-        <v>1.457926327561351</v>
+        <v>1.147918889679755</v>
       </c>
       <c r="I9">
-        <v>1.737050942784302</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="J9">
-        <v>0.8516177735610253</v>
+        <v>0.9796258803347943</v>
       </c>
       <c r="K9">
-        <v>1.334292287912513</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="L9">
-        <v>1.737050942784302</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="M9">
-        <v>2.502563244388496</v>
+        <v>1.736394243543242</v>
       </c>
       <c r="N9">
-        <v>2.502563244388664</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="O9">
-        <v>1.334292287912513</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="P9">
-        <v>1.535671615348408</v>
+        <v>1.29090980470136</v>
       </c>
       <c r="Q9">
-        <v>1.378387228586251</v>
+        <v>1.205647354107789</v>
       </c>
       <c r="R9">
-        <v>1.857968825028493</v>
+        <v>1.439404617648693</v>
       </c>
       <c r="S9">
-        <v>1.497941799985601</v>
+        <v>1.243156304784002</v>
       </c>
       <c r="T9">
-        <v>1.857968825028493</v>
+        <v>1.439404617648693</v>
       </c>
       <c r="U9">
-        <v>1.749097161086367</v>
+        <v>1.366465789473841</v>
       </c>
       <c r="V9">
-        <v>1.899790377746826</v>
+        <v>1.440451480287745</v>
       </c>
       <c r="W9">
-        <v>1.501955142524573</v>
+        <v>1.239224086536083</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4501427105209644</v>
+        <v>1.253375835565662</v>
       </c>
       <c r="D10">
-        <v>0.4501427105209644</v>
+        <v>1.253375835565662</v>
       </c>
       <c r="E10">
-        <v>0.3065032449582566</v>
+        <v>0.9516262303654709</v>
       </c>
       <c r="F10">
-        <v>0.581013453752772</v>
+        <v>1.078712803721037</v>
       </c>
       <c r="G10">
-        <v>0.4336647048615254</v>
+        <v>0.9741665222393703</v>
       </c>
       <c r="H10">
-        <v>0.4489895904126015</v>
+        <v>1.093293488806311</v>
       </c>
       <c r="I10">
-        <v>0.4650904938513307</v>
+        <v>1.25457928082467</v>
       </c>
       <c r="J10">
-        <v>0.4642399907752839</v>
+        <v>1.00854562283096</v>
       </c>
       <c r="K10">
-        <v>63.58480839175045</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="L10">
-        <v>0.4650904938513307</v>
+        <v>1.25457928082467</v>
       </c>
       <c r="M10">
-        <v>0.4501427105209444</v>
+        <v>1.253375835565545</v>
       </c>
       <c r="N10">
-        <v>0.4501427105209644</v>
+        <v>1.253375835565662</v>
       </c>
       <c r="O10">
-        <v>63.58480839175045</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="P10">
-        <v>32.02494944280089</v>
+        <v>1.120412831401814</v>
       </c>
       <c r="Q10">
-        <v>31.94565581835435</v>
+        <v>0.9689363061722146</v>
       </c>
       <c r="R10">
-        <v>21.50001386537425</v>
+        <v>1.164733832789764</v>
       </c>
       <c r="S10">
-        <v>21.45213404352001</v>
+        <v>1.064150631056366</v>
       </c>
       <c r="T10">
-        <v>21.50001386537425</v>
+        <v>1.164733832789764</v>
       </c>
       <c r="U10">
-        <v>16.20163621027025</v>
+        <v>1.11145693218369</v>
       </c>
       <c r="V10">
-        <v>13.05133751032039</v>
+        <v>1.139840712860085</v>
       </c>
       <c r="W10">
-        <v>8.341806572610398</v>
+        <v>1.075068270791555</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.488447715844619</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="D11">
-        <v>1.488447715844619</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="E11">
-        <v>0.9065920333045342</v>
+        <v>1.422482169259989</v>
       </c>
       <c r="F11">
-        <v>1.451221215223808</v>
+        <v>1.397293827631666</v>
       </c>
       <c r="G11">
-        <v>1.120381197536326</v>
+        <v>1.312414567097076</v>
       </c>
       <c r="H11">
-        <v>0.4073919239872749</v>
+        <v>1.457926327561351</v>
       </c>
       <c r="I11">
-        <v>0.3407748917778118</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="J11">
-        <v>0.7309951674538929</v>
+        <v>0.8516177735610253</v>
       </c>
       <c r="K11">
-        <v>2.425311684567569</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="L11">
-        <v>0.3407748917778118</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="M11">
-        <v>1.488447715844473</v>
+        <v>2.502563244388496</v>
       </c>
       <c r="N11">
-        <v>1.488447715844619</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="O11">
-        <v>2.425311684567569</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="P11">
-        <v>1.38304328817269</v>
+        <v>1.535671615348408</v>
       </c>
       <c r="Q11">
-        <v>1.665951858936052</v>
+        <v>1.378387228586251</v>
       </c>
       <c r="R11">
-        <v>1.418178097396667</v>
+        <v>1.857968825028493</v>
       </c>
       <c r="S11">
-        <v>1.224226203216638</v>
+        <v>1.497941799985601</v>
       </c>
       <c r="T11">
-        <v>1.418178097396667</v>
+        <v>1.857968825028493</v>
       </c>
       <c r="U11">
-        <v>1.290281581373633</v>
+        <v>1.749097161086367</v>
       </c>
       <c r="V11">
-        <v>1.32991480826783</v>
+        <v>1.899790377746826</v>
       </c>
       <c r="W11">
-        <v>1.108889478711979</v>
+        <v>1.501955142524573</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.010517179464662</v>
+        <v>0.4501427105209644</v>
       </c>
       <c r="D12">
-        <v>1.010517179464662</v>
+        <v>0.4501427105209644</v>
       </c>
       <c r="E12">
-        <v>0.5926432303111876</v>
+        <v>0.3065032449582566</v>
       </c>
       <c r="F12">
-        <v>1.080847432663996</v>
+        <v>0.581013453752772</v>
       </c>
       <c r="G12">
-        <v>0.8724314012209687</v>
+        <v>0.4336647048615254</v>
       </c>
       <c r="H12">
-        <v>0.856215010424862</v>
+        <v>0.4489895904126015</v>
       </c>
       <c r="I12">
-        <v>0.8664458556564376</v>
+        <v>0.4650904938513307</v>
       </c>
       <c r="J12">
-        <v>0.8354591915855841</v>
+        <v>0.4642399907752839</v>
       </c>
       <c r="K12">
-        <v>10.69876407580066</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="L12">
-        <v>0.8664458556564376</v>
+        <v>0.4650904938513307</v>
       </c>
       <c r="M12">
-        <v>1.010517179464625</v>
+        <v>0.4501427105209444</v>
       </c>
       <c r="N12">
-        <v>1.010517179464662</v>
+        <v>0.4501427105209644</v>
       </c>
       <c r="O12">
-        <v>10.69876407580066</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="P12">
-        <v>5.782604965728546</v>
+        <v>32.02494944280089</v>
       </c>
       <c r="Q12">
-        <v>5.645703653055921</v>
+        <v>31.94565581835435</v>
       </c>
       <c r="R12">
-        <v>4.191909036973918</v>
+        <v>21.50001386537425</v>
       </c>
       <c r="S12">
-        <v>4.052617720589427</v>
+        <v>21.45213404352001</v>
       </c>
       <c r="T12">
-        <v>4.191909036973918</v>
+        <v>21.50001386537425</v>
       </c>
       <c r="U12">
-        <v>3.292092585308235</v>
+        <v>16.20163621027025</v>
       </c>
       <c r="V12">
-        <v>2.835777504139521</v>
+        <v>13.05133751032039</v>
       </c>
       <c r="W12">
-        <v>2.101665422141044</v>
+        <v>8.341806572610398</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.206369770785365</v>
+        <v>1.488447715844619</v>
       </c>
       <c r="D13">
-        <v>1.206369770785365</v>
+        <v>1.488447715844619</v>
       </c>
       <c r="E13">
-        <v>0.6574738080779624</v>
+        <v>0.9065920333045342</v>
       </c>
       <c r="F13">
-        <v>1.023681671115104</v>
+        <v>1.451221215223808</v>
       </c>
       <c r="G13">
-        <v>1.083962116746334</v>
+        <v>1.120381197536326</v>
       </c>
       <c r="H13">
-        <v>1.127405961358029</v>
+        <v>0.4073919239872749</v>
       </c>
       <c r="I13">
-        <v>1.572793481629805</v>
+        <v>0.3407748917778118</v>
       </c>
       <c r="J13">
-        <v>1.017172685207827</v>
+        <v>0.7309951674538929</v>
       </c>
       <c r="K13">
-        <v>1.439060095991848</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="L13">
-        <v>1.572793481629805</v>
+        <v>0.3407748917778118</v>
       </c>
       <c r="M13">
-        <v>1.206369770785295</v>
+        <v>1.488447715844473</v>
       </c>
       <c r="N13">
-        <v>1.206369770785365</v>
+        <v>1.488447715844619</v>
       </c>
       <c r="O13">
-        <v>1.439060095991848</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="P13">
-        <v>1.505926788810827</v>
+        <v>1.38304328817269</v>
       </c>
       <c r="Q13">
-        <v>1.048266952034905</v>
+        <v>1.665951858936052</v>
       </c>
       <c r="R13">
-        <v>1.406074449469006</v>
+        <v>1.418178097396667</v>
       </c>
       <c r="S13">
-        <v>1.223109128566539</v>
+        <v>1.224226203216638</v>
       </c>
       <c r="T13">
-        <v>1.406074449469006</v>
+        <v>1.418178097396667</v>
       </c>
       <c r="U13">
-        <v>1.218924289121245</v>
+        <v>1.290281581373633</v>
       </c>
       <c r="V13">
-        <v>1.216413385454069</v>
+        <v>1.32991480826783</v>
       </c>
       <c r="W13">
-        <v>1.140989948864034</v>
+        <v>1.108889478711979</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.01028267199999999</v>
+        <v>1.010517179464662</v>
       </c>
       <c r="D14">
-        <v>0.01028267199999999</v>
+        <v>1.010517179464662</v>
       </c>
       <c r="E14">
-        <v>-0.004928100800000001</v>
+        <v>0.5926432303111876</v>
       </c>
       <c r="F14">
-        <v>0.02555648000000004</v>
+        <v>1.080847432663996</v>
       </c>
       <c r="G14">
-        <v>-0.01224095599999999</v>
+        <v>0.8724314012209687</v>
       </c>
       <c r="H14">
-        <v>-0.0009139994799999984</v>
+        <v>0.856215010424862</v>
       </c>
       <c r="I14">
-        <v>0.0007090084299999996</v>
+        <v>0.8664458556564376</v>
       </c>
       <c r="J14">
-        <v>-0.004903900600000006</v>
+        <v>0.8354591915855841</v>
       </c>
       <c r="K14">
-        <v>121.1415100000001</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="L14">
-        <v>0.0007090084299999996</v>
+        <v>0.8664458556564376</v>
       </c>
       <c r="M14">
-        <v>0.01028267199999999</v>
+        <v>1.010517179464625</v>
       </c>
       <c r="N14">
-        <v>0.01028267199999999</v>
+        <v>1.010517179464662</v>
       </c>
       <c r="O14">
-        <v>121.1415100000001</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="P14">
-        <v>60.57110950421506</v>
+        <v>5.782604965728546</v>
       </c>
       <c r="Q14">
-        <v>60.56829094960006</v>
+        <v>5.645703653055921</v>
       </c>
       <c r="R14">
-        <v>40.38416722681004</v>
+        <v>4.191909036973918</v>
       </c>
       <c r="S14">
-        <v>40.37909696921004</v>
+        <v>4.052617720589427</v>
       </c>
       <c r="T14">
-        <v>40.38416722681004</v>
+        <v>4.191909036973918</v>
       </c>
       <c r="U14">
-        <v>30.28689339490753</v>
+        <v>3.292092585308235</v>
       </c>
       <c r="V14">
-        <v>24.23157125032602</v>
+        <v>2.835777504139521</v>
       </c>
       <c r="W14">
-        <v>15.14438390044377</v>
+        <v>2.101665422141044</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.011910205</v>
+        <v>1.206369770785365</v>
       </c>
       <c r="D15">
-        <v>0.011910205</v>
+        <v>1.206369770785365</v>
       </c>
       <c r="E15">
-        <v>0.0017171891</v>
+        <v>0.6574738080779624</v>
       </c>
       <c r="F15">
-        <v>-0.014236966</v>
+        <v>1.023681671115104</v>
       </c>
       <c r="G15">
-        <v>-0.0009775088</v>
+        <v>1.083962116746334</v>
       </c>
       <c r="H15">
-        <v>-0.012481473</v>
+        <v>1.127405961358029</v>
       </c>
       <c r="I15">
-        <v>242.27911</v>
+        <v>1.572793481629805</v>
       </c>
       <c r="J15">
-        <v>-0.0079125655</v>
+        <v>1.017172685207827</v>
       </c>
       <c r="K15">
-        <v>0.00070900843</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="L15">
-        <v>242.27911</v>
+        <v>1.572793481629805</v>
       </c>
       <c r="M15">
-        <v>0.011910205</v>
+        <v>1.206369770785295</v>
       </c>
       <c r="N15">
-        <v>0.011910205</v>
+        <v>1.206369770785365</v>
       </c>
       <c r="O15">
-        <v>0.00070900843</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="P15">
-        <v>121.139909504215</v>
+        <v>1.505926788810827</v>
       </c>
       <c r="Q15">
-        <v>0.001213098765</v>
+        <v>1.048266952034905</v>
       </c>
       <c r="R15">
-        <v>80.76390973781</v>
+        <v>1.406074449469006</v>
       </c>
       <c r="S15">
-        <v>80.76051206584333</v>
+        <v>1.223109128566539</v>
       </c>
       <c r="T15">
-        <v>80.76390973781</v>
+        <v>1.406074449469006</v>
       </c>
       <c r="U15">
-        <v>60.5733616006325</v>
+        <v>1.218924289121245</v>
       </c>
       <c r="V15">
-        <v>48.461071321506</v>
+        <v>1.216413385454069</v>
       </c>
       <c r="W15">
-        <v>30.28222973615375</v>
+        <v>1.140989948864034</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.010282672</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="D16">
-        <v>0.010282672</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="E16">
-        <v>-0.0049281008</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="F16">
-        <v>0.02555648</v>
+        <v>0.02555648000000004</v>
       </c>
       <c r="G16">
-        <v>-0.012240956</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="H16">
-        <v>-0.0009139994799999999</v>
+        <v>-0.0009139994799999984</v>
       </c>
       <c r="I16">
-        <v>0.00070900843</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="J16">
-        <v>-0.0049039006</v>
+        <v>-0.004903900600000006</v>
       </c>
       <c r="K16">
-        <v>121.14151</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="L16">
-        <v>0.00070900843</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="M16">
-        <v>0.010282672</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="N16">
-        <v>0.010282672</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="O16">
-        <v>121.14151</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="P16">
-        <v>60.57110950421499</v>
+        <v>60.57110950421506</v>
       </c>
       <c r="Q16">
-        <v>60.5682909496</v>
+        <v>60.56829094960006</v>
       </c>
       <c r="R16">
-        <v>40.38416722681</v>
+        <v>40.38416722681004</v>
       </c>
       <c r="S16">
-        <v>40.37909696921</v>
+        <v>40.37909696921004</v>
       </c>
       <c r="T16">
-        <v>40.38416722681</v>
+        <v>40.38416722681004</v>
       </c>
       <c r="U16">
-        <v>30.2868933949075</v>
+        <v>30.28689339490753</v>
       </c>
       <c r="V16">
-        <v>24.231571250326</v>
+        <v>24.23157125032602</v>
       </c>
       <c r="W16">
-        <v>15.14438390044375</v>
+        <v>15.14438390044377</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.0053427112</v>
+        <v>0.011910205</v>
       </c>
       <c r="D17">
-        <v>-0.0053427112</v>
+        <v>0.011910205</v>
       </c>
       <c r="E17">
-        <v>0.0041278775</v>
+        <v>0.0017171891</v>
       </c>
       <c r="F17">
-        <v>0.0080223771</v>
+        <v>-0.014236966</v>
       </c>
       <c r="G17">
-        <v>-0.011459315</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="H17">
-        <v>-0.016048725</v>
+        <v>-0.012481473</v>
       </c>
       <c r="I17">
-        <v>-0.030092917</v>
+        <v>242.27911</v>
       </c>
       <c r="J17">
-        <v>-0.028404277</v>
+        <v>-0.0079125655</v>
       </c>
       <c r="K17">
-        <v>-0.0028360603</v>
+        <v>0.00070900843</v>
       </c>
       <c r="L17">
-        <v>-0.030092917</v>
+        <v>242.27911</v>
       </c>
       <c r="M17">
-        <v>-0.0053427112</v>
+        <v>0.011910205</v>
       </c>
       <c r="N17">
-        <v>-0.0053427112</v>
+        <v>0.011910205</v>
       </c>
       <c r="O17">
-        <v>-0.0028360603</v>
+        <v>0.00070900843</v>
       </c>
       <c r="P17">
-        <v>-0.01646448865</v>
+        <v>121.139909504215</v>
       </c>
       <c r="Q17">
-        <v>0.0006459085999999999</v>
+        <v>0.001213098765</v>
       </c>
       <c r="R17">
-        <v>-0.0127572295</v>
+        <v>80.76390973781</v>
       </c>
       <c r="S17">
-        <v>-0.0096003666</v>
+        <v>80.76051206584333</v>
       </c>
       <c r="T17">
-        <v>-0.0127572295</v>
+        <v>80.76390973781</v>
       </c>
       <c r="U17">
-        <v>-0.008535952749999999</v>
+        <v>60.5733616006325</v>
       </c>
       <c r="V17">
-        <v>-0.007897304439999999</v>
+        <v>48.461071321506</v>
       </c>
       <c r="W17">
-        <v>-0.0102542188625</v>
+        <v>30.28222973615375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>11.17508419080274</v>
+        <v>0.010282672</v>
       </c>
       <c r="D18">
-        <v>11.17508419080274</v>
+        <v>0.010282672</v>
       </c>
       <c r="E18">
-        <v>3.725723849406852</v>
+        <v>-0.0049281008</v>
       </c>
       <c r="F18">
-        <v>3.426349561665754</v>
+        <v>0.02555648</v>
       </c>
       <c r="G18">
-        <v>3.723875504056985</v>
+        <v>-0.012240956</v>
       </c>
       <c r="H18">
-        <v>3.647010614121097</v>
+        <v>-0.0009139994799999999</v>
       </c>
       <c r="I18">
-        <v>10.78818887902</v>
+        <v>0.00070900843</v>
       </c>
       <c r="J18">
-        <v>-0.001597393584931508</v>
+        <v>-0.0049039006</v>
       </c>
       <c r="K18">
-        <v>3.734662364762876</v>
+        <v>121.14151</v>
       </c>
       <c r="L18">
-        <v>10.78818887902</v>
+        <v>0.00070900843</v>
       </c>
       <c r="M18">
-        <v>11.17508419080274</v>
+        <v>0.010282672</v>
       </c>
       <c r="N18">
-        <v>11.17508419080274</v>
+        <v>0.010282672</v>
       </c>
       <c r="O18">
-        <v>3.734662364762876</v>
+        <v>121.14151</v>
       </c>
       <c r="P18">
-        <v>7.261425621891438</v>
+        <v>60.57110950421499</v>
       </c>
       <c r="Q18">
-        <v>3.730193107084864</v>
+        <v>60.5682909496</v>
       </c>
       <c r="R18">
-        <v>8.565978478195206</v>
+        <v>40.38416722681</v>
       </c>
       <c r="S18">
-        <v>6.082858364396576</v>
+        <v>40.37909696921</v>
       </c>
       <c r="T18">
-        <v>8.565978478195206</v>
+        <v>40.38416722681</v>
       </c>
       <c r="U18">
-        <v>7.355914820998117</v>
+        <v>30.2868933949075</v>
       </c>
       <c r="V18">
-        <v>8.119748694959041</v>
+        <v>24.231571250326</v>
       </c>
       <c r="W18">
-        <v>5.027412196281422</v>
+        <v>15.14438390044375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.007608171926315788</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="D19">
-        <v>0.007608171926315788</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="E19">
-        <v>0.001574745657894737</v>
+        <v>0.0041278775</v>
       </c>
       <c r="F19">
-        <v>0.007089420968421055</v>
+        <v>0.0080223771</v>
       </c>
       <c r="G19">
-        <v>0.00457095178</v>
+        <v>-0.011459315</v>
       </c>
       <c r="H19">
-        <v>-0.002566120632631578</v>
+        <v>-0.016048725</v>
       </c>
       <c r="I19">
-        <v>14.35741520336105</v>
+        <v>-0.030092917</v>
       </c>
       <c r="J19">
-        <v>6.654865755542105</v>
+        <v>-0.028404277</v>
       </c>
       <c r="K19">
-        <v>13.55032498050159</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="L19">
-        <v>14.35741520336105</v>
+        <v>-0.030092917</v>
       </c>
       <c r="M19">
-        <v>0.007608171926315788</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="N19">
-        <v>0.007608171926315788</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="O19">
-        <v>13.55032498050159</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="P19">
-        <v>13.95387009193132</v>
+        <v>-0.01646448865</v>
       </c>
       <c r="Q19">
-        <v>6.775949863079741</v>
+        <v>0.0006459085999999999</v>
       </c>
       <c r="R19">
-        <v>9.305116118596318</v>
+        <v>-0.0127572295</v>
       </c>
       <c r="S19">
-        <v>9.303104976506845</v>
+        <v>-0.0096003666</v>
       </c>
       <c r="T19">
-        <v>9.305116118596318</v>
+        <v>-0.0127572295</v>
       </c>
       <c r="U19">
-        <v>6.979230775361713</v>
+        <v>-0.008535952749999999</v>
       </c>
       <c r="V19">
-        <v>5.584906254674634</v>
+        <v>-0.007897304439999999</v>
       </c>
       <c r="W19">
-        <v>4.322610388638092</v>
+        <v>-0.0102542188625</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10.73438975628421</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="D20">
-        <v>10.73438975628421</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="E20">
-        <v>3.578548710449474</v>
+        <v>3.725723849406852</v>
       </c>
       <c r="F20">
-        <v>3.291584131521053</v>
+        <v>3.426349561665754</v>
       </c>
       <c r="G20">
-        <v>3.576545425997369</v>
+        <v>3.723875504056985</v>
       </c>
       <c r="H20">
-        <v>3.502861386301053</v>
+        <v>3.647010614121097</v>
       </c>
       <c r="I20">
-        <v>13.55024100243842</v>
+        <v>10.78818887902</v>
       </c>
       <c r="J20">
-        <v>-0.001767501294736843</v>
+        <v>-0.001597393584931508</v>
       </c>
       <c r="K20">
-        <v>6.775185284685795</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="L20">
-        <v>13.55024100243842</v>
+        <v>10.78818887902</v>
       </c>
       <c r="M20">
-        <v>10.73438975628421</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="N20">
-        <v>10.73438975628421</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="O20">
-        <v>6.775185284685795</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="P20">
-        <v>10.16271314356211</v>
+        <v>7.261425621891438</v>
       </c>
       <c r="Q20">
-        <v>5.176866997567634</v>
+        <v>3.730193107084864</v>
       </c>
       <c r="R20">
-        <v>10.35327201446947</v>
+        <v>8.565978478195206</v>
       </c>
       <c r="S20">
-        <v>7.967991665857897</v>
+        <v>6.082858364396576</v>
       </c>
       <c r="T20">
-        <v>10.35327201446947</v>
+        <v>8.565978478195206</v>
       </c>
       <c r="U20">
-        <v>8.659591188464475</v>
+        <v>7.355914820998117</v>
       </c>
       <c r="V20">
-        <v>9.074550902028422</v>
+        <v>8.119748694959041</v>
       </c>
       <c r="W20">
-        <v>5.625948524547829</v>
+        <v>5.027412196281422</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.0006168176677112139</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="D21">
-        <v>0.0006168176677112139</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="E21">
-        <v>0.06866149054760594</v>
+        <v>0.001574745657894737</v>
       </c>
       <c r="F21">
-        <v>-0.0009557861317237541</v>
+        <v>0.007089420968421055</v>
       </c>
       <c r="G21">
-        <v>-0.0005623933642230922</v>
+        <v>0.00457095178</v>
       </c>
       <c r="H21">
-        <v>7.741689186148496</v>
+        <v>-0.002566120632631578</v>
       </c>
       <c r="I21">
-        <v>11.3253112082399</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="J21">
-        <v>1.439133910944589</v>
+        <v>6.654865755542105</v>
       </c>
       <c r="K21">
-        <v>-0.0003899418825473299</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="L21">
-        <v>11.3253112082399</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="M21">
-        <v>0.0006168176677112139</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="N21">
-        <v>0.0006168176677112139</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="O21">
-        <v>-0.0003899418825473299</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="P21">
-        <v>5.662460633178675</v>
+        <v>13.95387009193132</v>
       </c>
       <c r="Q21">
-        <v>0.0341357743325293</v>
+        <v>6.775949863079741</v>
       </c>
       <c r="R21">
-        <v>3.775179361341687</v>
+        <v>9.305116118596318</v>
       </c>
       <c r="S21">
-        <v>3.797860918968319</v>
+        <v>9.303104976506845</v>
       </c>
       <c r="T21">
-        <v>3.775179361341687</v>
+        <v>9.305116118596318</v>
       </c>
       <c r="U21">
-        <v>2.848549893643167</v>
+        <v>6.979230775361713</v>
       </c>
       <c r="V21">
-        <v>2.278963278448075</v>
+        <v>5.584906254674634</v>
       </c>
       <c r="W21">
-        <v>2.571688061521225</v>
+        <v>4.322610388638092</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-0.0009909289670925157</v>
+        <v>10.73438975628421</v>
       </c>
       <c r="D22">
-        <v>-0.0009909289670925157</v>
+        <v>10.73438975628421</v>
       </c>
       <c r="E22">
-        <v>0.2739816353510962</v>
+        <v>3.578548710449474</v>
       </c>
       <c r="F22">
-        <v>-0.000530223239150013</v>
+        <v>3.291584131521053</v>
       </c>
       <c r="G22">
-        <v>1.60972298834738</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="H22">
-        <v>1.898776812336923</v>
+        <v>3.502861386301053</v>
       </c>
       <c r="I22">
-        <v>-0.002695329012334537</v>
+        <v>13.55024100243842</v>
       </c>
       <c r="J22">
-        <v>2.428908978279019</v>
+        <v>-0.001767501294736843</v>
       </c>
       <c r="K22">
-        <v>0.03481782273777063</v>
+        <v>6.775185284685795</v>
       </c>
       <c r="L22">
-        <v>-0.002695329012334537</v>
+        <v>13.55024100243842</v>
       </c>
       <c r="M22">
-        <v>-0.0009909289675504524</v>
+        <v>10.73438975628421</v>
       </c>
       <c r="N22">
-        <v>-0.0009909289670925157</v>
+        <v>10.73438975628421</v>
       </c>
       <c r="O22">
-        <v>0.03481782273777063</v>
+        <v>6.775185284685795</v>
       </c>
       <c r="P22">
-        <v>0.01606124686271805</v>
+        <v>10.16271314356211</v>
       </c>
       <c r="Q22">
-        <v>0.1543997290444334</v>
+        <v>5.176866997567634</v>
       </c>
       <c r="R22">
-        <v>0.01037718825278119</v>
+        <v>10.35327201446947</v>
       </c>
       <c r="S22">
-        <v>0.1020347096921774</v>
+        <v>7.967991665857897</v>
       </c>
       <c r="T22">
-        <v>0.01037718825278119</v>
+        <v>10.35327201446947</v>
       </c>
       <c r="U22">
-        <v>0.07627830002735994</v>
+        <v>8.659591188464475</v>
       </c>
       <c r="V22">
-        <v>0.06082445422846945</v>
+        <v>9.074550902028422</v>
       </c>
       <c r="W22">
-        <v>0.7802489694792015</v>
+        <v>5.625948524547829</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>-0.002882229086911449</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="D23">
-        <v>-0.002882229086911449</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="E23">
-        <v>0.3174879408921404</v>
+        <v>0.06866149054760594</v>
       </c>
       <c r="F23">
-        <v>0.07390081599865056</v>
+        <v>-0.0009557861317237541</v>
       </c>
       <c r="G23">
-        <v>0.5690785811988043</v>
+        <v>-0.0005623933642230922</v>
       </c>
       <c r="H23">
-        <v>2.0612227090139</v>
+        <v>7.741689186148496</v>
       </c>
       <c r="I23">
-        <v>0.004554680423049943</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="J23">
-        <v>0.5969373541486533</v>
+        <v>1.439133910944589</v>
       </c>
       <c r="K23">
-        <v>-0.0003421703317369149</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="L23">
-        <v>0.004554680423049943</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="M23">
-        <v>-0.002882229086911449</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="N23">
-        <v>-0.002882229086911449</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="O23">
-        <v>-0.0003421703317369149</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="P23">
-        <v>0.002106255045656514</v>
+        <v>5.662460633178675</v>
       </c>
       <c r="Q23">
-        <v>0.1585728852802017</v>
+        <v>0.0341357743325293</v>
       </c>
       <c r="R23">
-        <v>0.0004434270014671931</v>
+        <v>3.775179361341687</v>
       </c>
       <c r="S23">
-        <v>0.1072334836611511</v>
+        <v>3.797860918968319</v>
       </c>
       <c r="T23">
-        <v>0.0004434270014671931</v>
+        <v>3.775179361341687</v>
       </c>
       <c r="U23">
-        <v>0.07970455547413549</v>
+        <v>2.848549893643167</v>
       </c>
       <c r="V23">
-        <v>0.0631871985619261</v>
+        <v>2.278963278448075</v>
       </c>
       <c r="W23">
-        <v>0.4524947102820687</v>
+        <v>2.571688061521225</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.784812425470848</v>
+        <v>-0.0009909289670925157</v>
       </c>
       <c r="D24">
-        <v>5.784812425470848</v>
+        <v>-0.0009909289670925157</v>
       </c>
       <c r="E24">
-        <v>0.008181816750942709</v>
+        <v>0.2739816353510962</v>
       </c>
       <c r="F24">
-        <v>1.63379991653893</v>
+        <v>-0.000530223239150013</v>
       </c>
       <c r="G24">
-        <v>-0.0002601929223607322</v>
+        <v>1.60972298834738</v>
       </c>
       <c r="H24">
-        <v>0.3118080961541104</v>
+        <v>1.898776812336923</v>
       </c>
       <c r="I24">
-        <v>1.697035567127595</v>
+        <v>-0.002695329012334537</v>
       </c>
       <c r="J24">
-        <v>1.796730815926714</v>
+        <v>2.428908978279019</v>
       </c>
       <c r="K24">
-        <v>3.94901608169743</v>
+        <v>0.03481782273777063</v>
       </c>
       <c r="L24">
-        <v>1.697035567127595</v>
+        <v>-0.002695329012334537</v>
       </c>
       <c r="M24">
-        <v>5.784812425470848</v>
+        <v>-0.0009909289675504524</v>
       </c>
       <c r="N24">
-        <v>5.784812425470848</v>
+        <v>-0.0009909289670925157</v>
       </c>
       <c r="O24">
-        <v>3.94901608169743</v>
+        <v>0.03481782273777063</v>
       </c>
       <c r="P24">
-        <v>2.823025824412512</v>
+        <v>0.01606124686271805</v>
       </c>
       <c r="Q24">
-        <v>1.978598949224186</v>
+        <v>0.1543997290444334</v>
       </c>
       <c r="R24">
-        <v>3.810288024765291</v>
+        <v>0.01037718825278119</v>
       </c>
       <c r="S24">
-        <v>1.884744488525323</v>
+        <v>0.1020347096921774</v>
       </c>
       <c r="T24">
-        <v>3.810288024765291</v>
+        <v>0.01037718825278119</v>
       </c>
       <c r="U24">
-        <v>2.859761472761704</v>
+        <v>0.07627830002735994</v>
       </c>
       <c r="V24">
-        <v>3.444771663303533</v>
+        <v>0.06082445422846945</v>
       </c>
       <c r="W24">
-        <v>1.897640565843026</v>
+        <v>0.7802489694792015</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-0.00560906227579368</v>
+        <v>-0.002882229086911449</v>
       </c>
       <c r="D25">
-        <v>-0.00560906227579368</v>
+        <v>-0.002882229086911449</v>
       </c>
       <c r="E25">
-        <v>0.001778640960911361</v>
+        <v>0.3174879408921404</v>
       </c>
       <c r="F25">
-        <v>0.01818158072640773</v>
+        <v>0.07390081599865056</v>
       </c>
       <c r="G25">
-        <v>0.217754540940984</v>
+        <v>0.5690785811988043</v>
       </c>
       <c r="H25">
-        <v>-0.0007833081428472907</v>
+        <v>2.0612227090139</v>
       </c>
       <c r="I25">
-        <v>-0.001881162476360867</v>
+        <v>0.004554680423049943</v>
       </c>
       <c r="J25">
-        <v>0.0004925427278030672</v>
+        <v>0.5969373541486533</v>
       </c>
       <c r="K25">
-        <v>-0.0006148049061772198</v>
+        <v>-0.0003421703317369149</v>
       </c>
       <c r="L25">
-        <v>-0.001881162476360867</v>
+        <v>0.004554680423049943</v>
       </c>
       <c r="M25">
-        <v>-0.00560906227579368</v>
+        <v>-0.002882229086911449</v>
       </c>
       <c r="N25">
-        <v>-0.00560906227579368</v>
+        <v>-0.002882229086911449</v>
       </c>
       <c r="O25">
-        <v>-0.0006148049061772198</v>
+        <v>-0.0003421703317369149</v>
       </c>
       <c r="P25">
-        <v>-0.001247983691269044</v>
+        <v>0.002106255045656514</v>
       </c>
       <c r="Q25">
-        <v>0.0005819180273670705</v>
+        <v>0.1585728852802017</v>
       </c>
       <c r="R25">
-        <v>-0.002701676552777256</v>
+        <v>0.0004434270014671931</v>
       </c>
       <c r="S25">
-        <v>-0.0002391088072089088</v>
+        <v>0.1072334836611511</v>
       </c>
       <c r="T25">
-        <v>-0.002701676552777256</v>
+        <v>0.0004434270014671931</v>
       </c>
       <c r="U25">
-        <v>-0.001581597174355102</v>
+        <v>0.07970455547413549</v>
       </c>
       <c r="V25">
-        <v>-0.002387090194642817</v>
+        <v>0.0631871985619261</v>
       </c>
       <c r="W25">
-        <v>0.02866487094436588</v>
+        <v>0.4524947102820687</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.002781329987213234</v>
+        <v>5.784812425470848</v>
       </c>
       <c r="D26">
-        <v>0.002781329987213234</v>
+        <v>5.784812425470848</v>
       </c>
       <c r="E26">
-        <v>1.687911121886866</v>
+        <v>0.008181816750942709</v>
       </c>
       <c r="F26">
-        <v>1.938100004883605</v>
+        <v>1.63379991653893</v>
       </c>
       <c r="G26">
-        <v>0.2195736007113997</v>
+        <v>-0.0002601929223607322</v>
       </c>
       <c r="H26">
-        <v>-0.003363144876872138</v>
+        <v>0.3118080961541104</v>
       </c>
       <c r="I26">
-        <v>-0.002980182134650026</v>
+        <v>1.697035567127595</v>
       </c>
       <c r="J26">
-        <v>-0.0002172261099951634</v>
+        <v>1.796730815926714</v>
       </c>
       <c r="K26">
-        <v>0.05920021582815128</v>
+        <v>3.94901608169743</v>
       </c>
       <c r="L26">
-        <v>-0.002980182134650026</v>
+        <v>1.697035567127595</v>
       </c>
       <c r="M26">
-        <v>0.002781329987225016</v>
+        <v>5.784812425470848</v>
       </c>
       <c r="N26">
-        <v>0.002781329987213234</v>
+        <v>5.784812425470848</v>
       </c>
       <c r="O26">
-        <v>0.05920021582815128</v>
+        <v>3.94901608169743</v>
       </c>
       <c r="P26">
-        <v>0.02811001684675063</v>
+        <v>2.823025824412512</v>
       </c>
       <c r="Q26">
-        <v>0.8735556688575088</v>
+        <v>1.978598949224186</v>
       </c>
       <c r="R26">
-        <v>0.01966712122690483</v>
+        <v>3.810288024765291</v>
       </c>
       <c r="S26">
-        <v>0.5813770518601226</v>
+        <v>1.884744488525323</v>
       </c>
       <c r="T26">
-        <v>0.01966712122690483</v>
+        <v>3.810288024765291</v>
       </c>
       <c r="U26">
-        <v>0.4367281213918952</v>
+        <v>2.859761472761704</v>
       </c>
       <c r="V26">
-        <v>0.3499387631109588</v>
+        <v>3.444771663303533</v>
       </c>
       <c r="W26">
-        <v>0.4876257150219648</v>
+        <v>1.897640565843026</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>3.242030450027406</v>
+        <v>-0.00560906227579368</v>
       </c>
       <c r="D27">
-        <v>3.242030450027406</v>
+        <v>-0.00560906227579368</v>
       </c>
       <c r="E27">
-        <v>0.9942299886668338</v>
+        <v>0.001778640960911361</v>
       </c>
       <c r="F27">
-        <v>9.336739492101396</v>
+        <v>0.01818158072640773</v>
       </c>
       <c r="G27">
-        <v>0.9200931445365077</v>
+        <v>0.217754540940984</v>
       </c>
       <c r="H27">
-        <v>1.135270146396391</v>
+        <v>-0.0007833081428472907</v>
       </c>
       <c r="I27">
-        <v>-0.005718491828949946</v>
+        <v>-0.001881162476360867</v>
       </c>
       <c r="J27">
-        <v>5.359319407148962</v>
+        <v>0.0004925427278030672</v>
       </c>
       <c r="K27">
-        <v>7.126228920454707</v>
+        <v>-0.0006148049061772198</v>
       </c>
       <c r="L27">
-        <v>-0.005718491828949946</v>
+        <v>-0.001881162476360867</v>
       </c>
       <c r="M27">
-        <v>3.242030450027406</v>
+        <v>-0.00560906227579368</v>
       </c>
       <c r="N27">
-        <v>3.242030450027406</v>
+        <v>-0.00560906227579368</v>
       </c>
       <c r="O27">
-        <v>7.126228920454707</v>
+        <v>-0.0006148049061772198</v>
       </c>
       <c r="P27">
-        <v>3.560255214312879</v>
+        <v>-0.001247983691269044</v>
       </c>
       <c r="Q27">
-        <v>4.060229454560771</v>
+        <v>0.0005819180273670705</v>
       </c>
       <c r="R27">
-        <v>3.454180292884388</v>
+        <v>-0.002701676552777256</v>
       </c>
       <c r="S27">
-        <v>2.704913472430864</v>
+        <v>-0.0002391088072089088</v>
       </c>
       <c r="T27">
-        <v>3.454180292884388</v>
+        <v>-0.002701676552777256</v>
       </c>
       <c r="U27">
-        <v>2.83919271683</v>
+        <v>-0.001581597174355102</v>
       </c>
       <c r="V27">
-        <v>2.919760263469481</v>
+        <v>-0.002387090194642817</v>
       </c>
       <c r="W27">
-        <v>3.513524132187907</v>
+        <v>0.02866487094436588</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>2.291950558280325</v>
+        <v>0.002781329987213234</v>
       </c>
       <c r="D28">
-        <v>2.291950558280325</v>
+        <v>0.002781329987213234</v>
       </c>
       <c r="E28">
-        <v>6.812431060467663</v>
+        <v>1.687911121886866</v>
       </c>
       <c r="F28">
-        <v>1.818249791499325</v>
+        <v>1.938100004883605</v>
       </c>
       <c r="G28">
-        <v>0.3795333233350823</v>
+        <v>0.2195736007113997</v>
       </c>
       <c r="H28">
-        <v>1.08843365971392</v>
+        <v>-0.003363144876872138</v>
       </c>
       <c r="I28">
-        <v>0.3656806816609835</v>
+        <v>-0.002980182134650026</v>
       </c>
       <c r="J28">
-        <v>0.003140870584186888</v>
+        <v>-0.0002172261099951634</v>
       </c>
       <c r="K28">
-        <v>0.06887678046440515</v>
+        <v>0.05920021582815128</v>
       </c>
       <c r="L28">
-        <v>0.3656806816609835</v>
+        <v>-0.002980182134650026</v>
       </c>
       <c r="M28">
-        <v>2.291950558280325</v>
+        <v>0.002781329987225016</v>
       </c>
       <c r="N28">
-        <v>2.291950558280325</v>
+        <v>0.002781329987213234</v>
       </c>
       <c r="O28">
-        <v>0.06887678046440515</v>
+        <v>0.05920021582815128</v>
       </c>
       <c r="P28">
-        <v>0.2172787310626943</v>
+        <v>0.02811001684675063</v>
       </c>
       <c r="Q28">
-        <v>3.440653920466034</v>
+        <v>0.8735556688575088</v>
       </c>
       <c r="R28">
-        <v>0.9088360068019044</v>
+        <v>0.01966712122690483</v>
       </c>
       <c r="S28">
-        <v>2.41566284086435</v>
+        <v>0.5813770518601226</v>
       </c>
       <c r="T28">
-        <v>0.9088360068019044</v>
+        <v>0.01966712122690483</v>
       </c>
       <c r="U28">
-        <v>2.384734770218344</v>
+        <v>0.4367281213918952</v>
       </c>
       <c r="V28">
-        <v>2.36617792783074</v>
+        <v>0.3499387631109588</v>
       </c>
       <c r="W28">
-        <v>1.603537090750736</v>
+        <v>0.4876257150219648</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="D29">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="E29">
+        <v>0.9942299886668338</v>
+      </c>
+      <c r="F29">
+        <v>9.336739492101396</v>
+      </c>
+      <c r="G29">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="H29">
+        <v>1.135270146396391</v>
+      </c>
+      <c r="I29">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="J29">
+        <v>5.359319407148962</v>
+      </c>
+      <c r="K29">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="L29">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="M29">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="N29">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="O29">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="P29">
+        <v>3.560255214312879</v>
+      </c>
+      <c r="Q29">
+        <v>4.060229454560771</v>
+      </c>
+      <c r="R29">
+        <v>3.454180292884388</v>
+      </c>
+      <c r="S29">
+        <v>2.704913472430864</v>
+      </c>
+      <c r="T29">
+        <v>3.454180292884388</v>
+      </c>
+      <c r="U29">
+        <v>2.83919271683</v>
+      </c>
+      <c r="V29">
+        <v>2.919760263469481</v>
+      </c>
+      <c r="W29">
+        <v>3.513524132187907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="D30">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="E30">
+        <v>6.812431060467663</v>
+      </c>
+      <c r="F30">
+        <v>1.818249791499325</v>
+      </c>
+      <c r="G30">
+        <v>0.3795333233350823</v>
+      </c>
+      <c r="H30">
+        <v>1.08843365971392</v>
+      </c>
+      <c r="I30">
+        <v>0.3656806816609835</v>
+      </c>
+      <c r="J30">
+        <v>0.003140870584186888</v>
+      </c>
+      <c r="K30">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="L30">
+        <v>0.3656806816609835</v>
+      </c>
+      <c r="M30">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="N30">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="O30">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="P30">
+        <v>0.2172787310626943</v>
+      </c>
+      <c r="Q30">
+        <v>3.440653920466034</v>
+      </c>
+      <c r="R30">
+        <v>0.9088360068019044</v>
+      </c>
+      <c r="S30">
+        <v>2.41566284086435</v>
+      </c>
+      <c r="T30">
+        <v>0.9088360068019044</v>
+      </c>
+      <c r="U30">
+        <v>2.384734770218344</v>
+      </c>
+      <c r="V30">
+        <v>2.36617792783074</v>
+      </c>
+      <c r="W30">
+        <v>1.603537090750736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>5.163595772189805</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>5.163595772189805</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>5.067865441535209</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.8287578344602489</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.008285393584049359</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.02551358530481629</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.8197752177394318</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.007310794017770437</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.1598470335593815</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8197752177394318</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>5.163595772189805</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>5.163595772189805</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.1598470335593815</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.4898111256494067</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>2.613856237547295</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>2.047739341162873</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>2.015829230944674</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>2.047739341162873</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>2.802770866255957</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>3.274935847442726</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.510118884048839</v>
       </c>
     </row>
